--- a/process/data/policy_review/gohsc-policy-indicator-checklist.xlsx
+++ b/process/data/policy_review/gohsc-policy-indicator-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rmiteduau-my.sharepoint.com/personal/carl_higgs_rmit_edu_au/Documents/projects/global-indicators/process/data/policy_review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{108925EA-CC98-4274-B259-A57460982CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{815C7B4A-12AB-4284-8A32-D6C1988C8E90}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{108925EA-CC98-4274-B259-A57460982CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88AD3004-9B2F-4F95-A84D-FC96065E8926}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{CBD1D931-24DA-4E3E-B988-2C7CFFF38AFE}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11295" xr2:uid="{CBD1D931-24DA-4E3E-B988-2C7CFFF38AFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions " sheetId="5" r:id="rId1"/>
@@ -232,9 +232,6 @@
   </si>
   <si>
     <t>Select all that apply:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Severe storms </t>
   </si>
   <si>
     <t>Floods</t>
@@ -1548,6 +1545,9 @@
   </si>
   <si>
     <t>Language (in English):</t>
+  </si>
+  <si>
+    <t>Severe storms</t>
   </si>
 </sst>
 </file>
@@ -3032,6 +3032,9 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3054,48 +3057,52 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
@@ -3279,13 +3286,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3865,44 +3865,44 @@
       <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="189" t="s">
+      <c r="A3" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="190"/>
-      <c r="B4" s="190"/>
-      <c r="C4" s="190"/>
+      <c r="A4" s="191"/>
+      <c r="B4" s="191"/>
+      <c r="C4" s="191"/>
     </row>
     <row r="5" spans="1:3" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="191" t="s">
+      <c r="A5" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="191"/>
-      <c r="C5" s="191"/>
+      <c r="B5" s="192"/>
+      <c r="C5" s="192"/>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="192"/>
-      <c r="B6" s="192"/>
-      <c r="C6" s="192"/>
+      <c r="A6" s="193"/>
+      <c r="B6" s="193"/>
+      <c r="C6" s="193"/>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="193" t="s">
+      <c r="A7" s="194" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="193"/>
-      <c r="C7" s="193"/>
+      <c r="B7" s="194"/>
+      <c r="C7" s="194"/>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="187" t="s">
+      <c r="B8" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="187"/>
+      <c r="C8" s="188"/>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="159"/>
@@ -3935,28 +3935,28 @@
       <c r="A12" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="185" t="s">
+      <c r="B12" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="185"/>
+      <c r="C12" s="186"/>
     </row>
     <row r="13" spans="1:3" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="185" t="s">
+      <c r="B13" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="185"/>
+      <c r="C13" s="186"/>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="185" t="s">
-        <v>322</v>
-      </c>
-      <c r="C14" s="185"/>
+      <c r="B14" s="186" t="s">
+        <v>321</v>
+      </c>
+      <c r="C14" s="186"/>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="126"/>
@@ -3973,7 +3973,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="161" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3982,38 +3982,38 @@
       <c r="C17" s="161"/>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="188" t="s">
+      <c r="A18" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="188"/>
-      <c r="C18" s="188"/>
+      <c r="B18" s="189"/>
+      <c r="C18" s="189"/>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="185" t="s">
+      <c r="B19" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="185"/>
+      <c r="C19" s="186"/>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="185" t="s">
+      <c r="B20" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="185"/>
+      <c r="C20" s="186"/>
     </row>
     <row r="21" spans="1:3" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="185" t="s">
-        <v>323</v>
-      </c>
-      <c r="C21" s="185"/>
+      <c r="B21" s="186" t="s">
+        <v>322</v>
+      </c>
+      <c r="C21" s="186"/>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="160"/>
@@ -4021,11 +4021,11 @@
       <c r="C22" s="162"/>
     </row>
     <row r="23" spans="1:3" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="188" t="s">
+      <c r="A23" s="189" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="188"/>
-      <c r="C23" s="188"/>
+      <c r="B23" s="189"/>
+      <c r="C23" s="189"/>
     </row>
     <row r="24" spans="1:3" s="34" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="160"/>
@@ -4038,19 +4038,19 @@
       <c r="A25" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="185" t="s">
+      <c r="B25" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="185"/>
+      <c r="C25" s="186"/>
     </row>
     <row r="26" spans="1:3" s="34" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="185" t="s">
+      <c r="B26" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="185"/>
+      <c r="C26" s="186"/>
     </row>
     <row r="27" spans="1:3" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="126"/>
@@ -4089,7 +4089,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="165" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C31" s="139"/>
     </row>
@@ -4097,10 +4097,10 @@
       <c r="A32" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="185" t="s">
+      <c r="B32" s="186" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="185"/>
+      <c r="C32" s="186"/>
     </row>
     <row r="33" spans="1:3" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="126"/>
@@ -4117,7 +4117,7 @@
         <v>5</v>
       </c>
       <c r="C34" s="139" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="34" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4126,7 +4126,7 @@
         <v>5</v>
       </c>
       <c r="C35" s="139" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="34" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4135,17 +4135,17 @@
         <v>5</v>
       </c>
       <c r="C36" s="139" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="185" t="s">
+      <c r="B37" s="186" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="185"/>
+      <c r="C37" s="186"/>
     </row>
     <row r="38" spans="1:3" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="160"/>
@@ -4162,7 +4162,7 @@
         <v>5</v>
       </c>
       <c r="C39" s="139" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="34" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
@@ -4171,7 +4171,7 @@
         <v>5</v>
       </c>
       <c r="C40" s="139" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="34" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4189,7 +4189,7 @@
         <v>5</v>
       </c>
       <c r="C42" s="139" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="34" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4198,7 +4198,7 @@
         <v>5</v>
       </c>
       <c r="C43" s="139" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -4207,7 +4207,7 @@
         <v>5</v>
       </c>
       <c r="C44" s="139" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -4250,7 +4250,7 @@
       <c r="A49" s="160"/>
       <c r="B49" s="160"/>
       <c r="C49" s="139" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4282,29 +4282,29 @@
       <c r="C53" s="139"/>
     </row>
     <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="184" t="s">
+      <c r="A54" s="185" t="s">
         <v>35</v>
       </c>
-      <c r="B54" s="184"/>
-      <c r="C54" s="184"/>
+      <c r="B54" s="185"/>
+      <c r="C54" s="185"/>
     </row>
     <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="185" t="s">
+      <c r="B55" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="C55" s="185"/>
+      <c r="C55" s="186"/>
     </row>
     <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="185" t="s">
+      <c r="B56" s="186" t="s">
         <v>37</v>
       </c>
-      <c r="C56" s="185"/>
+      <c r="C56" s="186"/>
     </row>
     <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="126"/>
@@ -4312,65 +4312,65 @@
       <c r="C57" s="139"/>
     </row>
     <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="184" t="s">
+      <c r="A58" s="185" t="s">
         <v>38</v>
       </c>
-      <c r="B58" s="184"/>
-      <c r="C58" s="184"/>
+      <c r="B58" s="185"/>
+      <c r="C58" s="185"/>
     </row>
     <row r="59" spans="1:3" s="34" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="B59" s="185" t="s">
-        <v>334</v>
-      </c>
-      <c r="C59" s="185"/>
+      <c r="B59" s="186" t="s">
+        <v>333</v>
+      </c>
+      <c r="C59" s="186"/>
     </row>
     <row r="60" spans="1:3" s="34" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="185" t="s">
-        <v>335</v>
-      </c>
-      <c r="C60" s="185"/>
+      <c r="B60" s="186" t="s">
+        <v>334</v>
+      </c>
+      <c r="C60" s="186"/>
     </row>
     <row r="61" spans="1:3" s="37" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="187" t="s">
+      <c r="B61" s="188" t="s">
         <v>39</v>
       </c>
-      <c r="C61" s="187"/>
+      <c r="C61" s="188"/>
     </row>
     <row r="62" spans="1:3" s="34" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="185" t="s">
+      <c r="B62" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="C62" s="185"/>
+      <c r="C62" s="186"/>
     </row>
     <row r="63" spans="1:3" s="34" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="B63" s="185" t="s">
-        <v>336</v>
-      </c>
-      <c r="C63" s="185"/>
+      <c r="B63" s="186" t="s">
+        <v>335</v>
+      </c>
+      <c r="C63" s="186"/>
     </row>
     <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="B64" s="185" t="s">
+      <c r="B64" s="186" t="s">
         <v>41</v>
       </c>
-      <c r="C64" s="185"/>
+      <c r="C64" s="186"/>
     </row>
     <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="127"/>
@@ -4378,11 +4378,11 @@
       <c r="C65" s="127"/>
     </row>
     <row r="66" spans="1:3" s="37" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="186" t="s">
+      <c r="A66" s="187" t="s">
         <v>42</v>
       </c>
-      <c r="B66" s="186"/>
-      <c r="C66" s="186"/>
+      <c r="B66" s="187"/>
+      <c r="C66" s="187"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -4452,189 +4452,189 @@
       <c r="C2" s="170"/>
     </row>
     <row r="3" spans="1:3" s="32" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="189" t="s">
+      <c r="A3" s="190" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
     </row>
     <row r="4" spans="1:3" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39"/>
       <c r="C4" s="171"/>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="194" t="s">
+      <c r="A5" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="194"/>
+      <c r="B5" s="201"/>
       <c r="C5" s="172"/>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="203" t="s">
+      <c r="A6" s="202" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="203"/>
+      <c r="B6" s="202"/>
       <c r="C6" s="173"/>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="203" t="s">
+      <c r="A7" s="202" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="203"/>
+      <c r="B7" s="202"/>
       <c r="C7" s="172"/>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="194" t="s">
+      <c r="A8" s="201" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="194"/>
+      <c r="B8" s="201"/>
       <c r="C8" s="173"/>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="195" t="s">
+      <c r="A9" s="203" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="195"/>
+      <c r="B9" s="203"/>
       <c r="C9" s="172"/>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="194" t="s">
+      <c r="A10" s="201" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="194"/>
+      <c r="B10" s="201"/>
       <c r="C10" s="173"/>
     </row>
     <row r="11" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="201" t="s">
+      <c r="A11" s="199" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="202"/>
+      <c r="B11" s="200"/>
       <c r="C11" s="172"/>
     </row>
     <row r="12" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="197" t="s">
+      <c r="A12" s="195" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="197"/>
+      <c r="B12" s="195"/>
       <c r="C12" s="174"/>
     </row>
     <row r="13" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="204" t="s">
+      <c r="A13" s="198" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="204"/>
-      <c r="C13" s="204"/>
+      <c r="B13" s="198"/>
+      <c r="C13" s="198"/>
     </row>
     <row r="14" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="198" t="s">
+      <c r="A14" s="196" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="198"/>
+      <c r="B14" s="196"/>
       <c r="C14" s="175"/>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="196" t="s">
+      <c r="A15" s="197" t="s">
+        <v>342</v>
+      </c>
+      <c r="B15" s="197"/>
+      <c r="C15" s="176"/>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="197" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="196"/>
-      <c r="C15" s="176"/>
-    </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="196" t="s">
+      <c r="B16" s="197"/>
+      <c r="C16" s="177"/>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="197" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="196"/>
-      <c r="C16" s="177"/>
-    </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="196" t="s">
+      <c r="B17" s="197"/>
+      <c r="C17" s="177"/>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="197" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="196"/>
-      <c r="C17" s="177"/>
-    </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="196" t="s">
+      <c r="B18" s="197"/>
+      <c r="C18" s="177"/>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="197" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="196"/>
-      <c r="C18" s="177"/>
-    </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="196" t="s">
+      <c r="B19" s="197"/>
+      <c r="C19" s="177"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="197" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="196"/>
-      <c r="C19" s="177"/>
-    </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="196" t="s">
+      <c r="B20" s="197"/>
+      <c r="C20" s="178"/>
+    </row>
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="197" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="196"/>
-      <c r="C20" s="178"/>
-    </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="196" t="s">
+      <c r="B21" s="197"/>
+      <c r="C21" s="178"/>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="197" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="196"/>
-      <c r="C21" s="178"/>
-    </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="196" t="s">
+      <c r="B22" s="197"/>
+      <c r="C22" s="178"/>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="197" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="196"/>
-      <c r="C22" s="178"/>
-    </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="196" t="s">
+      <c r="B23" s="197"/>
+      <c r="C23" s="177"/>
+    </row>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="197" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="196"/>
-      <c r="C23" s="177"/>
-    </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="196" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="196"/>
+      <c r="B24" s="197"/>
       <c r="C24" s="174"/>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B25" s="36"/>
       <c r="C25" s="175"/>
     </row>
     <row r="26" spans="1:3" s="34" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="38"/>
       <c r="C26" s="30"/>
     </row>
     <row r="27" spans="1:3" s="34" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="201" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="199"/>
+      <c r="A27" s="199" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="206"/>
       <c r="C27" s="179"/>
     </row>
     <row r="28" spans="1:3" s="34" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="199" t="s">
-        <v>315</v>
-      </c>
-      <c r="B28" s="199"/>
+      <c r="A28" s="206" t="s">
+        <v>314</v>
+      </c>
+      <c r="B28" s="206"/>
       <c r="C28" s="180"/>
     </row>
     <row r="29" spans="1:3" s="34" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="201" t="s">
-        <v>338</v>
-      </c>
-      <c r="B29" s="201"/>
+      <c r="A29" s="199" t="s">
+        <v>337</v>
+      </c>
+      <c r="B29" s="199"/>
       <c r="C29" s="181"/>
     </row>
     <row r="30" spans="1:3" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4644,180 +4644,180 @@
     </row>
     <row r="31" spans="1:3" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="128" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" s="129"/>
       <c r="C31" s="182"/>
     </row>
     <row r="32" spans="1:3" s="157" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="205" t="s">
+      <c r="A32" s="208" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="208"/>
+      <c r="C32" s="208"/>
+    </row>
+    <row r="33" spans="1:3" s="40" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="205" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="205"/>
-      <c r="C32" s="205"/>
-    </row>
-    <row r="33" spans="1:3" s="40" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="206" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="206"/>
-      <c r="C33" s="206"/>
+      <c r="B33" s="205"/>
+      <c r="C33" s="205"/>
     </row>
     <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="136" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="137" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="184" t="s">
+        <v>341</v>
+      </c>
+      <c r="B36" s="207"/>
+      <c r="C36" s="207"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="206" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="254" t="s">
-        <v>342</v>
-      </c>
-      <c r="B36" s="255"/>
-      <c r="C36" s="255"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="199" t="s">
+      <c r="B37" s="206"/>
+      <c r="C37" s="180"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="206" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="199"/>
-      <c r="C37" s="180"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="199" t="s">
+      <c r="B38" s="206"/>
+      <c r="C38" s="180"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="206" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="199"/>
-      <c r="C38" s="180"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="199" t="s">
+      <c r="B39" s="206"/>
+      <c r="C39" s="180"/>
+    </row>
+    <row r="40" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="206" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="199"/>
-      <c r="C39" s="180"/>
-    </row>
-    <row r="40" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="199" t="s">
+      <c r="B40" s="206"/>
+      <c r="C40" s="183"/>
+    </row>
+    <row r="41" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="206" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="199"/>
-      <c r="C40" s="183"/>
-    </row>
-    <row r="41" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="199" t="s">
+      <c r="B41" s="206"/>
+      <c r="C41" s="180"/>
+    </row>
+    <row r="42" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="204" t="s">
         <v>75</v>
       </c>
-      <c r="B41" s="199"/>
-      <c r="C41" s="180"/>
-    </row>
-    <row r="42" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="200" t="s">
+      <c r="B42" s="204"/>
+      <c r="C42" s="181"/>
+    </row>
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="184" t="s">
+        <v>341</v>
+      </c>
+      <c r="B43" s="207"/>
+      <c r="C43" s="207"/>
+    </row>
+    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="206" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="206"/>
+      <c r="C44" s="180"/>
+    </row>
+    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="206" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="206"/>
+      <c r="C45" s="180"/>
+    </row>
+    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="206" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="206"/>
+      <c r="C46" s="180"/>
+    </row>
+    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="206" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="206"/>
+      <c r="C47" s="180"/>
+    </row>
+    <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="206" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="206"/>
+      <c r="C48" s="180"/>
+    </row>
+    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="204" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="204"/>
+      <c r="C49" s="181"/>
+    </row>
+    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="184" t="s">
+        <v>341</v>
+      </c>
+      <c r="B50" s="207"/>
+      <c r="C50" s="207"/>
+    </row>
+    <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="206" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="206"/>
+      <c r="C51" s="180"/>
+    </row>
+    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="206" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="200"/>
-      <c r="C42" s="181"/>
-    </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="254" t="s">
-        <v>342</v>
-      </c>
-      <c r="B43" s="255"/>
-      <c r="C43" s="255"/>
-    </row>
-    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="199" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44" s="199"/>
-      <c r="C44" s="180"/>
-    </row>
-    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="199" t="s">
+      <c r="B52" s="206"/>
+      <c r="C52" s="180"/>
+    </row>
+    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="206" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="199"/>
-      <c r="C45" s="180"/>
-    </row>
-    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="199" t="s">
+      <c r="B53" s="206"/>
+      <c r="C53" s="180"/>
+    </row>
+    <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="206" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="199"/>
-      <c r="C46" s="180"/>
-    </row>
-    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="199" t="s">
+      <c r="B54" s="206"/>
+      <c r="C54" s="180"/>
+    </row>
+    <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="206" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="199"/>
-      <c r="C47" s="180"/>
-    </row>
-    <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="199" t="s">
+      <c r="B55" s="206"/>
+      <c r="C55" s="180"/>
+    </row>
+    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="204" t="s">
         <v>75</v>
       </c>
-      <c r="B48" s="199"/>
-      <c r="C48" s="180"/>
-    </row>
-    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="200" t="s">
-        <v>76</v>
-      </c>
-      <c r="B49" s="200"/>
-      <c r="C49" s="181"/>
-    </row>
-    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="254" t="s">
-        <v>342</v>
-      </c>
-      <c r="B50" s="255"/>
-      <c r="C50" s="255"/>
-    </row>
-    <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="199" t="s">
-        <v>71</v>
-      </c>
-      <c r="B51" s="199"/>
-      <c r="C51" s="180"/>
-    </row>
-    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="199" t="s">
-        <v>77</v>
-      </c>
-      <c r="B52" s="199"/>
-      <c r="C52" s="180"/>
-    </row>
-    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="199" t="s">
-        <v>73</v>
-      </c>
-      <c r="B53" s="199"/>
-      <c r="C53" s="180"/>
-    </row>
-    <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="199" t="s">
-        <v>74</v>
-      </c>
-      <c r="B54" s="199"/>
-      <c r="C54" s="180"/>
-    </row>
-    <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="199" t="s">
-        <v>75</v>
-      </c>
-      <c r="B55" s="199"/>
-      <c r="C55" s="180"/>
-    </row>
-    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="200" t="s">
-        <v>76</v>
-      </c>
-      <c r="B56" s="200"/>
+      <c r="B56" s="204"/>
       <c r="C56" s="181"/>
     </row>
     <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4835,6 +4835,12 @@
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="A51:B51"/>
@@ -4848,35 +4854,29 @@
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A32:C32"/>
     <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A13:C13"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="No/Yes" prompt="Please select response from drop down" sqref="C15:C23" xr:uid="{7200986C-DC30-4512-8BE1-5C41BF347B27}">
@@ -4920,174 +4920,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="56" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="250" t="s">
+      <c r="A1" s="252" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="253"/>
+      <c r="C1" s="228" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="226" t="s">
+      <c r="D1" s="231" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="229" t="s">
+      <c r="E1" s="224" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="222" t="s">
+      <c r="F1" s="224" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="222" t="s">
+      <c r="G1" s="224" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="222" t="s">
+      <c r="H1" s="224" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="222" t="s">
+      <c r="I1" s="242" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="240" t="s">
+      <c r="J1" s="243"/>
+      <c r="K1" s="246" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="241"/>
-      <c r="K1" s="244" t="s">
+      <c r="L1" s="247"/>
+      <c r="M1" s="135" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="245"/>
-      <c r="M1" s="135" t="s">
-        <v>87</v>
-      </c>
-      <c r="N1" s="213" t="s">
-        <v>290</v>
-      </c>
-      <c r="O1" s="214"/>
+      <c r="N1" s="215" t="s">
+        <v>289</v>
+      </c>
+      <c r="O1" s="216"/>
     </row>
     <row r="2" spans="1:15" s="56" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="148" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B2" s="57"/>
-      <c r="C2" s="227"/>
-      <c r="D2" s="230"/>
-      <c r="E2" s="223"/>
-      <c r="F2" s="223"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="223"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="243"/>
-      <c r="K2" s="246"/>
-      <c r="L2" s="247"/>
-      <c r="M2" s="217" t="s">
-        <v>88</v>
-      </c>
-      <c r="N2" s="215" t="s">
-        <v>321</v>
-      </c>
-      <c r="O2" s="216"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="225"/>
+      <c r="F2" s="225"/>
+      <c r="G2" s="225"/>
+      <c r="H2" s="225"/>
+      <c r="I2" s="244"/>
+      <c r="J2" s="245"/>
+      <c r="K2" s="248"/>
+      <c r="L2" s="249"/>
+      <c r="M2" s="219" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" s="217" t="s">
+        <v>320</v>
+      </c>
+      <c r="O2" s="218"/>
     </row>
     <row r="3" spans="1:15" s="56" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="149" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>287</v>
+      </c>
+      <c r="C3" s="230"/>
+      <c r="D3" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>288</v>
-      </c>
-      <c r="C3" s="228"/>
-      <c r="D3" s="59" t="s">
+      <c r="E3" s="59" t="s">
         <v>90</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>91</v>
       </c>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="I3" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="I3" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="J3" s="62" t="s">
+      <c r="K3" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="63" t="s">
+        <v>288</v>
+      </c>
+      <c r="M3" s="220"/>
+      <c r="N3" s="151" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="L3" s="63" t="s">
-        <v>289</v>
-      </c>
-      <c r="M3" s="218"/>
-      <c r="N3" s="151" t="s">
+      <c r="O3" s="64" t="s">
         <v>95</v>
-      </c>
-      <c r="O3" s="64" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="69" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="150"/>
       <c r="B4" s="145" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="D4" s="41" t="s">
         <v>98</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>99</v>
       </c>
       <c r="E4" s="66">
         <v>2017</v>
       </c>
       <c r="F4" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="G4" s="67" t="s">
+      <c r="H4" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="I4" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="J4" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="J4" s="68" t="s">
+      <c r="K4" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="L4" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="K4" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="L4" s="68" t="s">
+      <c r="M4" s="152" t="s">
         <v>105</v>
-      </c>
-      <c r="M4" s="152" t="s">
-        <v>106</v>
       </c>
       <c r="N4" s="166"/>
       <c r="O4" s="166"/>
     </row>
     <row r="5" spans="1:15" s="69" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="248" t="s">
-        <v>287</v>
-      </c>
-      <c r="B5" s="249"/>
+      <c r="A5" s="250" t="s">
+        <v>286</v>
+      </c>
+      <c r="B5" s="251"/>
       <c r="C5" s="70" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" s="66">
         <v>2025</v>
       </c>
       <c r="F5" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="G5" s="67" t="s">
-        <v>109</v>
-      </c>
       <c r="H5" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J5" s="68"/>
       <c r="K5" s="19"/>
@@ -5097,10 +5097,10 @@
       <c r="O5" s="166"/>
     </row>
     <row r="6" spans="1:15" s="141" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="224" t="s">
-        <v>291</v>
-      </c>
-      <c r="B6" s="225"/>
+      <c r="A6" s="226" t="s">
+        <v>290</v>
+      </c>
+      <c r="B6" s="227"/>
       <c r="C6" s="143"/>
       <c r="D6" s="144"/>
       <c r="E6" s="144"/>
@@ -5116,29 +5116,29 @@
       <c r="O6" s="140"/>
     </row>
     <row r="7" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="233" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="234"/>
+      <c r="A7" s="235" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="236"/>
       <c r="C7" s="8"/>
       <c r="D7" s="142"/>
-      <c r="E7" s="235"/>
-      <c r="F7" s="236"/>
-      <c r="G7" s="236"/>
-      <c r="H7" s="236"/>
-      <c r="I7" s="236"/>
-      <c r="J7" s="236"/>
-      <c r="K7" s="236"/>
-      <c r="L7" s="237"/>
+      <c r="E7" s="237"/>
+      <c r="F7" s="238"/>
+      <c r="G7" s="238"/>
+      <c r="H7" s="238"/>
+      <c r="I7" s="238"/>
+      <c r="J7" s="238"/>
+      <c r="K7" s="238"/>
+      <c r="L7" s="239"/>
       <c r="M7" s="78"/>
       <c r="N7" s="78"/>
       <c r="O7" s="167"/>
     </row>
     <row r="8" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="238" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="239"/>
+      <c r="A8" s="240" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="241"/>
       <c r="C8" s="75"/>
       <c r="D8" s="73"/>
       <c r="E8" s="43"/>
@@ -5154,10 +5154,10 @@
       <c r="O8" s="74"/>
     </row>
     <row r="9" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="238" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="239"/>
+      <c r="A9" s="240" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="241"/>
       <c r="C9" s="75"/>
       <c r="D9" s="73"/>
       <c r="E9" s="42"/>
@@ -5173,10 +5173,10 @@
       <c r="O9" s="74"/>
     </row>
     <row r="10" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="238" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="239"/>
+      <c r="A10" s="240" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="241"/>
       <c r="C10" s="75"/>
       <c r="D10" s="73"/>
       <c r="E10" s="43"/>
@@ -5192,11 +5192,11 @@
       <c r="O10" s="74"/>
     </row>
     <row r="11" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="231" t="s">
+      <c r="A11" s="233" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="44" t="s">
         <v>114</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>115</v>
       </c>
       <c r="C11" s="79"/>
       <c r="D11" s="80"/>
@@ -5209,13 +5209,13 @@
       <c r="K11" s="81"/>
       <c r="L11" s="81"/>
       <c r="M11" s="101"/>
-      <c r="N11" s="207"/>
-      <c r="O11" s="207"/>
+      <c r="N11" s="209"/>
+      <c r="O11" s="209"/>
     </row>
     <row r="12" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="232"/>
+      <c r="A12" s="234"/>
       <c r="B12" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C12" s="82"/>
       <c r="D12" s="83"/>
@@ -5228,13 +5228,13 @@
       <c r="K12" s="20"/>
       <c r="L12" s="77"/>
       <c r="M12" s="82"/>
-      <c r="N12" s="208"/>
-      <c r="O12" s="208"/>
+      <c r="N12" s="210"/>
+      <c r="O12" s="210"/>
     </row>
     <row r="13" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="232"/>
+      <c r="A13" s="234"/>
       <c r="B13" s="47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="86"/>
       <c r="D13" s="87"/>
@@ -5247,13 +5247,13 @@
       <c r="K13" s="21"/>
       <c r="L13" s="88"/>
       <c r="M13" s="86"/>
-      <c r="N13" s="208"/>
-      <c r="O13" s="208"/>
+      <c r="N13" s="210"/>
+      <c r="O13" s="210"/>
     </row>
     <row r="14" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="232"/>
+      <c r="A14" s="234"/>
       <c r="B14" s="47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="86"/>
       <c r="D14" s="87"/>
@@ -5266,13 +5266,13 @@
       <c r="K14" s="21"/>
       <c r="L14" s="88"/>
       <c r="M14" s="86"/>
-      <c r="N14" s="208"/>
-      <c r="O14" s="208"/>
+      <c r="N14" s="210"/>
+      <c r="O14" s="210"/>
     </row>
     <row r="15" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="233"/>
+      <c r="A15" s="235"/>
       <c r="B15" s="49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15" s="90"/>
       <c r="D15" s="91"/>
@@ -5285,15 +5285,15 @@
       <c r="K15" s="22"/>
       <c r="L15" s="92"/>
       <c r="M15" s="90"/>
-      <c r="N15" s="209"/>
-      <c r="O15" s="209"/>
+      <c r="N15" s="211"/>
+      <c r="O15" s="211"/>
     </row>
     <row r="16" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="231" t="s">
+      <c r="A16" s="233" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="146" t="s">
         <v>120</v>
-      </c>
-      <c r="B16" s="146" t="s">
-        <v>121</v>
       </c>
       <c r="C16" s="78"/>
       <c r="D16" s="94"/>
@@ -5306,13 +5306,13 @@
       <c r="K16" s="95"/>
       <c r="L16" s="95"/>
       <c r="M16" s="101"/>
-      <c r="N16" s="210"/>
-      <c r="O16" s="210"/>
+      <c r="N16" s="212"/>
+      <c r="O16" s="212"/>
     </row>
     <row r="17" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="232"/>
+      <c r="A17" s="234"/>
       <c r="B17" s="96" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C17" s="97"/>
       <c r="D17" s="83"/>
@@ -5325,13 +5325,13 @@
       <c r="K17" s="20"/>
       <c r="L17" s="98"/>
       <c r="M17" s="97"/>
-      <c r="N17" s="211"/>
-      <c r="O17" s="211"/>
+      <c r="N17" s="213"/>
+      <c r="O17" s="213"/>
     </row>
     <row r="18" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="232"/>
+      <c r="A18" s="234"/>
       <c r="B18" s="100" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C18" s="86"/>
       <c r="D18" s="87"/>
@@ -5344,13 +5344,13 @@
       <c r="K18" s="21"/>
       <c r="L18" s="88"/>
       <c r="M18" s="86"/>
-      <c r="N18" s="211"/>
-      <c r="O18" s="211"/>
+      <c r="N18" s="213"/>
+      <c r="O18" s="213"/>
     </row>
     <row r="19" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="232"/>
+      <c r="A19" s="234"/>
       <c r="B19" s="100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C19" s="86"/>
       <c r="D19" s="87"/>
@@ -5363,13 +5363,13 @@
       <c r="K19" s="22"/>
       <c r="L19" s="88"/>
       <c r="M19" s="86"/>
-      <c r="N19" s="211"/>
-      <c r="O19" s="211"/>
+      <c r="N19" s="213"/>
+      <c r="O19" s="213"/>
     </row>
     <row r="20" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="232"/>
+      <c r="A20" s="234"/>
       <c r="B20" s="44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C20" s="75"/>
       <c r="D20" s="101"/>
@@ -5382,13 +5382,13 @@
       <c r="K20" s="102"/>
       <c r="L20" s="102"/>
       <c r="M20" s="94"/>
-      <c r="N20" s="211"/>
-      <c r="O20" s="211"/>
+      <c r="N20" s="213"/>
+      <c r="O20" s="213"/>
     </row>
     <row r="21" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="232"/>
+      <c r="A21" s="234"/>
       <c r="B21" s="96" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C21" s="86"/>
       <c r="D21" s="83"/>
@@ -5401,13 +5401,13 @@
       <c r="K21" s="20"/>
       <c r="L21" s="88"/>
       <c r="M21" s="86"/>
-      <c r="N21" s="211"/>
-      <c r="O21" s="211"/>
+      <c r="N21" s="213"/>
+      <c r="O21" s="213"/>
     </row>
     <row r="22" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="232"/>
+      <c r="A22" s="234"/>
       <c r="B22" s="100" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C22" s="86"/>
       <c r="D22" s="87"/>
@@ -5420,13 +5420,13 @@
       <c r="K22" s="21"/>
       <c r="L22" s="88"/>
       <c r="M22" s="86"/>
-      <c r="N22" s="211"/>
-      <c r="O22" s="211"/>
+      <c r="N22" s="213"/>
+      <c r="O22" s="213"/>
     </row>
     <row r="23" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="233"/>
+      <c r="A23" s="235"/>
       <c r="B23" s="103" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C23" s="104"/>
       <c r="D23" s="87"/>
@@ -5439,14 +5439,14 @@
       <c r="K23" s="22"/>
       <c r="L23" s="105"/>
       <c r="M23" s="104"/>
-      <c r="N23" s="212"/>
-      <c r="O23" s="212"/>
+      <c r="N23" s="214"/>
+      <c r="O23" s="214"/>
     </row>
     <row r="24" spans="1:15" s="141" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="224" t="s">
-        <v>292</v>
-      </c>
-      <c r="B24" s="225"/>
+      <c r="A24" s="226" t="s">
+        <v>291</v>
+      </c>
+      <c r="B24" s="227"/>
       <c r="C24" s="143"/>
       <c r="D24" s="144"/>
       <c r="E24" s="144"/>
@@ -5462,11 +5462,11 @@
       <c r="O24" s="140"/>
     </row>
     <row r="25" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="231" t="s">
-        <v>302</v>
+      <c r="A25" s="233" t="s">
+        <v>301</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C25" s="75"/>
       <c r="D25" s="101"/>
@@ -5479,13 +5479,13 @@
       <c r="K25" s="102"/>
       <c r="L25" s="102"/>
       <c r="M25" s="101"/>
-      <c r="N25" s="210"/>
-      <c r="O25" s="210"/>
+      <c r="N25" s="212"/>
+      <c r="O25" s="212"/>
     </row>
     <row r="26" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="232"/>
+      <c r="A26" s="234"/>
       <c r="B26" s="96" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C26" s="86"/>
       <c r="D26" s="83"/>
@@ -5498,13 +5498,13 @@
       <c r="K26" s="20"/>
       <c r="L26" s="88"/>
       <c r="M26" s="86"/>
-      <c r="N26" s="211"/>
-      <c r="O26" s="211"/>
+      <c r="N26" s="213"/>
+      <c r="O26" s="213"/>
     </row>
     <row r="27" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="232"/>
+      <c r="A27" s="234"/>
       <c r="B27" s="96" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C27" s="86"/>
       <c r="D27" s="87"/>
@@ -5517,13 +5517,13 @@
       <c r="K27" s="28"/>
       <c r="L27" s="88"/>
       <c r="M27" s="86"/>
-      <c r="N27" s="211"/>
-      <c r="O27" s="211"/>
+      <c r="N27" s="213"/>
+      <c r="O27" s="213"/>
     </row>
     <row r="28" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="232"/>
+      <c r="A28" s="234"/>
       <c r="B28" s="100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C28" s="86"/>
       <c r="D28" s="87"/>
@@ -5536,13 +5536,13 @@
       <c r="K28" s="22"/>
       <c r="L28" s="88"/>
       <c r="M28" s="86"/>
-      <c r="N28" s="211"/>
-      <c r="O28" s="211"/>
+      <c r="N28" s="213"/>
+      <c r="O28" s="213"/>
     </row>
     <row r="29" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="232"/>
+      <c r="A29" s="234"/>
       <c r="B29" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" s="75"/>
       <c r="D29" s="101"/>
@@ -5555,13 +5555,13 @@
       <c r="K29" s="102"/>
       <c r="L29" s="102"/>
       <c r="M29" s="101"/>
-      <c r="N29" s="211"/>
-      <c r="O29" s="211"/>
+      <c r="N29" s="213"/>
+      <c r="O29" s="213"/>
     </row>
     <row r="30" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="232"/>
+      <c r="A30" s="234"/>
       <c r="B30" s="96" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C30" s="86"/>
       <c r="D30" s="83"/>
@@ -5574,13 +5574,13 @@
       <c r="K30" s="20"/>
       <c r="L30" s="88"/>
       <c r="M30" s="86"/>
-      <c r="N30" s="211"/>
-      <c r="O30" s="211"/>
+      <c r="N30" s="213"/>
+      <c r="O30" s="213"/>
     </row>
     <row r="31" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="232"/>
+      <c r="A31" s="234"/>
       <c r="B31" s="147" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C31" s="104"/>
       <c r="D31" s="87"/>
@@ -5593,13 +5593,13 @@
       <c r="K31" s="28"/>
       <c r="L31" s="105"/>
       <c r="M31" s="104"/>
-      <c r="N31" s="211"/>
-      <c r="O31" s="211"/>
+      <c r="N31" s="213"/>
+      <c r="O31" s="213"/>
     </row>
     <row r="32" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="233"/>
+      <c r="A32" s="235"/>
       <c r="B32" s="108" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C32" s="90"/>
       <c r="D32" s="87"/>
@@ -5612,15 +5612,15 @@
       <c r="K32" s="22"/>
       <c r="L32" s="92"/>
       <c r="M32" s="90"/>
-      <c r="N32" s="212"/>
-      <c r="O32" s="212"/>
+      <c r="N32" s="214"/>
+      <c r="O32" s="214"/>
     </row>
     <row r="33" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="231" t="s">
-        <v>300</v>
+      <c r="A33" s="233" t="s">
+        <v>299</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C33" s="75"/>
       <c r="D33" s="101"/>
@@ -5633,13 +5633,13 @@
       <c r="K33" s="102"/>
       <c r="L33" s="102"/>
       <c r="M33" s="101"/>
-      <c r="N33" s="207"/>
-      <c r="O33" s="207"/>
+      <c r="N33" s="209"/>
+      <c r="O33" s="209"/>
     </row>
     <row r="34" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="232"/>
+      <c r="A34" s="234"/>
       <c r="B34" s="96" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C34" s="86"/>
       <c r="D34" s="83"/>
@@ -5652,13 +5652,13 @@
       <c r="K34" s="20"/>
       <c r="L34" s="88"/>
       <c r="M34" s="86"/>
-      <c r="N34" s="208"/>
-      <c r="O34" s="208"/>
+      <c r="N34" s="210"/>
+      <c r="O34" s="210"/>
     </row>
     <row r="35" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="232"/>
+      <c r="A35" s="234"/>
       <c r="B35" s="100" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C35" s="86"/>
       <c r="D35" s="87"/>
@@ -5671,13 +5671,13 @@
       <c r="K35" s="21"/>
       <c r="L35" s="88"/>
       <c r="M35" s="86"/>
-      <c r="N35" s="208"/>
-      <c r="O35" s="208"/>
+      <c r="N35" s="210"/>
+      <c r="O35" s="210"/>
     </row>
     <row r="36" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="232"/>
+      <c r="A36" s="234"/>
       <c r="B36" s="100" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C36" s="86"/>
       <c r="D36" s="87"/>
@@ -5690,13 +5690,13 @@
       <c r="K36" s="21"/>
       <c r="L36" s="88"/>
       <c r="M36" s="86"/>
-      <c r="N36" s="208"/>
-      <c r="O36" s="208"/>
+      <c r="N36" s="210"/>
+      <c r="O36" s="210"/>
     </row>
     <row r="37" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="232"/>
+      <c r="A37" s="234"/>
       <c r="B37" s="100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C37" s="86"/>
       <c r="D37" s="87"/>
@@ -5709,13 +5709,13 @@
       <c r="K37" s="24"/>
       <c r="L37" s="88"/>
       <c r="M37" s="86"/>
-      <c r="N37" s="208"/>
-      <c r="O37" s="208"/>
+      <c r="N37" s="210"/>
+      <c r="O37" s="210"/>
     </row>
     <row r="38" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="232"/>
+      <c r="A38" s="234"/>
       <c r="B38" s="100" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C38" s="86"/>
       <c r="D38" s="87"/>
@@ -5728,13 +5728,13 @@
       <c r="K38" s="24"/>
       <c r="L38" s="88"/>
       <c r="M38" s="86"/>
-      <c r="N38" s="208"/>
-      <c r="O38" s="208"/>
+      <c r="N38" s="210"/>
+      <c r="O38" s="210"/>
     </row>
     <row r="39" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="232"/>
+      <c r="A39" s="234"/>
       <c r="B39" s="100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C39" s="86"/>
       <c r="D39" s="87"/>
@@ -5747,13 +5747,13 @@
       <c r="K39" s="22"/>
       <c r="L39" s="88"/>
       <c r="M39" s="86"/>
-      <c r="N39" s="208"/>
-      <c r="O39" s="208"/>
+      <c r="N39" s="210"/>
+      <c r="O39" s="210"/>
     </row>
     <row r="40" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="232"/>
+      <c r="A40" s="234"/>
       <c r="B40" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C40" s="75"/>
       <c r="D40" s="101"/>
@@ -5766,13 +5766,13 @@
       <c r="K40" s="102"/>
       <c r="L40" s="102"/>
       <c r="M40" s="101"/>
-      <c r="N40" s="208"/>
-      <c r="O40" s="208"/>
+      <c r="N40" s="210"/>
+      <c r="O40" s="210"/>
     </row>
     <row r="41" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="232"/>
+      <c r="A41" s="234"/>
       <c r="B41" s="96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C41" s="86"/>
       <c r="D41" s="83"/>
@@ -5785,13 +5785,13 @@
       <c r="K41" s="20"/>
       <c r="L41" s="88"/>
       <c r="M41" s="86"/>
-      <c r="N41" s="208"/>
-      <c r="O41" s="208"/>
+      <c r="N41" s="210"/>
+      <c r="O41" s="210"/>
     </row>
     <row r="42" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="233"/>
+      <c r="A42" s="235"/>
       <c r="B42" s="108" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C42" s="90"/>
       <c r="D42" s="87"/>
@@ -5804,15 +5804,15 @@
       <c r="K42" s="22"/>
       <c r="L42" s="92"/>
       <c r="M42" s="90"/>
-      <c r="N42" s="209"/>
-      <c r="O42" s="209"/>
+      <c r="N42" s="211"/>
+      <c r="O42" s="211"/>
     </row>
     <row r="43" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="231" t="s">
-        <v>303</v>
+      <c r="A43" s="233" t="s">
+        <v>302</v>
       </c>
       <c r="B43" s="44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C43" s="75"/>
       <c r="D43" s="101"/>
@@ -5825,13 +5825,13 @@
       <c r="K43" s="102"/>
       <c r="L43" s="102"/>
       <c r="M43" s="101"/>
-      <c r="N43" s="207"/>
-      <c r="O43" s="207"/>
+      <c r="N43" s="209"/>
+      <c r="O43" s="209"/>
     </row>
     <row r="44" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="232"/>
+      <c r="A44" s="234"/>
       <c r="B44" s="96" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C44" s="97"/>
       <c r="D44" s="83"/>
@@ -5844,13 +5844,13 @@
       <c r="K44" s="20"/>
       <c r="L44" s="98"/>
       <c r="M44" s="97"/>
-      <c r="N44" s="208"/>
-      <c r="O44" s="208"/>
+      <c r="N44" s="210"/>
+      <c r="O44" s="210"/>
     </row>
     <row r="45" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="232"/>
+      <c r="A45" s="234"/>
       <c r="B45" s="96" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C45" s="97"/>
       <c r="D45" s="87"/>
@@ -5863,13 +5863,13 @@
       <c r="K45" s="28"/>
       <c r="L45" s="98"/>
       <c r="M45" s="97"/>
-      <c r="N45" s="208"/>
-      <c r="O45" s="208"/>
+      <c r="N45" s="210"/>
+      <c r="O45" s="210"/>
     </row>
     <row r="46" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="232"/>
+      <c r="A46" s="234"/>
       <c r="B46" s="100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46" s="86"/>
       <c r="D46" s="87"/>
@@ -5882,13 +5882,13 @@
       <c r="K46" s="22"/>
       <c r="L46" s="88"/>
       <c r="M46" s="86"/>
-      <c r="N46" s="208"/>
-      <c r="O46" s="208"/>
+      <c r="N46" s="210"/>
+      <c r="O46" s="210"/>
     </row>
     <row r="47" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="232"/>
+      <c r="A47" s="234"/>
       <c r="B47" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C47" s="75"/>
       <c r="D47" s="101"/>
@@ -5901,13 +5901,13 @@
       <c r="K47" s="102"/>
       <c r="L47" s="102"/>
       <c r="M47" s="101"/>
-      <c r="N47" s="208"/>
-      <c r="O47" s="208"/>
+      <c r="N47" s="210"/>
+      <c r="O47" s="210"/>
     </row>
     <row r="48" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="232"/>
+      <c r="A48" s="234"/>
       <c r="B48" s="96" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C48" s="86"/>
       <c r="D48" s="83"/>
@@ -5920,13 +5920,13 @@
       <c r="K48" s="20"/>
       <c r="L48" s="88"/>
       <c r="M48" s="86"/>
-      <c r="N48" s="208"/>
-      <c r="O48" s="208"/>
+      <c r="N48" s="210"/>
+      <c r="O48" s="210"/>
     </row>
     <row r="49" spans="1:15" s="72" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="232"/>
+      <c r="A49" s="234"/>
       <c r="B49" s="103" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C49" s="104"/>
       <c r="D49" s="87"/>
@@ -5939,13 +5939,13 @@
       <c r="K49" s="24"/>
       <c r="L49" s="105"/>
       <c r="M49" s="104"/>
-      <c r="N49" s="208"/>
-      <c r="O49" s="208"/>
+      <c r="N49" s="210"/>
+      <c r="O49" s="210"/>
     </row>
     <row r="50" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="233"/>
+      <c r="A50" s="235"/>
       <c r="B50" s="108" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C50" s="90"/>
       <c r="D50" s="91"/>
@@ -5958,15 +5958,15 @@
       <c r="K50" s="22"/>
       <c r="L50" s="92"/>
       <c r="M50" s="90"/>
-      <c r="N50" s="209"/>
-      <c r="O50" s="209"/>
+      <c r="N50" s="211"/>
+      <c r="O50" s="211"/>
     </row>
     <row r="51" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="231" t="s">
-        <v>301</v>
+      <c r="A51" s="233" t="s">
+        <v>300</v>
       </c>
       <c r="B51" s="44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C51" s="75"/>
       <c r="D51" s="101"/>
@@ -5979,13 +5979,13 @@
       <c r="K51" s="102"/>
       <c r="L51" s="102"/>
       <c r="M51" s="101"/>
-      <c r="N51" s="207"/>
-      <c r="O51" s="207"/>
+      <c r="N51" s="209"/>
+      <c r="O51" s="209"/>
     </row>
     <row r="52" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="232"/>
+      <c r="A52" s="234"/>
       <c r="B52" s="96" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C52" s="86"/>
       <c r="D52" s="83"/>
@@ -5998,13 +5998,13 @@
       <c r="K52" s="20"/>
       <c r="L52" s="88"/>
       <c r="M52" s="86"/>
-      <c r="N52" s="208"/>
-      <c r="O52" s="208"/>
+      <c r="N52" s="210"/>
+      <c r="O52" s="210"/>
     </row>
     <row r="53" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="232"/>
+      <c r="A53" s="234"/>
       <c r="B53" s="100" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C53" s="86"/>
       <c r="D53" s="87"/>
@@ -6017,13 +6017,13 @@
       <c r="K53" s="21"/>
       <c r="L53" s="88"/>
       <c r="M53" s="86"/>
-      <c r="N53" s="208"/>
-      <c r="O53" s="208"/>
+      <c r="N53" s="210"/>
+      <c r="O53" s="210"/>
     </row>
     <row r="54" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="232"/>
+      <c r="A54" s="234"/>
       <c r="B54" s="100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C54" s="86"/>
       <c r="D54" s="87"/>
@@ -6036,13 +6036,13 @@
       <c r="K54" s="21"/>
       <c r="L54" s="88"/>
       <c r="M54" s="86"/>
-      <c r="N54" s="208"/>
-      <c r="O54" s="208"/>
+      <c r="N54" s="210"/>
+      <c r="O54" s="210"/>
     </row>
     <row r="55" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="232"/>
+      <c r="A55" s="234"/>
       <c r="B55" s="100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C55" s="86"/>
       <c r="D55" s="87"/>
@@ -6055,13 +6055,13 @@
       <c r="K55" s="22"/>
       <c r="L55" s="88"/>
       <c r="M55" s="86"/>
-      <c r="N55" s="208"/>
-      <c r="O55" s="208"/>
+      <c r="N55" s="210"/>
+      <c r="O55" s="210"/>
     </row>
     <row r="56" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="232"/>
+      <c r="A56" s="234"/>
       <c r="B56" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C56" s="75"/>
       <c r="D56" s="101"/>
@@ -6074,13 +6074,13 @@
       <c r="K56" s="102"/>
       <c r="L56" s="102"/>
       <c r="M56" s="101"/>
-      <c r="N56" s="208"/>
-      <c r="O56" s="208"/>
+      <c r="N56" s="210"/>
+      <c r="O56" s="210"/>
     </row>
     <row r="57" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="232"/>
+      <c r="A57" s="234"/>
       <c r="B57" s="96" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C57" s="86"/>
       <c r="D57" s="83"/>
@@ -6093,13 +6093,13 @@
       <c r="K57" s="20"/>
       <c r="L57" s="88"/>
       <c r="M57" s="86"/>
-      <c r="N57" s="208"/>
-      <c r="O57" s="208"/>
+      <c r="N57" s="210"/>
+      <c r="O57" s="210"/>
     </row>
     <row r="58" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="233"/>
+      <c r="A58" s="235"/>
       <c r="B58" s="108" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C58" s="90"/>
       <c r="D58" s="87"/>
@@ -6112,15 +6112,15 @@
       <c r="K58" s="22"/>
       <c r="L58" s="92"/>
       <c r="M58" s="90"/>
-      <c r="N58" s="209"/>
-      <c r="O58" s="209"/>
+      <c r="N58" s="211"/>
+      <c r="O58" s="211"/>
     </row>
     <row r="59" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="231" t="s">
-        <v>299</v>
+      <c r="A59" s="233" t="s">
+        <v>298</v>
       </c>
       <c r="B59" s="44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C59" s="75"/>
       <c r="D59" s="101"/>
@@ -6133,13 +6133,13 @@
       <c r="K59" s="102"/>
       <c r="L59" s="102"/>
       <c r="M59" s="101"/>
-      <c r="N59" s="207"/>
-      <c r="O59" s="207"/>
+      <c r="N59" s="209"/>
+      <c r="O59" s="209"/>
     </row>
     <row r="60" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="232"/>
+      <c r="A60" s="234"/>
       <c r="B60" s="96" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C60" s="86"/>
       <c r="D60" s="83"/>
@@ -6152,13 +6152,13 @@
       <c r="K60" s="20"/>
       <c r="L60" s="88"/>
       <c r="M60" s="86"/>
-      <c r="N60" s="208"/>
-      <c r="O60" s="208"/>
+      <c r="N60" s="210"/>
+      <c r="O60" s="210"/>
     </row>
     <row r="61" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="232"/>
+      <c r="A61" s="234"/>
       <c r="B61" s="100" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C61" s="86"/>
       <c r="D61" s="87"/>
@@ -6171,13 +6171,13 @@
       <c r="K61" s="21"/>
       <c r="L61" s="88"/>
       <c r="M61" s="86"/>
-      <c r="N61" s="208"/>
-      <c r="O61" s="208"/>
+      <c r="N61" s="210"/>
+      <c r="O61" s="210"/>
     </row>
     <row r="62" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="232"/>
+      <c r="A62" s="234"/>
       <c r="B62" s="100" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C62" s="86"/>
       <c r="D62" s="87"/>
@@ -6190,13 +6190,13 @@
       <c r="K62" s="21"/>
       <c r="L62" s="88"/>
       <c r="M62" s="86"/>
-      <c r="N62" s="208"/>
-      <c r="O62" s="208"/>
+      <c r="N62" s="210"/>
+      <c r="O62" s="210"/>
     </row>
     <row r="63" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="232"/>
+      <c r="A63" s="234"/>
       <c r="B63" s="100" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C63" s="86"/>
       <c r="D63" s="87"/>
@@ -6209,13 +6209,13 @@
       <c r="K63" s="21"/>
       <c r="L63" s="88"/>
       <c r="M63" s="86"/>
-      <c r="N63" s="208"/>
-      <c r="O63" s="208"/>
+      <c r="N63" s="210"/>
+      <c r="O63" s="210"/>
     </row>
     <row r="64" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="232"/>
+      <c r="A64" s="234"/>
       <c r="B64" s="100" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C64" s="86"/>
       <c r="D64" s="87"/>
@@ -6228,13 +6228,13 @@
       <c r="K64" s="21"/>
       <c r="L64" s="88"/>
       <c r="M64" s="86"/>
-      <c r="N64" s="208"/>
-      <c r="O64" s="208"/>
+      <c r="N64" s="210"/>
+      <c r="O64" s="210"/>
     </row>
     <row r="65" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="232"/>
+      <c r="A65" s="234"/>
       <c r="B65" s="100" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C65" s="86"/>
       <c r="D65" s="87"/>
@@ -6247,13 +6247,13 @@
       <c r="K65" s="21"/>
       <c r="L65" s="88"/>
       <c r="M65" s="86"/>
-      <c r="N65" s="208"/>
-      <c r="O65" s="208"/>
+      <c r="N65" s="210"/>
+      <c r="O65" s="210"/>
     </row>
     <row r="66" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="232"/>
+      <c r="A66" s="234"/>
       <c r="B66" s="100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C66" s="86"/>
       <c r="D66" s="87"/>
@@ -6266,13 +6266,13 @@
       <c r="K66" s="22"/>
       <c r="L66" s="88"/>
       <c r="M66" s="86"/>
-      <c r="N66" s="208"/>
-      <c r="O66" s="208"/>
+      <c r="N66" s="210"/>
+      <c r="O66" s="210"/>
     </row>
     <row r="67" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="232"/>
+      <c r="A67" s="234"/>
       <c r="B67" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C67" s="75"/>
       <c r="D67" s="101"/>
@@ -6285,13 +6285,13 @@
       <c r="K67" s="102"/>
       <c r="L67" s="102"/>
       <c r="M67" s="101"/>
-      <c r="N67" s="208"/>
-      <c r="O67" s="208"/>
+      <c r="N67" s="210"/>
+      <c r="O67" s="210"/>
     </row>
     <row r="68" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="232"/>
+      <c r="A68" s="234"/>
       <c r="B68" s="96" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C68" s="86"/>
       <c r="D68" s="83"/>
@@ -6304,13 +6304,13 @@
       <c r="K68" s="20"/>
       <c r="L68" s="88"/>
       <c r="M68" s="86"/>
-      <c r="N68" s="208"/>
-      <c r="O68" s="208"/>
+      <c r="N68" s="210"/>
+      <c r="O68" s="210"/>
     </row>
     <row r="69" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="232"/>
+      <c r="A69" s="234"/>
       <c r="B69" s="100" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C69" s="86"/>
       <c r="D69" s="87"/>
@@ -6323,13 +6323,13 @@
       <c r="K69" s="21"/>
       <c r="L69" s="88"/>
       <c r="M69" s="86"/>
-      <c r="N69" s="208"/>
-      <c r="O69" s="208"/>
+      <c r="N69" s="210"/>
+      <c r="O69" s="210"/>
     </row>
     <row r="70" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="233"/>
+      <c r="A70" s="235"/>
       <c r="B70" s="108" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C70" s="90"/>
       <c r="D70" s="91"/>
@@ -6342,15 +6342,15 @@
       <c r="K70" s="22"/>
       <c r="L70" s="92"/>
       <c r="M70" s="90"/>
-      <c r="N70" s="209"/>
-      <c r="O70" s="209"/>
+      <c r="N70" s="211"/>
+      <c r="O70" s="211"/>
     </row>
     <row r="71" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="231" t="s">
-        <v>133</v>
+      <c r="A71" s="233" t="s">
+        <v>132</v>
       </c>
       <c r="B71" s="146" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C71" s="78"/>
       <c r="D71" s="94"/>
@@ -6363,13 +6363,13 @@
       <c r="K71" s="95"/>
       <c r="L71" s="95"/>
       <c r="M71" s="94"/>
-      <c r="N71" s="207"/>
-      <c r="O71" s="207"/>
+      <c r="N71" s="209"/>
+      <c r="O71" s="209"/>
     </row>
     <row r="72" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="232"/>
+      <c r="A72" s="234"/>
       <c r="B72" s="96" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C72" s="97"/>
       <c r="D72" s="83"/>
@@ -6382,13 +6382,13 @@
       <c r="K72" s="20"/>
       <c r="L72" s="98"/>
       <c r="M72" s="97"/>
-      <c r="N72" s="208"/>
-      <c r="O72" s="208"/>
+      <c r="N72" s="210"/>
+      <c r="O72" s="210"/>
     </row>
     <row r="73" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="232"/>
+      <c r="A73" s="234"/>
       <c r="B73" s="100" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C73" s="86"/>
       <c r="D73" s="87"/>
@@ -6401,13 +6401,13 @@
       <c r="K73" s="21"/>
       <c r="L73" s="88"/>
       <c r="M73" s="86"/>
-      <c r="N73" s="208"/>
-      <c r="O73" s="208"/>
+      <c r="N73" s="210"/>
+      <c r="O73" s="210"/>
     </row>
     <row r="74" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="232"/>
+      <c r="A74" s="234"/>
       <c r="B74" s="100" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C74" s="86"/>
       <c r="D74" s="87"/>
@@ -6420,13 +6420,13 @@
       <c r="K74" s="21"/>
       <c r="L74" s="88"/>
       <c r="M74" s="86"/>
-      <c r="N74" s="208"/>
-      <c r="O74" s="208"/>
+      <c r="N74" s="210"/>
+      <c r="O74" s="210"/>
     </row>
     <row r="75" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="232"/>
+      <c r="A75" s="234"/>
       <c r="B75" s="100" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C75" s="86"/>
       <c r="D75" s="87"/>
@@ -6439,13 +6439,13 @@
       <c r="K75" s="21"/>
       <c r="L75" s="88"/>
       <c r="M75" s="86"/>
-      <c r="N75" s="208"/>
-      <c r="O75" s="208"/>
+      <c r="N75" s="210"/>
+      <c r="O75" s="210"/>
     </row>
     <row r="76" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="232"/>
+      <c r="A76" s="234"/>
       <c r="B76" s="100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C76" s="86"/>
       <c r="D76" s="87"/>
@@ -6458,13 +6458,13 @@
       <c r="K76" s="22"/>
       <c r="L76" s="88"/>
       <c r="M76" s="86"/>
-      <c r="N76" s="208"/>
-      <c r="O76" s="208"/>
+      <c r="N76" s="210"/>
+      <c r="O76" s="210"/>
     </row>
     <row r="77" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="232"/>
+      <c r="A77" s="234"/>
       <c r="B77" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C77" s="75"/>
       <c r="D77" s="101"/>
@@ -6477,13 +6477,13 @@
       <c r="K77" s="102"/>
       <c r="L77" s="102"/>
       <c r="M77" s="101"/>
-      <c r="N77" s="208"/>
-      <c r="O77" s="208"/>
+      <c r="N77" s="210"/>
+      <c r="O77" s="210"/>
     </row>
     <row r="78" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="232"/>
+      <c r="A78" s="234"/>
       <c r="B78" s="96" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C78" s="86"/>
       <c r="D78" s="83"/>
@@ -6496,13 +6496,13 @@
       <c r="K78" s="20"/>
       <c r="L78" s="88"/>
       <c r="M78" s="86"/>
-      <c r="N78" s="208"/>
-      <c r="O78" s="208"/>
+      <c r="N78" s="210"/>
+      <c r="O78" s="210"/>
     </row>
     <row r="79" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="232"/>
+      <c r="A79" s="234"/>
       <c r="B79" s="100" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C79" s="86"/>
       <c r="D79" s="87"/>
@@ -6515,13 +6515,13 @@
       <c r="K79" s="21"/>
       <c r="L79" s="88"/>
       <c r="M79" s="86"/>
-      <c r="N79" s="208"/>
-      <c r="O79" s="208"/>
+      <c r="N79" s="210"/>
+      <c r="O79" s="210"/>
     </row>
     <row r="80" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="232"/>
+      <c r="A80" s="234"/>
       <c r="B80" s="100" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C80" s="86"/>
       <c r="D80" s="87"/>
@@ -6534,13 +6534,13 @@
       <c r="K80" s="21"/>
       <c r="L80" s="88"/>
       <c r="M80" s="86"/>
-      <c r="N80" s="208"/>
-      <c r="O80" s="208"/>
+      <c r="N80" s="210"/>
+      <c r="O80" s="210"/>
     </row>
     <row r="81" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="232"/>
+      <c r="A81" s="234"/>
       <c r="B81" s="100" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C81" s="86"/>
       <c r="D81" s="87"/>
@@ -6553,13 +6553,13 @@
       <c r="K81" s="21"/>
       <c r="L81" s="88"/>
       <c r="M81" s="86"/>
-      <c r="N81" s="208"/>
-      <c r="O81" s="208"/>
+      <c r="N81" s="210"/>
+      <c r="O81" s="210"/>
     </row>
     <row r="82" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="233"/>
+      <c r="A82" s="235"/>
       <c r="B82" s="108" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C82" s="90"/>
       <c r="D82" s="91"/>
@@ -6572,15 +6572,15 @@
       <c r="K82" s="22"/>
       <c r="L82" s="92"/>
       <c r="M82" s="90"/>
-      <c r="N82" s="209"/>
-      <c r="O82" s="209"/>
+      <c r="N82" s="211"/>
+      <c r="O82" s="211"/>
     </row>
     <row r="83" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="232" t="s">
-        <v>298</v>
+      <c r="A83" s="234" t="s">
+        <v>297</v>
       </c>
       <c r="B83" s="146" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C83" s="78"/>
       <c r="D83" s="94"/>
@@ -6593,13 +6593,13 @@
       <c r="K83" s="95"/>
       <c r="L83" s="95"/>
       <c r="M83" s="94"/>
-      <c r="N83" s="207"/>
+      <c r="N83" s="209"/>
       <c r="O83" s="168"/>
     </row>
     <row r="84" spans="1:15" s="72" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="232"/>
+      <c r="A84" s="234"/>
       <c r="B84" s="96" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C84" s="86"/>
       <c r="D84" s="83"/>
@@ -6612,13 +6612,13 @@
       <c r="K84" s="20"/>
       <c r="L84" s="107"/>
       <c r="M84" s="86"/>
-      <c r="N84" s="208"/>
+      <c r="N84" s="210"/>
       <c r="O84" s="169"/>
     </row>
     <row r="85" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="232"/>
+      <c r="A85" s="234"/>
       <c r="B85" s="100" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C85" s="86"/>
       <c r="D85" s="87"/>
@@ -6631,13 +6631,13 @@
       <c r="K85" s="21"/>
       <c r="L85" s="88"/>
       <c r="M85" s="86"/>
-      <c r="N85" s="208"/>
+      <c r="N85" s="210"/>
       <c r="O85" s="169"/>
     </row>
     <row r="86" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="232"/>
+      <c r="A86" s="234"/>
       <c r="B86" s="100" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C86" s="86"/>
       <c r="D86" s="87"/>
@@ -6650,13 +6650,13 @@
       <c r="K86" s="21"/>
       <c r="L86" s="107"/>
       <c r="M86" s="86"/>
-      <c r="N86" s="208"/>
+      <c r="N86" s="210"/>
       <c r="O86" s="169"/>
     </row>
     <row r="87" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="232"/>
+      <c r="A87" s="234"/>
       <c r="B87" s="100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C87" s="86"/>
       <c r="D87" s="87"/>
@@ -6669,13 +6669,13 @@
       <c r="K87" s="21"/>
       <c r="L87" s="88"/>
       <c r="M87" s="86"/>
-      <c r="N87" s="208"/>
+      <c r="N87" s="210"/>
       <c r="O87" s="169"/>
     </row>
     <row r="88" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="232"/>
+      <c r="A88" s="234"/>
       <c r="B88" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C88" s="75"/>
       <c r="D88" s="101"/>
@@ -6688,13 +6688,13 @@
       <c r="K88" s="102"/>
       <c r="L88" s="102"/>
       <c r="M88" s="101"/>
-      <c r="N88" s="208"/>
+      <c r="N88" s="210"/>
       <c r="O88" s="169"/>
     </row>
     <row r="89" spans="1:15" s="72" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="232"/>
+      <c r="A89" s="234"/>
       <c r="B89" s="96" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C89" s="86"/>
       <c r="D89" s="83"/>
@@ -6707,13 +6707,13 @@
       <c r="K89" s="21"/>
       <c r="L89" s="88"/>
       <c r="M89" s="86"/>
-      <c r="N89" s="208"/>
+      <c r="N89" s="210"/>
       <c r="O89" s="169"/>
     </row>
     <row r="90" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="232"/>
+      <c r="A90" s="234"/>
       <c r="B90" s="96" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C90" s="86"/>
       <c r="D90" s="87"/>
@@ -6726,13 +6726,13 @@
       <c r="K90" s="21"/>
       <c r="L90" s="88"/>
       <c r="M90" s="86"/>
-      <c r="N90" s="208"/>
+      <c r="N90" s="210"/>
       <c r="O90" s="169"/>
     </row>
     <row r="91" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="232"/>
+      <c r="A91" s="234"/>
       <c r="B91" s="100" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C91" s="86"/>
       <c r="D91" s="87"/>
@@ -6745,13 +6745,13 @@
       <c r="K91" s="21"/>
       <c r="L91" s="88"/>
       <c r="M91" s="86"/>
-      <c r="N91" s="208"/>
+      <c r="N91" s="210"/>
       <c r="O91" s="169"/>
     </row>
     <row r="92" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="233"/>
+      <c r="A92" s="235"/>
       <c r="B92" s="108" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C92" s="90"/>
       <c r="D92" s="91"/>
@@ -6764,15 +6764,15 @@
       <c r="K92" s="22"/>
       <c r="L92" s="92"/>
       <c r="M92" s="90"/>
-      <c r="N92" s="209"/>
+      <c r="N92" s="211"/>
       <c r="O92" s="74"/>
     </row>
     <row r="93" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="231" t="s">
-        <v>340</v>
+      <c r="A93" s="233" t="s">
+        <v>339</v>
       </c>
       <c r="B93" s="146" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C93" s="78"/>
       <c r="D93" s="94"/>
@@ -6785,13 +6785,13 @@
       <c r="K93" s="95"/>
       <c r="L93" s="95"/>
       <c r="M93" s="94"/>
-      <c r="N93" s="207"/>
-      <c r="O93" s="207"/>
+      <c r="N93" s="209"/>
+      <c r="O93" s="209"/>
     </row>
     <row r="94" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="232"/>
+      <c r="A94" s="234"/>
       <c r="B94" s="96" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C94" s="97"/>
       <c r="D94" s="83"/>
@@ -6804,13 +6804,13 @@
       <c r="K94" s="23"/>
       <c r="L94" s="109"/>
       <c r="M94" s="97"/>
-      <c r="N94" s="208"/>
-      <c r="O94" s="208"/>
+      <c r="N94" s="210"/>
+      <c r="O94" s="210"/>
     </row>
     <row r="95" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="232"/>
+      <c r="A95" s="234"/>
       <c r="B95" s="100" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C95" s="86"/>
       <c r="D95" s="87"/>
@@ -6823,13 +6823,13 @@
       <c r="K95" s="21"/>
       <c r="L95" s="109"/>
       <c r="M95" s="86"/>
-      <c r="N95" s="208"/>
-      <c r="O95" s="208"/>
+      <c r="N95" s="210"/>
+      <c r="O95" s="210"/>
     </row>
     <row r="96" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="232"/>
+      <c r="A96" s="234"/>
       <c r="B96" s="100" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C96" s="86"/>
       <c r="D96" s="87"/>
@@ -6842,13 +6842,13 @@
       <c r="K96" s="21"/>
       <c r="L96" s="109"/>
       <c r="M96" s="86"/>
-      <c r="N96" s="208"/>
-      <c r="O96" s="208"/>
+      <c r="N96" s="210"/>
+      <c r="O96" s="210"/>
     </row>
     <row r="97" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="232"/>
+      <c r="A97" s="234"/>
       <c r="B97" s="100" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C97" s="86"/>
       <c r="D97" s="87"/>
@@ -6861,13 +6861,13 @@
       <c r="K97" s="21"/>
       <c r="L97" s="88"/>
       <c r="M97" s="86"/>
-      <c r="N97" s="208"/>
-      <c r="O97" s="208"/>
+      <c r="N97" s="210"/>
+      <c r="O97" s="210"/>
     </row>
     <row r="98" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="232"/>
+      <c r="A98" s="234"/>
       <c r="B98" s="100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C98" s="86"/>
       <c r="D98" s="87"/>
@@ -6880,13 +6880,13 @@
       <c r="K98" s="22"/>
       <c r="L98" s="88"/>
       <c r="M98" s="86"/>
-      <c r="N98" s="208"/>
-      <c r="O98" s="208"/>
+      <c r="N98" s="210"/>
+      <c r="O98" s="210"/>
     </row>
     <row r="99" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="232"/>
+      <c r="A99" s="234"/>
       <c r="B99" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C99" s="75"/>
       <c r="D99" s="101"/>
@@ -6899,13 +6899,13 @@
       <c r="K99" s="102"/>
       <c r="L99" s="102"/>
       <c r="M99" s="101"/>
-      <c r="N99" s="208"/>
-      <c r="O99" s="208"/>
+      <c r="N99" s="210"/>
+      <c r="O99" s="210"/>
     </row>
     <row r="100" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="232"/>
+      <c r="A100" s="234"/>
       <c r="B100" s="96" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C100" s="86"/>
       <c r="D100" s="83"/>
@@ -6918,13 +6918,13 @@
       <c r="K100" s="20"/>
       <c r="L100" s="88"/>
       <c r="M100" s="86"/>
-      <c r="N100" s="208"/>
-      <c r="O100" s="208"/>
+      <c r="N100" s="210"/>
+      <c r="O100" s="210"/>
     </row>
     <row r="101" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="233"/>
+      <c r="A101" s="235"/>
       <c r="B101" s="108" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C101" s="90"/>
       <c r="D101" s="87"/>
@@ -6937,15 +6937,15 @@
       <c r="K101" s="22"/>
       <c r="L101" s="92"/>
       <c r="M101" s="90"/>
-      <c r="N101" s="209"/>
-      <c r="O101" s="209"/>
+      <c r="N101" s="211"/>
+      <c r="O101" s="211"/>
     </row>
     <row r="102" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="231" t="s">
-        <v>320</v>
+      <c r="A102" s="233" t="s">
+        <v>319</v>
       </c>
       <c r="B102" s="44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C102" s="75"/>
       <c r="D102" s="101"/>
@@ -6958,13 +6958,13 @@
       <c r="K102" s="102"/>
       <c r="L102" s="102"/>
       <c r="M102" s="101"/>
-      <c r="N102" s="207"/>
-      <c r="O102" s="207"/>
+      <c r="N102" s="209"/>
+      <c r="O102" s="209"/>
     </row>
     <row r="103" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="232"/>
+      <c r="A103" s="234"/>
       <c r="B103" s="96" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C103" s="97"/>
       <c r="D103" s="83"/>
@@ -6977,13 +6977,13 @@
       <c r="K103" s="20"/>
       <c r="L103" s="98"/>
       <c r="M103" s="97"/>
-      <c r="N103" s="208"/>
-      <c r="O103" s="208"/>
+      <c r="N103" s="210"/>
+      <c r="O103" s="210"/>
     </row>
     <row r="104" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="232"/>
+      <c r="A104" s="234"/>
       <c r="B104" s="100" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C104" s="86"/>
       <c r="D104" s="87"/>
@@ -6996,13 +6996,13 @@
       <c r="K104" s="22"/>
       <c r="L104" s="88"/>
       <c r="M104" s="86"/>
-      <c r="N104" s="208"/>
-      <c r="O104" s="208"/>
+      <c r="N104" s="210"/>
+      <c r="O104" s="210"/>
     </row>
     <row r="105" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="232"/>
+      <c r="A105" s="234"/>
       <c r="B105" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C105" s="75"/>
       <c r="D105" s="101"/>
@@ -7015,13 +7015,13 @@
       <c r="K105" s="102"/>
       <c r="L105" s="102"/>
       <c r="M105" s="101"/>
-      <c r="N105" s="208"/>
-      <c r="O105" s="208"/>
+      <c r="N105" s="210"/>
+      <c r="O105" s="210"/>
     </row>
     <row r="106" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="232"/>
+      <c r="A106" s="234"/>
       <c r="B106" s="96" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C106" s="86"/>
       <c r="D106" s="83"/>
@@ -7034,13 +7034,13 @@
       <c r="K106" s="20"/>
       <c r="L106" s="88"/>
       <c r="M106" s="86"/>
-      <c r="N106" s="208"/>
-      <c r="O106" s="208"/>
+      <c r="N106" s="210"/>
+      <c r="O106" s="210"/>
     </row>
     <row r="107" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="233"/>
+      <c r="A107" s="235"/>
       <c r="B107" s="108" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C107" s="90"/>
       <c r="D107" s="87"/>
@@ -7053,15 +7053,15 @@
       <c r="K107" s="22"/>
       <c r="L107" s="92"/>
       <c r="M107" s="90"/>
-      <c r="N107" s="209"/>
-      <c r="O107" s="209"/>
+      <c r="N107" s="211"/>
+      <c r="O107" s="211"/>
     </row>
     <row r="108" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="219" t="s">
-        <v>172</v>
+      <c r="A108" s="221" t="s">
+        <v>171</v>
       </c>
       <c r="B108" s="44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C108" s="75"/>
       <c r="D108" s="101"/>
@@ -7074,13 +7074,13 @@
       <c r="K108" s="102"/>
       <c r="L108" s="102"/>
       <c r="M108" s="101"/>
-      <c r="N108" s="207"/>
-      <c r="O108" s="207"/>
+      <c r="N108" s="209"/>
+      <c r="O108" s="209"/>
     </row>
     <row r="109" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="220"/>
+      <c r="A109" s="222"/>
       <c r="B109" s="96" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C109" s="97"/>
       <c r="D109" s="83"/>
@@ -7093,13 +7093,13 @@
       <c r="K109" s="20"/>
       <c r="L109" s="98"/>
       <c r="M109" s="97"/>
-      <c r="N109" s="208"/>
-      <c r="O109" s="208"/>
+      <c r="N109" s="210"/>
+      <c r="O109" s="210"/>
     </row>
     <row r="110" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="220"/>
+      <c r="A110" s="222"/>
       <c r="B110" s="100" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C110" s="86"/>
       <c r="D110" s="87"/>
@@ -7112,13 +7112,13 @@
       <c r="K110" s="21"/>
       <c r="L110" s="88"/>
       <c r="M110" s="86"/>
-      <c r="N110" s="208"/>
-      <c r="O110" s="208"/>
+      <c r="N110" s="210"/>
+      <c r="O110" s="210"/>
     </row>
     <row r="111" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="220"/>
+      <c r="A111" s="222"/>
       <c r="B111" s="100" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C111" s="86"/>
       <c r="D111" s="87"/>
@@ -7131,13 +7131,13 @@
       <c r="K111" s="21"/>
       <c r="L111" s="88"/>
       <c r="M111" s="86"/>
-      <c r="N111" s="208"/>
-      <c r="O111" s="208"/>
+      <c r="N111" s="210"/>
+      <c r="O111" s="210"/>
     </row>
     <row r="112" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="220"/>
+      <c r="A112" s="222"/>
       <c r="B112" s="100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C112" s="86"/>
       <c r="D112" s="87"/>
@@ -7150,13 +7150,13 @@
       <c r="K112" s="22"/>
       <c r="L112" s="88"/>
       <c r="M112" s="86"/>
-      <c r="N112" s="208"/>
-      <c r="O112" s="208"/>
+      <c r="N112" s="210"/>
+      <c r="O112" s="210"/>
     </row>
     <row r="113" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="220"/>
+      <c r="A113" s="222"/>
       <c r="B113" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C113" s="75"/>
       <c r="D113" s="101"/>
@@ -7169,13 +7169,13 @@
       <c r="K113" s="102"/>
       <c r="L113" s="102"/>
       <c r="M113" s="101"/>
-      <c r="N113" s="208"/>
-      <c r="O113" s="208"/>
+      <c r="N113" s="210"/>
+      <c r="O113" s="210"/>
     </row>
     <row r="114" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="220"/>
+      <c r="A114" s="222"/>
       <c r="B114" s="96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C114" s="86"/>
       <c r="D114" s="83"/>
@@ -7188,13 +7188,13 @@
       <c r="K114" s="20"/>
       <c r="L114" s="88"/>
       <c r="M114" s="86"/>
-      <c r="N114" s="208"/>
-      <c r="O114" s="208"/>
+      <c r="N114" s="210"/>
+      <c r="O114" s="210"/>
     </row>
     <row r="115" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="221"/>
+      <c r="A115" s="223"/>
       <c r="B115" s="108" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C115" s="90"/>
       <c r="D115" s="87"/>
@@ -7207,15 +7207,15 @@
       <c r="K115" s="22"/>
       <c r="L115" s="92"/>
       <c r="M115" s="90"/>
-      <c r="N115" s="209"/>
-      <c r="O115" s="209"/>
+      <c r="N115" s="211"/>
+      <c r="O115" s="211"/>
     </row>
     <row r="116" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="231" t="s">
-        <v>178</v>
+      <c r="A116" s="233" t="s">
+        <v>177</v>
       </c>
       <c r="B116" s="44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C116" s="75"/>
       <c r="D116" s="101"/>
@@ -7228,13 +7228,13 @@
       <c r="K116" s="102"/>
       <c r="L116" s="102"/>
       <c r="M116" s="101"/>
-      <c r="N116" s="207"/>
-      <c r="O116" s="207"/>
+      <c r="N116" s="209"/>
+      <c r="O116" s="209"/>
     </row>
     <row r="117" spans="1:15" s="72" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="232"/>
+      <c r="A117" s="234"/>
       <c r="B117" s="96" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C117" s="86"/>
       <c r="D117" s="83"/>
@@ -7247,13 +7247,13 @@
       <c r="K117" s="20"/>
       <c r="L117" s="88"/>
       <c r="M117" s="86"/>
-      <c r="N117" s="208"/>
-      <c r="O117" s="208"/>
+      <c r="N117" s="210"/>
+      <c r="O117" s="210"/>
     </row>
     <row r="118" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="232"/>
+      <c r="A118" s="234"/>
       <c r="B118" s="100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C118" s="86"/>
       <c r="D118" s="87"/>
@@ -7266,13 +7266,13 @@
       <c r="K118" s="22"/>
       <c r="L118" s="88"/>
       <c r="M118" s="86"/>
-      <c r="N118" s="208"/>
-      <c r="O118" s="208"/>
+      <c r="N118" s="210"/>
+      <c r="O118" s="210"/>
     </row>
     <row r="119" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="232"/>
+      <c r="A119" s="234"/>
       <c r="B119" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C119" s="75"/>
       <c r="D119" s="101"/>
@@ -7285,13 +7285,13 @@
       <c r="K119" s="102"/>
       <c r="L119" s="102"/>
       <c r="M119" s="101"/>
-      <c r="N119" s="208"/>
-      <c r="O119" s="208"/>
+      <c r="N119" s="210"/>
+      <c r="O119" s="210"/>
     </row>
     <row r="120" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="232"/>
+      <c r="A120" s="234"/>
       <c r="B120" s="96" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C120" s="86"/>
       <c r="D120" s="83"/>
@@ -7304,13 +7304,13 @@
       <c r="K120" s="20"/>
       <c r="L120" s="88"/>
       <c r="M120" s="86"/>
-      <c r="N120" s="208"/>
-      <c r="O120" s="208"/>
+      <c r="N120" s="210"/>
+      <c r="O120" s="210"/>
     </row>
     <row r="121" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="233"/>
+      <c r="A121" s="235"/>
       <c r="B121" s="108" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C121" s="90"/>
       <c r="D121" s="87"/>
@@ -7323,15 +7323,15 @@
       <c r="K121" s="22"/>
       <c r="L121" s="92"/>
       <c r="M121" s="90"/>
-      <c r="N121" s="209"/>
-      <c r="O121" s="209"/>
+      <c r="N121" s="211"/>
+      <c r="O121" s="211"/>
     </row>
     <row r="122" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="231" t="s">
-        <v>182</v>
+      <c r="A122" s="233" t="s">
+        <v>181</v>
       </c>
       <c r="B122" s="146" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C122" s="78"/>
       <c r="D122" s="94"/>
@@ -7344,13 +7344,13 @@
       <c r="K122" s="95"/>
       <c r="L122" s="95"/>
       <c r="M122" s="101"/>
-      <c r="N122" s="207"/>
-      <c r="O122" s="207"/>
+      <c r="N122" s="209"/>
+      <c r="O122" s="209"/>
     </row>
     <row r="123" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="232"/>
+      <c r="A123" s="234"/>
       <c r="B123" s="96" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C123" s="86"/>
       <c r="D123" s="83"/>
@@ -7363,13 +7363,13 @@
       <c r="K123" s="20"/>
       <c r="L123" s="88"/>
       <c r="M123" s="86"/>
-      <c r="N123" s="208"/>
-      <c r="O123" s="208"/>
+      <c r="N123" s="210"/>
+      <c r="O123" s="210"/>
     </row>
     <row r="124" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="232"/>
+      <c r="A124" s="234"/>
       <c r="B124" s="100" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C124" s="86"/>
       <c r="D124" s="87"/>
@@ -7382,13 +7382,13 @@
       <c r="K124" s="21"/>
       <c r="L124" s="88"/>
       <c r="M124" s="86"/>
-      <c r="N124" s="208"/>
-      <c r="O124" s="208"/>
+      <c r="N124" s="210"/>
+      <c r="O124" s="210"/>
     </row>
     <row r="125" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="232"/>
+      <c r="A125" s="234"/>
       <c r="B125" s="100" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C125" s="86"/>
       <c r="D125" s="87"/>
@@ -7401,13 +7401,13 @@
       <c r="K125" s="21"/>
       <c r="L125" s="88"/>
       <c r="M125" s="86"/>
-      <c r="N125" s="208"/>
-      <c r="O125" s="208"/>
+      <c r="N125" s="210"/>
+      <c r="O125" s="210"/>
     </row>
     <row r="126" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="232"/>
+      <c r="A126" s="234"/>
       <c r="B126" s="100" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C126" s="86"/>
       <c r="D126" s="87"/>
@@ -7420,13 +7420,13 @@
       <c r="K126" s="21"/>
       <c r="L126" s="88"/>
       <c r="M126" s="86"/>
-      <c r="N126" s="208"/>
-      <c r="O126" s="208"/>
+      <c r="N126" s="210"/>
+      <c r="O126" s="210"/>
     </row>
     <row r="127" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="232"/>
+      <c r="A127" s="234"/>
       <c r="B127" s="100" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C127" s="86"/>
       <c r="D127" s="87"/>
@@ -7439,13 +7439,13 @@
       <c r="K127" s="21"/>
       <c r="L127" s="88"/>
       <c r="M127" s="86"/>
-      <c r="N127" s="208"/>
-      <c r="O127" s="208"/>
+      <c r="N127" s="210"/>
+      <c r="O127" s="210"/>
     </row>
     <row r="128" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="232"/>
+      <c r="A128" s="234"/>
       <c r="B128" s="100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C128" s="86"/>
       <c r="D128" s="87"/>
@@ -7458,13 +7458,13 @@
       <c r="K128" s="22"/>
       <c r="L128" s="88"/>
       <c r="M128" s="86"/>
-      <c r="N128" s="208"/>
-      <c r="O128" s="208"/>
+      <c r="N128" s="210"/>
+      <c r="O128" s="210"/>
     </row>
     <row r="129" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="232"/>
+      <c r="A129" s="234"/>
       <c r="B129" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C129" s="75"/>
       <c r="D129" s="101"/>
@@ -7477,13 +7477,13 @@
       <c r="K129" s="102"/>
       <c r="L129" s="102"/>
       <c r="M129" s="101"/>
-      <c r="N129" s="208"/>
-      <c r="O129" s="208"/>
+      <c r="N129" s="210"/>
+      <c r="O129" s="210"/>
     </row>
     <row r="130" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="232"/>
+      <c r="A130" s="234"/>
       <c r="B130" s="96" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C130" s="86"/>
       <c r="D130" s="83"/>
@@ -7496,13 +7496,13 @@
       <c r="K130" s="20"/>
       <c r="L130" s="88"/>
       <c r="M130" s="86"/>
-      <c r="N130" s="208"/>
-      <c r="O130" s="208"/>
+      <c r="N130" s="210"/>
+      <c r="O130" s="210"/>
     </row>
     <row r="131" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="232"/>
+      <c r="A131" s="234"/>
       <c r="B131" s="100" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C131" s="86"/>
       <c r="D131" s="87"/>
@@ -7515,13 +7515,13 @@
       <c r="K131" s="21"/>
       <c r="L131" s="88"/>
       <c r="M131" s="86"/>
-      <c r="N131" s="208"/>
-      <c r="O131" s="208"/>
+      <c r="N131" s="210"/>
+      <c r="O131" s="210"/>
     </row>
     <row r="132" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="233"/>
+      <c r="A132" s="235"/>
       <c r="B132" s="108" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C132" s="90"/>
       <c r="D132" s="91"/>
@@ -7534,15 +7534,15 @@
       <c r="K132" s="22"/>
       <c r="L132" s="92"/>
       <c r="M132" s="90"/>
-      <c r="N132" s="209"/>
-      <c r="O132" s="209"/>
+      <c r="N132" s="211"/>
+      <c r="O132" s="211"/>
     </row>
     <row r="133" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="231" t="s">
-        <v>189</v>
+      <c r="A133" s="233" t="s">
+        <v>188</v>
       </c>
       <c r="B133" s="146" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C133" s="78"/>
       <c r="D133" s="94"/>
@@ -7555,13 +7555,13 @@
       <c r="K133" s="95"/>
       <c r="L133" s="95"/>
       <c r="M133" s="94"/>
-      <c r="N133" s="207"/>
-      <c r="O133" s="207"/>
+      <c r="N133" s="209"/>
+      <c r="O133" s="209"/>
     </row>
     <row r="134" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="232"/>
+      <c r="A134" s="234"/>
       <c r="B134" s="100" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C134" s="86"/>
       <c r="D134" s="83"/>
@@ -7574,13 +7574,13 @@
       <c r="K134" s="20"/>
       <c r="L134" s="107"/>
       <c r="M134" s="86"/>
-      <c r="N134" s="208"/>
-      <c r="O134" s="208"/>
+      <c r="N134" s="210"/>
+      <c r="O134" s="210"/>
     </row>
     <row r="135" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="232"/>
+      <c r="A135" s="234"/>
       <c r="B135" s="100" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C135" s="86"/>
       <c r="D135" s="87"/>
@@ -7593,13 +7593,13 @@
       <c r="K135" s="21"/>
       <c r="L135" s="88"/>
       <c r="M135" s="86"/>
-      <c r="N135" s="208"/>
-      <c r="O135" s="208"/>
+      <c r="N135" s="210"/>
+      <c r="O135" s="210"/>
     </row>
     <row r="136" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="232"/>
+      <c r="A136" s="234"/>
       <c r="B136" s="100" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C136" s="86"/>
       <c r="D136" s="87"/>
@@ -7612,13 +7612,13 @@
       <c r="K136" s="21"/>
       <c r="L136" s="88"/>
       <c r="M136" s="86"/>
-      <c r="N136" s="208"/>
-      <c r="O136" s="208"/>
+      <c r="N136" s="210"/>
+      <c r="O136" s="210"/>
     </row>
     <row r="137" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="232"/>
+      <c r="A137" s="234"/>
       <c r="B137" s="100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C137" s="86"/>
       <c r="D137" s="87"/>
@@ -7631,13 +7631,13 @@
       <c r="K137" s="22"/>
       <c r="L137" s="88"/>
       <c r="M137" s="86"/>
-      <c r="N137" s="208"/>
-      <c r="O137" s="208"/>
+      <c r="N137" s="210"/>
+      <c r="O137" s="210"/>
     </row>
     <row r="138" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="232"/>
+      <c r="A138" s="234"/>
       <c r="B138" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C138" s="75"/>
       <c r="D138" s="101"/>
@@ -7650,13 +7650,13 @@
       <c r="K138" s="102"/>
       <c r="L138" s="102"/>
       <c r="M138" s="101"/>
-      <c r="N138" s="208"/>
-      <c r="O138" s="208"/>
+      <c r="N138" s="210"/>
+      <c r="O138" s="210"/>
     </row>
     <row r="139" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="232"/>
+      <c r="A139" s="234"/>
       <c r="B139" s="96" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C139" s="86"/>
       <c r="D139" s="83"/>
@@ -7669,13 +7669,13 @@
       <c r="K139" s="20"/>
       <c r="L139" s="88"/>
       <c r="M139" s="86"/>
-      <c r="N139" s="208"/>
-      <c r="O139" s="208"/>
+      <c r="N139" s="210"/>
+      <c r="O139" s="210"/>
     </row>
     <row r="140" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="233"/>
+      <c r="A140" s="235"/>
       <c r="B140" s="108" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C140" s="90"/>
       <c r="D140" s="91"/>
@@ -7688,15 +7688,15 @@
       <c r="K140" s="22"/>
       <c r="L140" s="92"/>
       <c r="M140" s="90"/>
-      <c r="N140" s="209"/>
-      <c r="O140" s="209"/>
+      <c r="N140" s="211"/>
+      <c r="O140" s="211"/>
     </row>
     <row r="141" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="231" t="s">
-        <v>202</v>
+      <c r="A141" s="233" t="s">
+        <v>201</v>
       </c>
       <c r="B141" s="111" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C141" s="75"/>
       <c r="D141" s="101"/>
@@ -7709,13 +7709,13 @@
       <c r="K141" s="29"/>
       <c r="L141" s="102"/>
       <c r="M141" s="101"/>
-      <c r="N141" s="207"/>
-      <c r="O141" s="207"/>
+      <c r="N141" s="209"/>
+      <c r="O141" s="209"/>
     </row>
     <row r="142" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="232"/>
+      <c r="A142" s="234"/>
       <c r="B142" s="112" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C142" s="99"/>
       <c r="D142" s="83"/>
@@ -7728,13 +7728,13 @@
       <c r="K142" s="20"/>
       <c r="L142" s="107"/>
       <c r="M142" s="154"/>
-      <c r="N142" s="208"/>
-      <c r="O142" s="208"/>
+      <c r="N142" s="210"/>
+      <c r="O142" s="210"/>
     </row>
     <row r="143" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="232"/>
+      <c r="A143" s="234"/>
       <c r="B143" s="113" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C143" s="89"/>
       <c r="D143" s="87"/>
@@ -7747,13 +7747,13 @@
       <c r="K143" s="21"/>
       <c r="L143" s="88"/>
       <c r="M143" s="155"/>
-      <c r="N143" s="208"/>
-      <c r="O143" s="208"/>
+      <c r="N143" s="210"/>
+      <c r="O143" s="210"/>
     </row>
     <row r="144" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="232"/>
+      <c r="A144" s="234"/>
       <c r="B144" s="114" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C144" s="115"/>
       <c r="D144" s="87"/>
@@ -7766,13 +7766,13 @@
       <c r="K144" s="21"/>
       <c r="L144" s="88"/>
       <c r="M144" s="155"/>
-      <c r="N144" s="208"/>
-      <c r="O144" s="208"/>
+      <c r="N144" s="210"/>
+      <c r="O144" s="210"/>
     </row>
     <row r="145" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="232"/>
+      <c r="A145" s="234"/>
       <c r="B145" s="116" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C145" s="117"/>
       <c r="D145" s="87"/>
@@ -7785,13 +7785,13 @@
       <c r="K145" s="24"/>
       <c r="L145" s="105"/>
       <c r="M145" s="156"/>
-      <c r="N145" s="208"/>
-      <c r="O145" s="208"/>
+      <c r="N145" s="210"/>
+      <c r="O145" s="210"/>
     </row>
     <row r="146" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="232"/>
+      <c r="A146" s="234"/>
       <c r="B146" s="116" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C146" s="117"/>
       <c r="D146" s="87"/>
@@ -7804,13 +7804,13 @@
       <c r="K146" s="24"/>
       <c r="L146" s="105"/>
       <c r="M146" s="156"/>
-      <c r="N146" s="208"/>
-      <c r="O146" s="208"/>
+      <c r="N146" s="210"/>
+      <c r="O146" s="210"/>
     </row>
     <row r="147" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="232"/>
+      <c r="A147" s="234"/>
       <c r="B147" s="119" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C147" s="106"/>
       <c r="D147" s="87"/>
@@ -7823,13 +7823,13 @@
       <c r="K147" s="22"/>
       <c r="L147" s="92"/>
       <c r="M147" s="156"/>
-      <c r="N147" s="208"/>
-      <c r="O147" s="208"/>
+      <c r="N147" s="210"/>
+      <c r="O147" s="210"/>
     </row>
     <row r="148" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="232"/>
+      <c r="A148" s="234"/>
       <c r="B148" s="120" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C148" s="75"/>
       <c r="D148" s="101"/>
@@ -7842,13 +7842,13 @@
       <c r="K148" s="29"/>
       <c r="L148" s="102"/>
       <c r="M148" s="101"/>
-      <c r="N148" s="208"/>
-      <c r="O148" s="208"/>
+      <c r="N148" s="210"/>
+      <c r="O148" s="210"/>
     </row>
     <row r="149" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="232"/>
+      <c r="A149" s="234"/>
       <c r="B149" s="112" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C149" s="85"/>
       <c r="D149" s="83"/>
@@ -7861,13 +7861,13 @@
       <c r="K149" s="25"/>
       <c r="L149" s="77"/>
       <c r="M149" s="154"/>
-      <c r="N149" s="208"/>
-      <c r="O149" s="208"/>
+      <c r="N149" s="210"/>
+      <c r="O149" s="210"/>
     </row>
     <row r="150" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="232"/>
+      <c r="A150" s="234"/>
       <c r="B150" s="100" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C150" s="121"/>
       <c r="D150" s="87"/>
@@ -7880,13 +7880,13 @@
       <c r="K150" s="26"/>
       <c r="L150" s="88"/>
       <c r="M150" s="155"/>
-      <c r="N150" s="208"/>
-      <c r="O150" s="208"/>
+      <c r="N150" s="210"/>
+      <c r="O150" s="210"/>
     </row>
     <row r="151" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="232"/>
+      <c r="A151" s="234"/>
       <c r="B151" s="116" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C151" s="89"/>
       <c r="D151" s="87"/>
@@ -7899,13 +7899,13 @@
       <c r="K151" s="21"/>
       <c r="L151" s="122"/>
       <c r="M151" s="86"/>
-      <c r="N151" s="208"/>
-      <c r="O151" s="208"/>
+      <c r="N151" s="210"/>
+      <c r="O151" s="210"/>
     </row>
     <row r="152" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="233"/>
+      <c r="A152" s="235"/>
       <c r="B152" s="123" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C152" s="74"/>
       <c r="D152" s="87"/>
@@ -7918,15 +7918,15 @@
       <c r="K152" s="27"/>
       <c r="L152" s="92"/>
       <c r="M152" s="94"/>
-      <c r="N152" s="209"/>
-      <c r="O152" s="209"/>
+      <c r="N152" s="211"/>
+      <c r="O152" s="211"/>
     </row>
     <row r="153" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="231" t="s">
+      <c r="A153" s="233" t="s">
+        <v>210</v>
+      </c>
+      <c r="B153" s="44" t="s">
         <v>211</v>
-      </c>
-      <c r="B153" s="44" t="s">
-        <v>212</v>
       </c>
       <c r="C153" s="75"/>
       <c r="D153" s="101"/>
@@ -7939,13 +7939,13 @@
       <c r="K153" s="102"/>
       <c r="L153" s="102"/>
       <c r="M153" s="101"/>
-      <c r="N153" s="207"/>
-      <c r="O153" s="207"/>
+      <c r="N153" s="209"/>
+      <c r="O153" s="209"/>
     </row>
     <row r="154" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="232"/>
+      <c r="A154" s="234"/>
       <c r="B154" s="96" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C154" s="86"/>
       <c r="D154" s="83"/>
@@ -7958,13 +7958,13 @@
       <c r="K154" s="20"/>
       <c r="L154" s="88"/>
       <c r="M154" s="86"/>
-      <c r="N154" s="208"/>
-      <c r="O154" s="208"/>
+      <c r="N154" s="210"/>
+      <c r="O154" s="210"/>
     </row>
     <row r="155" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="232"/>
+      <c r="A155" s="234"/>
       <c r="B155" s="96" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C155" s="86"/>
       <c r="D155" s="87"/>
@@ -7977,13 +7977,13 @@
       <c r="K155" s="25"/>
       <c r="L155" s="88"/>
       <c r="M155" s="86"/>
-      <c r="N155" s="208"/>
-      <c r="O155" s="208"/>
+      <c r="N155" s="210"/>
+      <c r="O155" s="210"/>
     </row>
     <row r="156" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="232"/>
+      <c r="A156" s="234"/>
       <c r="B156" s="100" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C156" s="86"/>
       <c r="D156" s="87"/>
@@ -7996,13 +7996,13 @@
       <c r="K156" s="21"/>
       <c r="L156" s="88"/>
       <c r="M156" s="86"/>
-      <c r="N156" s="208"/>
-      <c r="O156" s="208"/>
+      <c r="N156" s="210"/>
+      <c r="O156" s="210"/>
     </row>
     <row r="157" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="232"/>
+      <c r="A157" s="234"/>
       <c r="B157" s="100" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C157" s="86"/>
       <c r="D157" s="87"/>
@@ -8015,13 +8015,13 @@
       <c r="K157" s="21"/>
       <c r="L157" s="88"/>
       <c r="M157" s="86"/>
-      <c r="N157" s="208"/>
-      <c r="O157" s="208"/>
+      <c r="N157" s="210"/>
+      <c r="O157" s="210"/>
     </row>
     <row r="158" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="232"/>
+      <c r="A158" s="234"/>
       <c r="B158" s="100" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C158" s="86"/>
       <c r="D158" s="87"/>
@@ -8034,13 +8034,13 @@
       <c r="K158" s="21"/>
       <c r="L158" s="88"/>
       <c r="M158" s="86"/>
-      <c r="N158" s="208"/>
-      <c r="O158" s="208"/>
+      <c r="N158" s="210"/>
+      <c r="O158" s="210"/>
     </row>
     <row r="159" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="232"/>
+      <c r="A159" s="234"/>
       <c r="B159" s="100" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C159" s="86"/>
       <c r="D159" s="87"/>
@@ -8053,13 +8053,13 @@
       <c r="K159" s="21"/>
       <c r="L159" s="88"/>
       <c r="M159" s="86"/>
-      <c r="N159" s="208"/>
-      <c r="O159" s="208"/>
+      <c r="N159" s="210"/>
+      <c r="O159" s="210"/>
     </row>
     <row r="160" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="232"/>
+      <c r="A160" s="234"/>
       <c r="B160" s="100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C160" s="86"/>
       <c r="D160" s="87"/>
@@ -8072,13 +8072,13 @@
       <c r="K160" s="22"/>
       <c r="L160" s="88"/>
       <c r="M160" s="86"/>
-      <c r="N160" s="208"/>
-      <c r="O160" s="208"/>
+      <c r="N160" s="210"/>
+      <c r="O160" s="210"/>
     </row>
     <row r="161" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="232"/>
+      <c r="A161" s="234"/>
       <c r="B161" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C161" s="75"/>
       <c r="D161" s="101"/>
@@ -8091,13 +8091,13 @@
       <c r="K161" s="102"/>
       <c r="L161" s="102"/>
       <c r="M161" s="101"/>
-      <c r="N161" s="208"/>
-      <c r="O161" s="208"/>
+      <c r="N161" s="210"/>
+      <c r="O161" s="210"/>
     </row>
     <row r="162" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="232"/>
+      <c r="A162" s="234"/>
       <c r="B162" s="96" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C162" s="86"/>
       <c r="D162" s="83"/>
@@ -8110,13 +8110,13 @@
       <c r="K162" s="20"/>
       <c r="L162" s="88"/>
       <c r="M162" s="86"/>
-      <c r="N162" s="208"/>
-      <c r="O162" s="208"/>
+      <c r="N162" s="210"/>
+      <c r="O162" s="210"/>
     </row>
     <row r="163" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="233"/>
+      <c r="A163" s="235"/>
       <c r="B163" s="158" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C163" s="90"/>
       <c r="D163" s="91"/>
@@ -8129,15 +8129,15 @@
       <c r="K163" s="22"/>
       <c r="L163" s="92"/>
       <c r="M163" s="90"/>
-      <c r="N163" s="209"/>
-      <c r="O163" s="209"/>
+      <c r="N163" s="211"/>
+      <c r="O163" s="211"/>
     </row>
     <row r="164" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="231" t="s">
-        <v>304</v>
+      <c r="A164" s="233" t="s">
+        <v>303</v>
       </c>
       <c r="B164" s="146" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C164" s="78"/>
       <c r="D164" s="94"/>
@@ -8150,13 +8150,13 @@
       <c r="K164" s="95"/>
       <c r="L164" s="95"/>
       <c r="M164" s="94"/>
-      <c r="N164" s="207"/>
-      <c r="O164" s="207"/>
+      <c r="N164" s="209"/>
+      <c r="O164" s="209"/>
     </row>
     <row r="165" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="232"/>
+      <c r="A165" s="234"/>
       <c r="B165" s="100" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C165" s="86"/>
       <c r="D165" s="83"/>
@@ -8169,13 +8169,13 @@
       <c r="K165" s="20"/>
       <c r="L165" s="88"/>
       <c r="M165" s="86"/>
-      <c r="N165" s="208"/>
-      <c r="O165" s="208"/>
+      <c r="N165" s="210"/>
+      <c r="O165" s="210"/>
     </row>
     <row r="166" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="232"/>
+      <c r="A166" s="234"/>
       <c r="B166" s="100" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C166" s="86"/>
       <c r="D166" s="87"/>
@@ -8188,13 +8188,13 @@
       <c r="K166" s="21"/>
       <c r="L166" s="88"/>
       <c r="M166" s="86"/>
-      <c r="N166" s="208"/>
-      <c r="O166" s="208"/>
+      <c r="N166" s="210"/>
+      <c r="O166" s="210"/>
     </row>
     <row r="167" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="232"/>
+      <c r="A167" s="234"/>
       <c r="B167" s="100" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C167" s="86"/>
       <c r="D167" s="87"/>
@@ -8207,13 +8207,13 @@
       <c r="K167" s="21"/>
       <c r="L167" s="88"/>
       <c r="M167" s="86"/>
-      <c r="N167" s="208"/>
-      <c r="O167" s="208"/>
+      <c r="N167" s="210"/>
+      <c r="O167" s="210"/>
     </row>
     <row r="168" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="232"/>
+      <c r="A168" s="234"/>
       <c r="B168" s="100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C168" s="86"/>
       <c r="D168" s="87"/>
@@ -8226,13 +8226,13 @@
       <c r="K168" s="22"/>
       <c r="L168" s="88"/>
       <c r="M168" s="86"/>
-      <c r="N168" s="208"/>
-      <c r="O168" s="208"/>
+      <c r="N168" s="210"/>
+      <c r="O168" s="210"/>
     </row>
     <row r="169" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="232"/>
+      <c r="A169" s="234"/>
       <c r="B169" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C169" s="75"/>
       <c r="D169" s="101"/>
@@ -8245,13 +8245,13 @@
       <c r="K169" s="102"/>
       <c r="L169" s="102"/>
       <c r="M169" s="101"/>
-      <c r="N169" s="208"/>
-      <c r="O169" s="208"/>
+      <c r="N169" s="210"/>
+      <c r="O169" s="210"/>
     </row>
     <row r="170" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="232"/>
+      <c r="A170" s="234"/>
       <c r="B170" s="96" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C170" s="86"/>
       <c r="D170" s="83"/>
@@ -8264,13 +8264,13 @@
       <c r="K170" s="20"/>
       <c r="L170" s="88"/>
       <c r="M170" s="86"/>
-      <c r="N170" s="208"/>
-      <c r="O170" s="208"/>
+      <c r="N170" s="210"/>
+      <c r="O170" s="210"/>
     </row>
     <row r="171" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="232"/>
+      <c r="A171" s="234"/>
       <c r="B171" s="100" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C171" s="86"/>
       <c r="D171" s="87"/>
@@ -8283,13 +8283,13 @@
       <c r="K171" s="21"/>
       <c r="L171" s="88"/>
       <c r="M171" s="86"/>
-      <c r="N171" s="208"/>
-      <c r="O171" s="208"/>
+      <c r="N171" s="210"/>
+      <c r="O171" s="210"/>
     </row>
     <row r="172" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="233"/>
+      <c r="A172" s="235"/>
       <c r="B172" s="108" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C172" s="90"/>
       <c r="D172" s="87"/>
@@ -8302,15 +8302,15 @@
       <c r="K172" s="22"/>
       <c r="L172" s="92"/>
       <c r="M172" s="90"/>
-      <c r="N172" s="209"/>
-      <c r="O172" s="209"/>
+      <c r="N172" s="211"/>
+      <c r="O172" s="211"/>
     </row>
     <row r="173" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="231" t="s">
-        <v>199</v>
+      <c r="A173" s="233" t="s">
+        <v>198</v>
       </c>
       <c r="B173" s="44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C173" s="75"/>
       <c r="D173" s="101"/>
@@ -8323,13 +8323,13 @@
       <c r="K173" s="102"/>
       <c r="L173" s="102"/>
       <c r="M173" s="101"/>
-      <c r="N173" s="207"/>
-      <c r="O173" s="207"/>
+      <c r="N173" s="209"/>
+      <c r="O173" s="209"/>
     </row>
     <row r="174" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="232"/>
+      <c r="A174" s="234"/>
       <c r="B174" s="96" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C174" s="97"/>
       <c r="D174" s="83"/>
@@ -8342,13 +8342,13 @@
       <c r="K174" s="20"/>
       <c r="L174" s="109"/>
       <c r="M174" s="97"/>
-      <c r="N174" s="208"/>
-      <c r="O174" s="208"/>
+      <c r="N174" s="210"/>
+      <c r="O174" s="210"/>
     </row>
     <row r="175" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="232"/>
+      <c r="A175" s="234"/>
       <c r="B175" s="100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C175" s="86"/>
       <c r="D175" s="87"/>
@@ -8361,13 +8361,13 @@
       <c r="K175" s="22"/>
       <c r="L175" s="88"/>
       <c r="M175" s="86"/>
-      <c r="N175" s="208"/>
-      <c r="O175" s="208"/>
+      <c r="N175" s="210"/>
+      <c r="O175" s="210"/>
     </row>
     <row r="176" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="232"/>
+      <c r="A176" s="234"/>
       <c r="B176" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C176" s="75"/>
       <c r="D176" s="101"/>
@@ -8380,13 +8380,13 @@
       <c r="K176" s="110"/>
       <c r="L176" s="110"/>
       <c r="M176" s="101"/>
-      <c r="N176" s="208"/>
-      <c r="O176" s="208"/>
+      <c r="N176" s="210"/>
+      <c r="O176" s="210"/>
     </row>
     <row r="177" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="232"/>
+      <c r="A177" s="234"/>
       <c r="B177" s="96" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C177" s="86"/>
       <c r="D177" s="83"/>
@@ -8399,13 +8399,13 @@
       <c r="K177" s="20"/>
       <c r="L177" s="88"/>
       <c r="M177" s="86"/>
-      <c r="N177" s="208"/>
-      <c r="O177" s="208"/>
+      <c r="N177" s="210"/>
+      <c r="O177" s="210"/>
     </row>
     <row r="178" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="233"/>
+      <c r="A178" s="235"/>
       <c r="B178" s="108" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C178" s="90"/>
       <c r="D178" s="87"/>
@@ -8418,14 +8418,14 @@
       <c r="K178" s="22"/>
       <c r="L178" s="92"/>
       <c r="M178" s="90"/>
-      <c r="N178" s="209"/>
-      <c r="O178" s="209"/>
+      <c r="N178" s="211"/>
+      <c r="O178" s="211"/>
     </row>
     <row r="179" spans="1:15" s="141" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="224" t="s">
-        <v>297</v>
-      </c>
-      <c r="B179" s="225"/>
+      <c r="A179" s="226" t="s">
+        <v>296</v>
+      </c>
+      <c r="B179" s="227"/>
       <c r="C179" s="143"/>
       <c r="D179" s="144"/>
       <c r="E179" s="144"/>
@@ -8441,11 +8441,11 @@
       <c r="O179" s="140"/>
     </row>
     <row r="180" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="232" t="s">
-        <v>313</v>
+      <c r="A180" s="234" t="s">
+        <v>312</v>
       </c>
       <c r="B180" s="146" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C180" s="78"/>
       <c r="D180" s="94"/>
@@ -8458,13 +8458,13 @@
       <c r="K180" s="95"/>
       <c r="L180" s="95"/>
       <c r="M180" s="94"/>
-      <c r="N180" s="207"/>
-      <c r="O180" s="207"/>
+      <c r="N180" s="209"/>
+      <c r="O180" s="209"/>
     </row>
     <row r="181" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="232"/>
+      <c r="A181" s="234"/>
       <c r="B181" s="100" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C181" s="86"/>
       <c r="D181" s="83"/>
@@ -8477,13 +8477,13 @@
       <c r="K181" s="20"/>
       <c r="L181" s="88"/>
       <c r="M181" s="86"/>
-      <c r="N181" s="208"/>
-      <c r="O181" s="208"/>
+      <c r="N181" s="210"/>
+      <c r="O181" s="210"/>
     </row>
     <row r="182" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="232"/>
+      <c r="A182" s="234"/>
       <c r="B182" s="100" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C182" s="86"/>
       <c r="D182" s="87"/>
@@ -8496,13 +8496,13 @@
       <c r="K182" s="21"/>
       <c r="L182" s="88"/>
       <c r="M182" s="86"/>
-      <c r="N182" s="208"/>
-      <c r="O182" s="208"/>
+      <c r="N182" s="210"/>
+      <c r="O182" s="210"/>
     </row>
     <row r="183" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="232"/>
+      <c r="A183" s="234"/>
       <c r="B183" s="100" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C183" s="86"/>
       <c r="D183" s="87"/>
@@ -8515,13 +8515,13 @@
       <c r="K183" s="21"/>
       <c r="L183" s="88"/>
       <c r="M183" s="86"/>
-      <c r="N183" s="208"/>
-      <c r="O183" s="208"/>
+      <c r="N183" s="210"/>
+      <c r="O183" s="210"/>
     </row>
     <row r="184" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="232"/>
+      <c r="A184" s="234"/>
       <c r="B184" s="100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C184" s="86"/>
       <c r="D184" s="87"/>
@@ -8534,13 +8534,13 @@
       <c r="K184" s="22"/>
       <c r="L184" s="88"/>
       <c r="M184" s="86"/>
-      <c r="N184" s="208"/>
-      <c r="O184" s="208"/>
+      <c r="N184" s="210"/>
+      <c r="O184" s="210"/>
     </row>
     <row r="185" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="232"/>
+      <c r="A185" s="234"/>
       <c r="B185" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C185" s="75"/>
       <c r="D185" s="101"/>
@@ -8553,13 +8553,13 @@
       <c r="K185" s="102"/>
       <c r="L185" s="102"/>
       <c r="M185" s="101"/>
-      <c r="N185" s="208"/>
-      <c r="O185" s="208"/>
+      <c r="N185" s="210"/>
+      <c r="O185" s="210"/>
     </row>
     <row r="186" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="232"/>
+      <c r="A186" s="234"/>
       <c r="B186" s="96" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C186" s="86"/>
       <c r="D186" s="83"/>
@@ -8572,13 +8572,13 @@
       <c r="K186" s="20"/>
       <c r="L186" s="88"/>
       <c r="M186" s="86"/>
-      <c r="N186" s="208"/>
-      <c r="O186" s="208"/>
+      <c r="N186" s="210"/>
+      <c r="O186" s="210"/>
     </row>
     <row r="187" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="233"/>
+      <c r="A187" s="235"/>
       <c r="B187" s="108" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C187" s="90"/>
       <c r="D187" s="91"/>
@@ -8591,15 +8591,15 @@
       <c r="K187" s="22"/>
       <c r="L187" s="92"/>
       <c r="M187" s="90"/>
-      <c r="N187" s="209"/>
-      <c r="O187" s="209"/>
+      <c r="N187" s="211"/>
+      <c r="O187" s="211"/>
     </row>
     <row r="188" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="231" t="s">
-        <v>305</v>
+      <c r="A188" s="233" t="s">
+        <v>304</v>
       </c>
       <c r="B188" s="146" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C188" s="78"/>
       <c r="D188" s="94"/>
@@ -8612,13 +8612,13 @@
       <c r="K188" s="95"/>
       <c r="L188" s="95"/>
       <c r="M188" s="94"/>
-      <c r="N188" s="207"/>
-      <c r="O188" s="207"/>
+      <c r="N188" s="209"/>
+      <c r="O188" s="209"/>
     </row>
     <row r="189" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="232"/>
+      <c r="A189" s="234"/>
       <c r="B189" s="100" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C189" s="86"/>
       <c r="D189" s="83"/>
@@ -8631,13 +8631,13 @@
       <c r="K189" s="20"/>
       <c r="L189" s="107"/>
       <c r="M189" s="86"/>
-      <c r="N189" s="208"/>
-      <c r="O189" s="208"/>
+      <c r="N189" s="210"/>
+      <c r="O189" s="210"/>
     </row>
     <row r="190" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="232"/>
+      <c r="A190" s="234"/>
       <c r="B190" s="100" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C190" s="86"/>
       <c r="D190" s="87"/>
@@ -8650,13 +8650,13 @@
       <c r="K190" s="21"/>
       <c r="L190" s="88"/>
       <c r="M190" s="86"/>
-      <c r="N190" s="208"/>
-      <c r="O190" s="208"/>
+      <c r="N190" s="210"/>
+      <c r="O190" s="210"/>
     </row>
     <row r="191" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="232"/>
+      <c r="A191" s="234"/>
       <c r="B191" s="100" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C191" s="86"/>
       <c r="D191" s="87"/>
@@ -8669,13 +8669,13 @@
       <c r="K191" s="21"/>
       <c r="L191" s="88"/>
       <c r="M191" s="86"/>
-      <c r="N191" s="208"/>
-      <c r="O191" s="208"/>
+      <c r="N191" s="210"/>
+      <c r="O191" s="210"/>
     </row>
     <row r="192" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="232"/>
+      <c r="A192" s="234"/>
       <c r="B192" s="100" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C192" s="86"/>
       <c r="D192" s="87"/>
@@ -8688,13 +8688,13 @@
       <c r="K192" s="21"/>
       <c r="L192" s="88"/>
       <c r="M192" s="86"/>
-      <c r="N192" s="208"/>
-      <c r="O192" s="208"/>
+      <c r="N192" s="210"/>
+      <c r="O192" s="210"/>
     </row>
     <row r="193" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="232"/>
+      <c r="A193" s="234"/>
       <c r="B193" s="100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C193" s="86"/>
       <c r="D193" s="87"/>
@@ -8707,13 +8707,13 @@
       <c r="K193" s="22"/>
       <c r="L193" s="88"/>
       <c r="M193" s="86"/>
-      <c r="N193" s="208"/>
-      <c r="O193" s="208"/>
+      <c r="N193" s="210"/>
+      <c r="O193" s="210"/>
     </row>
     <row r="194" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="232"/>
+      <c r="A194" s="234"/>
       <c r="B194" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C194" s="75"/>
       <c r="D194" s="101"/>
@@ -8726,13 +8726,13 @@
       <c r="K194" s="102"/>
       <c r="L194" s="102"/>
       <c r="M194" s="101"/>
-      <c r="N194" s="208"/>
-      <c r="O194" s="208"/>
+      <c r="N194" s="210"/>
+      <c r="O194" s="210"/>
     </row>
     <row r="195" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="232"/>
+      <c r="A195" s="234"/>
       <c r="B195" s="96" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C195" s="86"/>
       <c r="D195" s="83"/>
@@ -8745,13 +8745,13 @@
       <c r="K195" s="20"/>
       <c r="L195" s="88"/>
       <c r="M195" s="86"/>
-      <c r="N195" s="208"/>
-      <c r="O195" s="208"/>
+      <c r="N195" s="210"/>
+      <c r="O195" s="210"/>
     </row>
     <row r="196" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="232"/>
+      <c r="A196" s="234"/>
       <c r="B196" s="100" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C196" s="86"/>
       <c r="D196" s="87"/>
@@ -8764,13 +8764,13 @@
       <c r="K196" s="21"/>
       <c r="L196" s="88"/>
       <c r="M196" s="86"/>
-      <c r="N196" s="208"/>
-      <c r="O196" s="208"/>
+      <c r="N196" s="210"/>
+      <c r="O196" s="210"/>
     </row>
     <row r="197" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="232"/>
+      <c r="A197" s="234"/>
       <c r="B197" s="100" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C197" s="86"/>
       <c r="D197" s="87"/>
@@ -8783,13 +8783,13 @@
       <c r="K197" s="21"/>
       <c r="L197" s="88"/>
       <c r="M197" s="86"/>
-      <c r="N197" s="208"/>
-      <c r="O197" s="208"/>
+      <c r="N197" s="210"/>
+      <c r="O197" s="210"/>
     </row>
     <row r="198" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="233"/>
+      <c r="A198" s="235"/>
       <c r="B198" s="108" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C198" s="90"/>
       <c r="D198" s="87"/>
@@ -8802,15 +8802,15 @@
       <c r="K198" s="22"/>
       <c r="L198" s="92"/>
       <c r="M198" s="90"/>
-      <c r="N198" s="209"/>
-      <c r="O198" s="209"/>
+      <c r="N198" s="211"/>
+      <c r="O198" s="211"/>
     </row>
     <row r="199" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="231" t="s">
-        <v>339</v>
+      <c r="A199" s="233" t="s">
+        <v>338</v>
       </c>
       <c r="B199" s="44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C199" s="75"/>
       <c r="D199" s="101"/>
@@ -8823,19 +8823,19 @@
       <c r="K199" s="102"/>
       <c r="L199" s="102"/>
       <c r="M199" s="101"/>
-      <c r="N199" s="207"/>
-      <c r="O199" s="207"/>
+      <c r="N199" s="209"/>
+      <c r="O199" s="209"/>
     </row>
     <row r="200" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="232"/>
+      <c r="A200" s="234"/>
       <c r="B200" s="100" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C200" s="86"/>
       <c r="D200" s="83"/>
       <c r="E200" s="46"/>
       <c r="F200" s="86" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G200" s="86"/>
       <c r="H200" s="2"/>
@@ -8844,13 +8844,13 @@
       <c r="K200" s="20"/>
       <c r="L200" s="88"/>
       <c r="M200" s="86"/>
-      <c r="N200" s="208"/>
-      <c r="O200" s="208"/>
+      <c r="N200" s="210"/>
+      <c r="O200" s="210"/>
     </row>
     <row r="201" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="232"/>
+      <c r="A201" s="234"/>
       <c r="B201" s="100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C201" s="86"/>
       <c r="D201" s="87"/>
@@ -8863,13 +8863,13 @@
       <c r="K201" s="22"/>
       <c r="L201" s="88"/>
       <c r="M201" s="86"/>
-      <c r="N201" s="208"/>
-      <c r="O201" s="208"/>
+      <c r="N201" s="210"/>
+      <c r="O201" s="210"/>
     </row>
     <row r="202" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="232"/>
+      <c r="A202" s="234"/>
       <c r="B202" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C202" s="75"/>
       <c r="D202" s="101"/>
@@ -8882,13 +8882,13 @@
       <c r="K202" s="102"/>
       <c r="L202" s="102"/>
       <c r="M202" s="101"/>
-      <c r="N202" s="208"/>
-      <c r="O202" s="208"/>
+      <c r="N202" s="210"/>
+      <c r="O202" s="210"/>
     </row>
     <row r="203" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="232"/>
+      <c r="A203" s="234"/>
       <c r="B203" s="96" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C203" s="86"/>
       <c r="D203" s="83"/>
@@ -8901,13 +8901,13 @@
       <c r="K203" s="20"/>
       <c r="L203" s="88"/>
       <c r="M203" s="86"/>
-      <c r="N203" s="208"/>
-      <c r="O203" s="208"/>
+      <c r="N203" s="210"/>
+      <c r="O203" s="210"/>
     </row>
     <row r="204" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="233"/>
+      <c r="A204" s="235"/>
       <c r="B204" s="103" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C204" s="104"/>
       <c r="D204" s="87"/>
@@ -8920,14 +8920,14 @@
       <c r="K204" s="24"/>
       <c r="L204" s="105"/>
       <c r="M204" s="104"/>
-      <c r="N204" s="209"/>
-      <c r="O204" s="209"/>
+      <c r="N204" s="211"/>
+      <c r="O204" s="211"/>
     </row>
     <row r="205" spans="1:15" s="141" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="224" t="s">
-        <v>296</v>
-      </c>
-      <c r="B205" s="225"/>
+      <c r="A205" s="226" t="s">
+        <v>295</v>
+      </c>
+      <c r="B205" s="227"/>
       <c r="C205" s="143"/>
       <c r="D205" s="144"/>
       <c r="E205" s="144"/>
@@ -8943,11 +8943,11 @@
       <c r="O205" s="140"/>
     </row>
     <row r="206" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="232" t="s">
-        <v>306</v>
+      <c r="A206" s="234" t="s">
+        <v>305</v>
       </c>
       <c r="B206" s="146" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C206" s="78"/>
       <c r="D206" s="94"/>
@@ -8960,13 +8960,13 @@
       <c r="K206" s="95"/>
       <c r="L206" s="95"/>
       <c r="M206" s="94"/>
-      <c r="N206" s="207"/>
-      <c r="O206" s="207"/>
+      <c r="N206" s="209"/>
+      <c r="O206" s="209"/>
     </row>
     <row r="207" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="232"/>
+      <c r="A207" s="234"/>
       <c r="B207" s="100" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C207" s="86"/>
       <c r="D207" s="83"/>
@@ -8979,13 +8979,13 @@
       <c r="K207" s="20"/>
       <c r="L207" s="107"/>
       <c r="M207" s="86"/>
-      <c r="N207" s="208"/>
-      <c r="O207" s="208"/>
+      <c r="N207" s="210"/>
+      <c r="O207" s="210"/>
     </row>
     <row r="208" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="232"/>
+      <c r="A208" s="234"/>
       <c r="B208" s="100" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C208" s="86"/>
       <c r="D208" s="87"/>
@@ -8998,13 +8998,13 @@
       <c r="K208" s="21"/>
       <c r="L208" s="107"/>
       <c r="M208" s="86"/>
-      <c r="N208" s="208"/>
-      <c r="O208" s="208"/>
+      <c r="N208" s="210"/>
+      <c r="O208" s="210"/>
     </row>
     <row r="209" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="232"/>
+      <c r="A209" s="234"/>
       <c r="B209" s="100" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C209" s="86"/>
       <c r="D209" s="87"/>
@@ -9017,13 +9017,13 @@
       <c r="K209" s="21"/>
       <c r="L209" s="88"/>
       <c r="M209" s="86"/>
-      <c r="N209" s="208"/>
-      <c r="O209" s="208"/>
+      <c r="N209" s="210"/>
+      <c r="O209" s="210"/>
     </row>
     <row r="210" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="232"/>
+      <c r="A210" s="234"/>
       <c r="B210" s="100" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C210" s="86"/>
       <c r="D210" s="87"/>
@@ -9036,13 +9036,13 @@
       <c r="K210" s="21"/>
       <c r="L210" s="88"/>
       <c r="M210" s="86"/>
-      <c r="N210" s="208"/>
-      <c r="O210" s="208"/>
+      <c r="N210" s="210"/>
+      <c r="O210" s="210"/>
     </row>
     <row r="211" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="232"/>
+      <c r="A211" s="234"/>
       <c r="B211" s="100" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C211" s="86"/>
       <c r="D211" s="87"/>
@@ -9055,13 +9055,13 @@
       <c r="K211" s="21"/>
       <c r="L211" s="88"/>
       <c r="M211" s="86"/>
-      <c r="N211" s="208"/>
-      <c r="O211" s="208"/>
+      <c r="N211" s="210"/>
+      <c r="O211" s="210"/>
     </row>
     <row r="212" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="232"/>
+      <c r="A212" s="234"/>
       <c r="B212" s="100" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C212" s="86"/>
       <c r="D212" s="87"/>
@@ -9074,13 +9074,13 @@
       <c r="K212" s="21"/>
       <c r="L212" s="88"/>
       <c r="M212" s="86"/>
-      <c r="N212" s="208"/>
-      <c r="O212" s="208"/>
+      <c r="N212" s="210"/>
+      <c r="O212" s="210"/>
     </row>
     <row r="213" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="232"/>
+      <c r="A213" s="234"/>
       <c r="B213" s="100" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C213" s="86"/>
       <c r="D213" s="87"/>
@@ -9093,13 +9093,13 @@
       <c r="K213" s="21"/>
       <c r="L213" s="88"/>
       <c r="M213" s="86"/>
-      <c r="N213" s="208"/>
-      <c r="O213" s="208"/>
+      <c r="N213" s="210"/>
+      <c r="O213" s="210"/>
     </row>
     <row r="214" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="232"/>
+      <c r="A214" s="234"/>
       <c r="B214" s="100" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C214" s="86"/>
       <c r="D214" s="87"/>
@@ -9112,13 +9112,13 @@
       <c r="K214" s="21"/>
       <c r="L214" s="88"/>
       <c r="M214" s="86"/>
-      <c r="N214" s="208"/>
-      <c r="O214" s="208"/>
+      <c r="N214" s="210"/>
+      <c r="O214" s="210"/>
     </row>
     <row r="215" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="232"/>
+      <c r="A215" s="234"/>
       <c r="B215" s="100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C215" s="86"/>
       <c r="D215" s="87"/>
@@ -9131,13 +9131,13 @@
       <c r="K215" s="22"/>
       <c r="L215" s="88"/>
       <c r="M215" s="86"/>
-      <c r="N215" s="208"/>
-      <c r="O215" s="208"/>
+      <c r="N215" s="210"/>
+      <c r="O215" s="210"/>
     </row>
     <row r="216" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="232"/>
+      <c r="A216" s="234"/>
       <c r="B216" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C216" s="75"/>
       <c r="D216" s="101"/>
@@ -9150,13 +9150,13 @@
       <c r="K216" s="102"/>
       <c r="L216" s="102"/>
       <c r="M216" s="101"/>
-      <c r="N216" s="208"/>
-      <c r="O216" s="208"/>
+      <c r="N216" s="210"/>
+      <c r="O216" s="210"/>
     </row>
     <row r="217" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="232"/>
+      <c r="A217" s="234"/>
       <c r="B217" s="96" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C217" s="86"/>
       <c r="D217" s="83"/>
@@ -9169,13 +9169,13 @@
       <c r="K217" s="20"/>
       <c r="L217" s="88"/>
       <c r="M217" s="86"/>
-      <c r="N217" s="208"/>
-      <c r="O217" s="208"/>
+      <c r="N217" s="210"/>
+      <c r="O217" s="210"/>
     </row>
     <row r="218" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="232"/>
+      <c r="A218" s="234"/>
       <c r="B218" s="100" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C218" s="86"/>
       <c r="D218" s="87"/>
@@ -9188,13 +9188,13 @@
       <c r="K218" s="21"/>
       <c r="L218" s="88"/>
       <c r="M218" s="86"/>
-      <c r="N218" s="208"/>
-      <c r="O218" s="208"/>
+      <c r="N218" s="210"/>
+      <c r="O218" s="210"/>
     </row>
     <row r="219" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="232"/>
+      <c r="A219" s="234"/>
       <c r="B219" s="100" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C219" s="86"/>
       <c r="D219" s="87"/>
@@ -9207,13 +9207,13 @@
       <c r="K219" s="21"/>
       <c r="L219" s="88"/>
       <c r="M219" s="86"/>
-      <c r="N219" s="208"/>
-      <c r="O219" s="208"/>
+      <c r="N219" s="210"/>
+      <c r="O219" s="210"/>
     </row>
     <row r="220" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="233"/>
+      <c r="A220" s="235"/>
       <c r="B220" s="108" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C220" s="90"/>
       <c r="D220" s="87"/>
@@ -9226,14 +9226,14 @@
       <c r="K220" s="22"/>
       <c r="L220" s="92"/>
       <c r="M220" s="90"/>
-      <c r="N220" s="209"/>
-      <c r="O220" s="209"/>
+      <c r="N220" s="211"/>
+      <c r="O220" s="211"/>
     </row>
     <row r="221" spans="1:15" s="141" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="224" t="s">
-        <v>294</v>
-      </c>
-      <c r="B221" s="225"/>
+      <c r="A221" s="226" t="s">
+        <v>293</v>
+      </c>
+      <c r="B221" s="227"/>
       <c r="C221" s="143"/>
       <c r="D221" s="144"/>
       <c r="E221" s="144"/>
@@ -9249,11 +9249,11 @@
       <c r="O221" s="140"/>
     </row>
     <row r="222" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="232" t="s">
-        <v>307</v>
+      <c r="A222" s="234" t="s">
+        <v>306</v>
       </c>
       <c r="B222" s="146" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C222" s="78"/>
       <c r="D222" s="94"/>
@@ -9266,13 +9266,13 @@
       <c r="K222" s="95"/>
       <c r="L222" s="95"/>
       <c r="M222" s="94"/>
-      <c r="N222" s="207"/>
-      <c r="O222" s="207"/>
+      <c r="N222" s="209"/>
+      <c r="O222" s="209"/>
     </row>
     <row r="223" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="232"/>
+      <c r="A223" s="234"/>
       <c r="B223" s="96" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C223" s="86"/>
       <c r="D223" s="83"/>
@@ -9285,13 +9285,13 @@
       <c r="K223" s="20"/>
       <c r="L223" s="88"/>
       <c r="M223" s="86"/>
-      <c r="N223" s="208"/>
-      <c r="O223" s="208"/>
+      <c r="N223" s="210"/>
+      <c r="O223" s="210"/>
     </row>
     <row r="224" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="232"/>
+      <c r="A224" s="234"/>
       <c r="B224" s="100" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C224" s="86"/>
       <c r="D224" s="87"/>
@@ -9304,13 +9304,13 @@
       <c r="K224" s="21"/>
       <c r="L224" s="88"/>
       <c r="M224" s="86"/>
-      <c r="N224" s="208"/>
-      <c r="O224" s="208"/>
+      <c r="N224" s="210"/>
+      <c r="O224" s="210"/>
     </row>
     <row r="225" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="232"/>
+      <c r="A225" s="234"/>
       <c r="B225" s="100" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C225" s="86"/>
       <c r="D225" s="87"/>
@@ -9323,13 +9323,13 @@
       <c r="K225" s="21"/>
       <c r="L225" s="88"/>
       <c r="M225" s="86"/>
-      <c r="N225" s="208"/>
-      <c r="O225" s="208"/>
+      <c r="N225" s="210"/>
+      <c r="O225" s="210"/>
     </row>
     <row r="226" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="232"/>
+      <c r="A226" s="234"/>
       <c r="B226" s="100" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C226" s="86"/>
       <c r="D226" s="87"/>
@@ -9342,13 +9342,13 @@
       <c r="K226" s="21"/>
       <c r="L226" s="88"/>
       <c r="M226" s="86"/>
-      <c r="N226" s="208"/>
-      <c r="O226" s="208"/>
+      <c r="N226" s="210"/>
+      <c r="O226" s="210"/>
     </row>
     <row r="227" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="232"/>
+      <c r="A227" s="234"/>
       <c r="B227" s="100" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C227" s="86"/>
       <c r="D227" s="87"/>
@@ -9361,13 +9361,13 @@
       <c r="K227" s="21"/>
       <c r="L227" s="88"/>
       <c r="M227" s="86"/>
-      <c r="N227" s="208"/>
-      <c r="O227" s="208"/>
+      <c r="N227" s="210"/>
+      <c r="O227" s="210"/>
     </row>
     <row r="228" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="232"/>
+      <c r="A228" s="234"/>
       <c r="B228" s="100" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C228" s="86"/>
       <c r="D228" s="87"/>
@@ -9380,13 +9380,13 @@
       <c r="K228" s="21"/>
       <c r="L228" s="88"/>
       <c r="M228" s="86"/>
-      <c r="N228" s="208"/>
-      <c r="O228" s="208"/>
+      <c r="N228" s="210"/>
+      <c r="O228" s="210"/>
     </row>
     <row r="229" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="232"/>
+      <c r="A229" s="234"/>
       <c r="B229" s="100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C229" s="86"/>
       <c r="D229" s="87"/>
@@ -9399,13 +9399,13 @@
       <c r="K229" s="22"/>
       <c r="L229" s="88"/>
       <c r="M229" s="86"/>
-      <c r="N229" s="208"/>
-      <c r="O229" s="208"/>
+      <c r="N229" s="210"/>
+      <c r="O229" s="210"/>
     </row>
     <row r="230" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="232"/>
+      <c r="A230" s="234"/>
       <c r="B230" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C230" s="75"/>
       <c r="D230" s="101"/>
@@ -9418,13 +9418,13 @@
       <c r="K230" s="102"/>
       <c r="L230" s="102"/>
       <c r="M230" s="101"/>
-      <c r="N230" s="208"/>
-      <c r="O230" s="208"/>
+      <c r="N230" s="210"/>
+      <c r="O230" s="210"/>
     </row>
     <row r="231" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="232"/>
+      <c r="A231" s="234"/>
       <c r="B231" s="96" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C231" s="86"/>
       <c r="D231" s="83"/>
@@ -9437,13 +9437,13 @@
       <c r="K231" s="20"/>
       <c r="L231" s="88"/>
       <c r="M231" s="86"/>
-      <c r="N231" s="208"/>
-      <c r="O231" s="208"/>
+      <c r="N231" s="210"/>
+      <c r="O231" s="210"/>
     </row>
     <row r="232" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="233"/>
+      <c r="A232" s="235"/>
       <c r="B232" s="108" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C232" s="90"/>
       <c r="D232" s="87"/>
@@ -9456,15 +9456,15 @@
       <c r="K232" s="22"/>
       <c r="L232" s="92"/>
       <c r="M232" s="90"/>
-      <c r="N232" s="209"/>
-      <c r="O232" s="209"/>
+      <c r="N232" s="211"/>
+      <c r="O232" s="211"/>
     </row>
     <row r="233" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="231" t="s">
-        <v>268</v>
+      <c r="A233" s="233" t="s">
+        <v>267</v>
       </c>
       <c r="B233" s="44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C233" s="75"/>
       <c r="D233" s="101"/>
@@ -9477,13 +9477,13 @@
       <c r="K233" s="102"/>
       <c r="L233" s="102"/>
       <c r="M233" s="101"/>
-      <c r="N233" s="207"/>
-      <c r="O233" s="207"/>
+      <c r="N233" s="209"/>
+      <c r="O233" s="209"/>
     </row>
     <row r="234" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="232"/>
+      <c r="A234" s="234"/>
       <c r="B234" s="96" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C234" s="86"/>
       <c r="D234" s="83"/>
@@ -9496,13 +9496,13 @@
       <c r="K234" s="20"/>
       <c r="L234" s="88"/>
       <c r="M234" s="86"/>
-      <c r="N234" s="208"/>
-      <c r="O234" s="208"/>
+      <c r="N234" s="210"/>
+      <c r="O234" s="210"/>
     </row>
     <row r="235" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="232"/>
+      <c r="A235" s="234"/>
       <c r="B235" s="96" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C235" s="86"/>
       <c r="D235" s="87"/>
@@ -9515,13 +9515,13 @@
       <c r="K235" s="25"/>
       <c r="L235" s="88"/>
       <c r="M235" s="86"/>
-      <c r="N235" s="208"/>
-      <c r="O235" s="208"/>
+      <c r="N235" s="210"/>
+      <c r="O235" s="210"/>
     </row>
     <row r="236" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="232"/>
+      <c r="A236" s="234"/>
       <c r="B236" s="100" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C236" s="86"/>
       <c r="D236" s="87"/>
@@ -9534,13 +9534,13 @@
       <c r="K236" s="21"/>
       <c r="L236" s="88"/>
       <c r="M236" s="86"/>
-      <c r="N236" s="208"/>
-      <c r="O236" s="208"/>
+      <c r="N236" s="210"/>
+      <c r="O236" s="210"/>
     </row>
     <row r="237" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="232"/>
+      <c r="A237" s="234"/>
       <c r="B237" s="100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C237" s="86"/>
       <c r="D237" s="87"/>
@@ -9553,13 +9553,13 @@
       <c r="K237" s="21"/>
       <c r="L237" s="88"/>
       <c r="M237" s="86"/>
-      <c r="N237" s="208"/>
-      <c r="O237" s="208"/>
+      <c r="N237" s="210"/>
+      <c r="O237" s="210"/>
     </row>
     <row r="238" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="232"/>
+      <c r="A238" s="234"/>
       <c r="B238" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C238" s="75"/>
       <c r="D238" s="101"/>
@@ -9572,13 +9572,13 @@
       <c r="K238" s="102"/>
       <c r="L238" s="102"/>
       <c r="M238" s="101"/>
-      <c r="N238" s="208"/>
-      <c r="O238" s="208"/>
+      <c r="N238" s="210"/>
+      <c r="O238" s="210"/>
     </row>
     <row r="239" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="232"/>
+      <c r="A239" s="234"/>
       <c r="B239" s="96" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C239" s="86"/>
       <c r="D239" s="83"/>
@@ -9591,13 +9591,13 @@
       <c r="K239" s="20"/>
       <c r="L239" s="88"/>
       <c r="M239" s="86"/>
-      <c r="N239" s="208"/>
-      <c r="O239" s="208"/>
+      <c r="N239" s="210"/>
+      <c r="O239" s="210"/>
     </row>
     <row r="240" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="232"/>
+      <c r="A240" s="234"/>
       <c r="B240" s="147" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C240" s="104"/>
       <c r="D240" s="87"/>
@@ -9610,13 +9610,13 @@
       <c r="K240" s="28"/>
       <c r="L240" s="105"/>
       <c r="M240" s="104"/>
-      <c r="N240" s="208"/>
-      <c r="O240" s="208"/>
+      <c r="N240" s="210"/>
+      <c r="O240" s="210"/>
     </row>
     <row r="241" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="233"/>
+      <c r="A241" s="235"/>
       <c r="B241" s="108" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C241" s="90"/>
       <c r="D241" s="87"/>
@@ -9629,14 +9629,14 @@
       <c r="K241" s="22"/>
       <c r="L241" s="92"/>
       <c r="M241" s="90"/>
-      <c r="N241" s="209"/>
-      <c r="O241" s="209"/>
+      <c r="N241" s="211"/>
+      <c r="O241" s="211"/>
     </row>
     <row r="242" spans="1:15" s="141" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="224" t="s">
-        <v>295</v>
-      </c>
-      <c r="B242" s="225"/>
+      <c r="A242" s="226" t="s">
+        <v>294</v>
+      </c>
+      <c r="B242" s="227"/>
       <c r="C242" s="143"/>
       <c r="D242" s="144"/>
       <c r="E242" s="144"/>
@@ -9652,11 +9652,11 @@
       <c r="O242" s="140"/>
     </row>
     <row r="243" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="232" t="s">
-        <v>245</v>
+      <c r="A243" s="234" t="s">
+        <v>244</v>
       </c>
       <c r="B243" s="146" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C243" s="78"/>
       <c r="D243" s="94"/>
@@ -9669,13 +9669,13 @@
       <c r="K243" s="95"/>
       <c r="L243" s="95"/>
       <c r="M243" s="94"/>
-      <c r="N243" s="207"/>
-      <c r="O243" s="207"/>
+      <c r="N243" s="209"/>
+      <c r="O243" s="209"/>
     </row>
     <row r="244" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="232"/>
+      <c r="A244" s="234"/>
       <c r="B244" s="96" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C244" s="97"/>
       <c r="D244" s="83"/>
@@ -9688,13 +9688,13 @@
       <c r="K244" s="20"/>
       <c r="L244" s="98"/>
       <c r="M244" s="97"/>
-      <c r="N244" s="208"/>
-      <c r="O244" s="208"/>
+      <c r="N244" s="210"/>
+      <c r="O244" s="210"/>
     </row>
     <row r="245" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="232"/>
+      <c r="A245" s="234"/>
       <c r="B245" s="100" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C245" s="86"/>
       <c r="D245" s="87"/>
@@ -9707,13 +9707,13 @@
       <c r="K245" s="21"/>
       <c r="L245" s="88"/>
       <c r="M245" s="86"/>
-      <c r="N245" s="208"/>
-      <c r="O245" s="208"/>
+      <c r="N245" s="210"/>
+      <c r="O245" s="210"/>
     </row>
     <row r="246" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="232"/>
+      <c r="A246" s="234"/>
       <c r="B246" s="100" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C246" s="86"/>
       <c r="D246" s="87"/>
@@ -9726,13 +9726,13 @@
       <c r="K246" s="21"/>
       <c r="L246" s="88"/>
       <c r="M246" s="86"/>
-      <c r="N246" s="208"/>
-      <c r="O246" s="208"/>
+      <c r="N246" s="210"/>
+      <c r="O246" s="210"/>
     </row>
     <row r="247" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="232"/>
+      <c r="A247" s="234"/>
       <c r="B247" s="100" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C247" s="86"/>
       <c r="D247" s="87"/>
@@ -9745,13 +9745,13 @@
       <c r="K247" s="21"/>
       <c r="L247" s="88"/>
       <c r="M247" s="86"/>
-      <c r="N247" s="208"/>
-      <c r="O247" s="208"/>
+      <c r="N247" s="210"/>
+      <c r="O247" s="210"/>
     </row>
     <row r="248" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="232"/>
+      <c r="A248" s="234"/>
       <c r="B248" s="100" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C248" s="86"/>
       <c r="D248" s="87"/>
@@ -9764,13 +9764,13 @@
       <c r="K248" s="21"/>
       <c r="L248" s="88"/>
       <c r="M248" s="86"/>
-      <c r="N248" s="208"/>
-      <c r="O248" s="208"/>
+      <c r="N248" s="210"/>
+      <c r="O248" s="210"/>
     </row>
     <row r="249" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="232"/>
+      <c r="A249" s="234"/>
       <c r="B249" s="100" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C249" s="86"/>
       <c r="D249" s="87"/>
@@ -9783,13 +9783,13 @@
       <c r="K249" s="21"/>
       <c r="L249" s="88"/>
       <c r="M249" s="86"/>
-      <c r="N249" s="208"/>
-      <c r="O249" s="208"/>
+      <c r="N249" s="210"/>
+      <c r="O249" s="210"/>
     </row>
     <row r="250" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="232"/>
+      <c r="A250" s="234"/>
       <c r="B250" s="100" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C250" s="86"/>
       <c r="D250" s="87"/>
@@ -9802,13 +9802,13 @@
       <c r="K250" s="21"/>
       <c r="L250" s="88"/>
       <c r="M250" s="86"/>
-      <c r="N250" s="208"/>
-      <c r="O250" s="208"/>
+      <c r="N250" s="210"/>
+      <c r="O250" s="210"/>
     </row>
     <row r="251" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="232"/>
+      <c r="A251" s="234"/>
       <c r="B251" s="100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C251" s="86"/>
       <c r="D251" s="91"/>
@@ -9821,13 +9821,13 @@
       <c r="K251" s="22"/>
       <c r="L251" s="88"/>
       <c r="M251" s="86"/>
-      <c r="N251" s="208"/>
-      <c r="O251" s="208"/>
+      <c r="N251" s="210"/>
+      <c r="O251" s="210"/>
     </row>
     <row r="252" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="232"/>
+      <c r="A252" s="234"/>
       <c r="B252" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C252" s="75"/>
       <c r="D252" s="101"/>
@@ -9840,13 +9840,13 @@
       <c r="K252" s="102"/>
       <c r="L252" s="102"/>
       <c r="M252" s="101"/>
-      <c r="N252" s="208"/>
-      <c r="O252" s="208"/>
+      <c r="N252" s="210"/>
+      <c r="O252" s="210"/>
     </row>
     <row r="253" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="232"/>
+      <c r="A253" s="234"/>
       <c r="B253" s="96" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C253" s="86"/>
       <c r="D253" s="83"/>
@@ -9859,13 +9859,13 @@
       <c r="K253" s="20"/>
       <c r="L253" s="88"/>
       <c r="M253" s="86"/>
-      <c r="N253" s="208"/>
-      <c r="O253" s="208"/>
+      <c r="N253" s="210"/>
+      <c r="O253" s="210"/>
     </row>
     <row r="254" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="232"/>
+      <c r="A254" s="234"/>
       <c r="B254" s="100" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C254" s="86"/>
       <c r="D254" s="87"/>
@@ -9878,13 +9878,13 @@
       <c r="K254" s="21"/>
       <c r="L254" s="88"/>
       <c r="M254" s="86"/>
-      <c r="N254" s="208"/>
-      <c r="O254" s="208"/>
+      <c r="N254" s="210"/>
+      <c r="O254" s="210"/>
     </row>
     <row r="255" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="232"/>
+      <c r="A255" s="234"/>
       <c r="B255" s="100" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C255" s="86"/>
       <c r="D255" s="87"/>
@@ -9897,13 +9897,13 @@
       <c r="K255" s="21"/>
       <c r="L255" s="88"/>
       <c r="M255" s="86"/>
-      <c r="N255" s="208"/>
-      <c r="O255" s="208"/>
+      <c r="N255" s="210"/>
+      <c r="O255" s="210"/>
     </row>
     <row r="256" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="233"/>
+      <c r="A256" s="235"/>
       <c r="B256" s="108" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C256" s="90"/>
       <c r="D256" s="91"/>
@@ -9916,15 +9916,15 @@
       <c r="K256" s="22"/>
       <c r="L256" s="92"/>
       <c r="M256" s="90"/>
-      <c r="N256" s="209"/>
-      <c r="O256" s="209"/>
+      <c r="N256" s="211"/>
+      <c r="O256" s="211"/>
     </row>
     <row r="257" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="231" t="s">
-        <v>255</v>
+      <c r="A257" s="233" t="s">
+        <v>254</v>
       </c>
       <c r="B257" s="44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C257" s="75"/>
       <c r="D257" s="101"/>
@@ -9937,13 +9937,13 @@
       <c r="K257" s="102"/>
       <c r="L257" s="102"/>
       <c r="M257" s="101"/>
-      <c r="N257" s="207"/>
-      <c r="O257" s="207"/>
+      <c r="N257" s="209"/>
+      <c r="O257" s="209"/>
     </row>
     <row r="258" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="232"/>
+      <c r="A258" s="234"/>
       <c r="B258" s="96" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C258" s="97"/>
       <c r="D258" s="83"/>
@@ -9956,13 +9956,13 @@
       <c r="K258" s="20"/>
       <c r="L258" s="98"/>
       <c r="M258" s="97"/>
-      <c r="N258" s="208"/>
-      <c r="O258" s="208"/>
+      <c r="N258" s="210"/>
+      <c r="O258" s="210"/>
     </row>
     <row r="259" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="232"/>
+      <c r="A259" s="234"/>
       <c r="B259" s="100" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C259" s="86"/>
       <c r="D259" s="87"/>
@@ -9975,13 +9975,13 @@
       <c r="K259" s="21"/>
       <c r="L259" s="88"/>
       <c r="M259" s="86"/>
-      <c r="N259" s="208"/>
-      <c r="O259" s="208"/>
+      <c r="N259" s="210"/>
+      <c r="O259" s="210"/>
     </row>
     <row r="260" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="232"/>
+      <c r="A260" s="234"/>
       <c r="B260" s="100" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C260" s="86"/>
       <c r="D260" s="87"/>
@@ -9994,13 +9994,13 @@
       <c r="K260" s="21"/>
       <c r="L260" s="88"/>
       <c r="M260" s="86"/>
-      <c r="N260" s="208"/>
-      <c r="O260" s="208"/>
+      <c r="N260" s="210"/>
+      <c r="O260" s="210"/>
     </row>
     <row r="261" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="232"/>
+      <c r="A261" s="234"/>
       <c r="B261" s="100" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C261" s="86"/>
       <c r="D261" s="87"/>
@@ -10013,13 +10013,13 @@
       <c r="K261" s="21"/>
       <c r="L261" s="88"/>
       <c r="M261" s="86"/>
-      <c r="N261" s="208"/>
-      <c r="O261" s="208"/>
+      <c r="N261" s="210"/>
+      <c r="O261" s="210"/>
     </row>
     <row r="262" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="232"/>
+      <c r="A262" s="234"/>
       <c r="B262" s="100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C262" s="86"/>
       <c r="D262" s="87"/>
@@ -10032,13 +10032,13 @@
       <c r="K262" s="22"/>
       <c r="L262" s="88"/>
       <c r="M262" s="86"/>
-      <c r="N262" s="208"/>
-      <c r="O262" s="208"/>
+      <c r="N262" s="210"/>
+      <c r="O262" s="210"/>
     </row>
     <row r="263" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="232"/>
+      <c r="A263" s="234"/>
       <c r="B263" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C263" s="75"/>
       <c r="D263" s="101"/>
@@ -10051,13 +10051,13 @@
       <c r="K263" s="110"/>
       <c r="L263" s="110"/>
       <c r="M263" s="101"/>
-      <c r="N263" s="208"/>
-      <c r="O263" s="208"/>
+      <c r="N263" s="210"/>
+      <c r="O263" s="210"/>
     </row>
     <row r="264" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="232"/>
+      <c r="A264" s="234"/>
       <c r="B264" s="100" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C264" s="86"/>
       <c r="D264" s="83"/>
@@ -10070,13 +10070,13 @@
       <c r="K264" s="20"/>
       <c r="L264" s="88"/>
       <c r="M264" s="86"/>
-      <c r="N264" s="208"/>
-      <c r="O264" s="208"/>
+      <c r="N264" s="210"/>
+      <c r="O264" s="210"/>
     </row>
     <row r="265" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="233"/>
+      <c r="A265" s="235"/>
       <c r="B265" s="108" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C265" s="90"/>
       <c r="D265" s="87"/>
@@ -10089,14 +10089,14 @@
       <c r="K265" s="22"/>
       <c r="L265" s="92"/>
       <c r="M265" s="90"/>
-      <c r="N265" s="209"/>
-      <c r="O265" s="209"/>
+      <c r="N265" s="211"/>
+      <c r="O265" s="211"/>
     </row>
     <row r="266" spans="1:15" s="141" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="224" t="s">
-        <v>293</v>
-      </c>
-      <c r="B266" s="225"/>
+      <c r="A266" s="226" t="s">
+        <v>292</v>
+      </c>
+      <c r="B266" s="227"/>
       <c r="C266" s="143"/>
       <c r="D266" s="144"/>
       <c r="E266" s="144"/>
@@ -10112,11 +10112,11 @@
       <c r="O266" s="140"/>
     </row>
     <row r="267" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="232" t="s">
-        <v>308</v>
+      <c r="A267" s="234" t="s">
+        <v>307</v>
       </c>
       <c r="B267" s="146" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C267" s="78"/>
       <c r="D267" s="94"/>
@@ -10129,13 +10129,13 @@
       <c r="K267" s="95"/>
       <c r="L267" s="95"/>
       <c r="M267" s="94"/>
-      <c r="N267" s="207"/>
-      <c r="O267" s="207"/>
+      <c r="N267" s="209"/>
+      <c r="O267" s="209"/>
     </row>
     <row r="268" spans="1:15" s="72" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="232"/>
+      <c r="A268" s="234"/>
       <c r="B268" s="96" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C268" s="75"/>
       <c r="D268" s="73"/>
@@ -10148,22 +10148,22 @@
       <c r="K268" s="132"/>
       <c r="L268" s="131"/>
       <c r="M268" s="75"/>
-      <c r="N268" s="208"/>
-      <c r="O268" s="208"/>
+      <c r="N268" s="210"/>
+      <c r="O268" s="210"/>
     </row>
     <row r="269" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="232"/>
+      <c r="A269" s="234"/>
       <c r="B269" s="100" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C269" s="133"/>
-      <c r="N269" s="208"/>
-      <c r="O269" s="208"/>
+      <c r="N269" s="210"/>
+      <c r="O269" s="210"/>
     </row>
     <row r="270" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="232"/>
+      <c r="A270" s="234"/>
       <c r="B270" s="124" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C270" s="82"/>
       <c r="D270" s="83"/>
@@ -10176,13 +10176,13 @@
       <c r="K270" s="20"/>
       <c r="L270" s="77"/>
       <c r="M270" s="82"/>
-      <c r="N270" s="208"/>
-      <c r="O270" s="208"/>
+      <c r="N270" s="210"/>
+      <c r="O270" s="210"/>
     </row>
     <row r="271" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="232"/>
+      <c r="A271" s="234"/>
       <c r="B271" s="124" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C271" s="86"/>
       <c r="D271" s="87"/>
@@ -10195,13 +10195,13 @@
       <c r="K271" s="21"/>
       <c r="L271" s="88"/>
       <c r="M271" s="86"/>
-      <c r="N271" s="208"/>
-      <c r="O271" s="208"/>
+      <c r="N271" s="210"/>
+      <c r="O271" s="210"/>
     </row>
     <row r="272" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="232"/>
+      <c r="A272" s="234"/>
       <c r="B272" s="124" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C272" s="86"/>
       <c r="D272" s="87"/>
@@ -10214,13 +10214,13 @@
       <c r="K272" s="21"/>
       <c r="L272" s="88"/>
       <c r="M272" s="86"/>
-      <c r="N272" s="208"/>
-      <c r="O272" s="208"/>
+      <c r="N272" s="210"/>
+      <c r="O272" s="210"/>
     </row>
     <row r="273" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="232"/>
+      <c r="A273" s="234"/>
       <c r="B273" s="124" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C273" s="86"/>
       <c r="D273" s="87"/>
@@ -10233,13 +10233,13 @@
       <c r="K273" s="21"/>
       <c r="L273" s="88"/>
       <c r="M273" s="86"/>
-      <c r="N273" s="208"/>
-      <c r="O273" s="208"/>
+      <c r="N273" s="210"/>
+      <c r="O273" s="210"/>
     </row>
     <row r="274" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="232"/>
+      <c r="A274" s="234"/>
       <c r="B274" s="124" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C274" s="86"/>
       <c r="D274" s="87"/>
@@ -10252,13 +10252,13 @@
       <c r="K274" s="21"/>
       <c r="L274" s="88"/>
       <c r="M274" s="86"/>
-      <c r="N274" s="208"/>
-      <c r="O274" s="208"/>
+      <c r="N274" s="210"/>
+      <c r="O274" s="210"/>
     </row>
     <row r="275" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="232"/>
+      <c r="A275" s="234"/>
       <c r="B275" s="124" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C275" s="86"/>
       <c r="D275" s="87"/>
@@ -10271,13 +10271,13 @@
       <c r="K275" s="21"/>
       <c r="L275" s="88"/>
       <c r="M275" s="86"/>
-      <c r="N275" s="208"/>
-      <c r="O275" s="208"/>
+      <c r="N275" s="210"/>
+      <c r="O275" s="210"/>
     </row>
     <row r="276" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="232"/>
+      <c r="A276" s="234"/>
       <c r="B276" s="124" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C276" s="86"/>
       <c r="D276" s="87"/>
@@ -10290,13 +10290,13 @@
       <c r="K276" s="22"/>
       <c r="L276" s="88"/>
       <c r="M276" s="86"/>
-      <c r="N276" s="208"/>
-      <c r="O276" s="208"/>
+      <c r="N276" s="210"/>
+      <c r="O276" s="210"/>
     </row>
     <row r="277" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="232"/>
+      <c r="A277" s="234"/>
       <c r="B277" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C277" s="75"/>
       <c r="D277" s="101"/>
@@ -10309,13 +10309,13 @@
       <c r="K277" s="102"/>
       <c r="L277" s="102"/>
       <c r="M277" s="101"/>
-      <c r="N277" s="208"/>
-      <c r="O277" s="208"/>
+      <c r="N277" s="210"/>
+      <c r="O277" s="210"/>
     </row>
     <row r="278" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="232"/>
+      <c r="A278" s="234"/>
       <c r="B278" s="96" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C278" s="86"/>
       <c r="D278" s="83"/>
@@ -10328,13 +10328,13 @@
       <c r="K278" s="20"/>
       <c r="L278" s="88"/>
       <c r="M278" s="86"/>
-      <c r="N278" s="208"/>
-      <c r="O278" s="208"/>
+      <c r="N278" s="210"/>
+      <c r="O278" s="210"/>
     </row>
     <row r="279" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="232"/>
+      <c r="A279" s="234"/>
       <c r="B279" s="100" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C279" s="86"/>
       <c r="D279" s="87"/>
@@ -10347,13 +10347,13 @@
       <c r="K279" s="21"/>
       <c r="L279" s="88"/>
       <c r="M279" s="86"/>
-      <c r="N279" s="208"/>
-      <c r="O279" s="208"/>
+      <c r="N279" s="210"/>
+      <c r="O279" s="210"/>
     </row>
     <row r="280" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="233"/>
+      <c r="A280" s="235"/>
       <c r="B280" s="108" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C280" s="90"/>
       <c r="D280" s="91"/>
@@ -10366,8 +10366,8 @@
       <c r="K280" s="22"/>
       <c r="L280" s="92"/>
       <c r="M280" s="90"/>
-      <c r="N280" s="209"/>
-      <c r="O280" s="209"/>
+      <c r="N280" s="211"/>
+      <c r="O280" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="108">
@@ -10602,21 +10602,21 @@
       <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:2" s="32" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="253" t="s">
-        <v>281</v>
-      </c>
-      <c r="B3" s="253"/>
+      <c r="A3" s="255" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" s="255"/>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="252"/>
-      <c r="B4" s="252"/>
+      <c r="A4" s="254"/>
+      <c r="B4" s="254"/>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -10624,7 +10624,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -10632,7 +10632,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -10640,7 +10640,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -10648,7 +10648,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/process/data/policy_review/gohsc-policy-indicator-checklist.xlsx
+++ b/process/data/policy_review/gohsc-policy-indicator-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rmiteduau-my.sharepoint.com/personal/carl_higgs_rmit_edu_au/Documents/projects/global-indicators/process/data/policy_review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{108925EA-CC98-4274-B259-A57460982CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88AD3004-9B2F-4F95-A84D-FC96065E8926}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{108925EA-CC98-4274-B259-A57460982CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C68AA6E-E33A-49B2-8959-080A68343718}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11295" xr2:uid="{CBD1D931-24DA-4E3E-B988-2C7CFFF38AFE}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11295" xr2:uid="{CBD1D931-24DA-4E3E-B988-2C7CFFF38AFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions " sheetId="5" r:id="rId1"/>
@@ -1541,13 +1541,13 @@
     <t>Housing or population density</t>
   </si>
   <si>
-    <t>version 2.0.1</t>
-  </si>
-  <si>
     <t>Language (in English):</t>
   </si>
   <si>
     <t>Severe storms</t>
+  </si>
+  <si>
+    <t>version 2.0.2</t>
   </si>
 </sst>
 </file>
@@ -3041,11 +3041,9 @@
     <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3057,6 +3055,44 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3064,44 +3100,146 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3141,144 +3279,6 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3865,44 +3865,44 @@
       <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
+      <c r="B3" s="188"/>
+      <c r="C3" s="188"/>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="191"/>
-      <c r="B4" s="191"/>
-      <c r="C4" s="191"/>
+      <c r="A4" s="189"/>
+      <c r="B4" s="189"/>
+      <c r="C4" s="189"/>
     </row>
     <row r="5" spans="1:3" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="192" t="s">
+      <c r="A5" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="192"/>
-      <c r="C5" s="192"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="193"/>
-      <c r="B6" s="193"/>
-      <c r="C6" s="193"/>
+      <c r="A6" s="191"/>
+      <c r="B6" s="191"/>
+      <c r="C6" s="191"/>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="194" t="s">
+      <c r="A7" s="192" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="194"/>
-      <c r="C7" s="194"/>
+      <c r="B7" s="192"/>
+      <c r="C7" s="192"/>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="188" t="s">
+      <c r="B8" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="188"/>
+      <c r="C8" s="187"/>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="159"/>
@@ -3982,11 +3982,11 @@
       <c r="C17" s="161"/>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="189" t="s">
+      <c r="A18" s="193" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="189"/>
-      <c r="C18" s="189"/>
+      <c r="B18" s="193"/>
+      <c r="C18" s="193"/>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="126" t="s">
@@ -4021,11 +4021,11 @@
       <c r="C22" s="162"/>
     </row>
     <row r="23" spans="1:3" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="189" t="s">
+      <c r="A23" s="193" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="189"/>
-      <c r="C23" s="189"/>
+      <c r="B23" s="193"/>
+      <c r="C23" s="193"/>
     </row>
     <row r="24" spans="1:3" s="34" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="160"/>
@@ -4340,10 +4340,10 @@
       <c r="A61" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="188" t="s">
+      <c r="B61" s="187" t="s">
         <v>39</v>
       </c>
-      <c r="C61" s="188"/>
+      <c r="C61" s="187"/>
     </row>
     <row r="62" spans="1:3" s="34" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="126" t="s">
@@ -4378,14 +4378,27 @@
       <c r="C65" s="127"/>
     </row>
     <row r="66" spans="1:3" s="37" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="187" t="s">
+      <c r="A66" s="194" t="s">
         <v>42</v>
       </c>
-      <c r="B66" s="187"/>
-      <c r="C66" s="187"/>
+      <c r="B66" s="194"/>
+      <c r="C66" s="194"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="A54:C54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
@@ -4402,19 +4415,6 @@
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B60:C60"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A66:C66" r:id="rId1" display="For further guidance on completing the checklist and preparing a policy indicators report, visit our Wiki." xr:uid="{06F1E41D-4AD9-467E-975B-04E72471265A}"/>
@@ -4452,154 +4452,154 @@
       <c r="C2" s="170"/>
     </row>
     <row r="3" spans="1:3" s="32" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="188" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
+      <c r="B3" s="188"/>
+      <c r="C3" s="188"/>
     </row>
     <row r="4" spans="1:3" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39"/>
       <c r="C4" s="171"/>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="201" t="s">
+      <c r="A5" s="203" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="201"/>
+      <c r="B5" s="203"/>
       <c r="C5" s="172"/>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="202" t="s">
+      <c r="A6" s="204" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="202"/>
+      <c r="B6" s="204"/>
       <c r="C6" s="173"/>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="202" t="s">
+      <c r="A7" s="204" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="202"/>
+      <c r="B7" s="204"/>
       <c r="C7" s="172"/>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="201" t="s">
+      <c r="A8" s="203" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="201"/>
+      <c r="B8" s="203"/>
       <c r="C8" s="173"/>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="203" t="s">
+      <c r="A9" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="203"/>
+      <c r="B9" s="205"/>
       <c r="C9" s="172"/>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="201" t="s">
+      <c r="A10" s="203" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="201"/>
+      <c r="B10" s="203"/>
       <c r="C10" s="173"/>
     </row>
     <row r="11" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="199" t="s">
+      <c r="A11" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="200"/>
+      <c r="B11" s="202"/>
       <c r="C11" s="172"/>
     </row>
     <row r="12" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="195" t="s">
+      <c r="A12" s="206" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="195"/>
+      <c r="B12" s="206"/>
       <c r="C12" s="174"/>
     </row>
     <row r="13" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="198" t="s">
+      <c r="A13" s="208" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="198"/>
-      <c r="C13" s="198"/>
+      <c r="B13" s="208"/>
+      <c r="C13" s="208"/>
     </row>
     <row r="14" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="196" t="s">
+      <c r="A14" s="207" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="196"/>
+      <c r="B14" s="207"/>
       <c r="C14" s="175"/>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="197" t="s">
-        <v>342</v>
-      </c>
-      <c r="B15" s="197"/>
+      <c r="A15" s="195" t="s">
+        <v>341</v>
+      </c>
+      <c r="B15" s="195"/>
       <c r="C15" s="176"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="197" t="s">
+      <c r="A16" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="197"/>
+      <c r="B16" s="195"/>
       <c r="C16" s="177"/>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="197" t="s">
+      <c r="A17" s="195" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="197"/>
+      <c r="B17" s="195"/>
       <c r="C17" s="177"/>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="197" t="s">
+      <c r="A18" s="195" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="197"/>
+      <c r="B18" s="195"/>
       <c r="C18" s="177"/>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="197" t="s">
+      <c r="A19" s="195" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="197"/>
+      <c r="B19" s="195"/>
       <c r="C19" s="177"/>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="197" t="s">
+      <c r="A20" s="195" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="197"/>
+      <c r="B20" s="195"/>
       <c r="C20" s="178"/>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="197" t="s">
+      <c r="A21" s="195" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="197"/>
+      <c r="B21" s="195"/>
       <c r="C21" s="178"/>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="197" t="s">
+      <c r="A22" s="195" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="197"/>
+      <c r="B22" s="195"/>
       <c r="C22" s="178"/>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="197" t="s">
+      <c r="A23" s="195" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="197"/>
+      <c r="B23" s="195"/>
       <c r="C23" s="177"/>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="197" t="s">
+      <c r="A24" s="195" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="197"/>
+      <c r="B24" s="195"/>
       <c r="C24" s="174"/>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4617,24 +4617,24 @@
       <c r="C26" s="30"/>
     </row>
     <row r="27" spans="1:3" s="34" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="199" t="s">
+      <c r="A27" s="198" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="206"/>
+      <c r="B27" s="197"/>
       <c r="C27" s="179"/>
     </row>
     <row r="28" spans="1:3" s="34" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="206" t="s">
+      <c r="A28" s="197" t="s">
         <v>314</v>
       </c>
-      <c r="B28" s="206"/>
+      <c r="B28" s="197"/>
       <c r="C28" s="180"/>
     </row>
     <row r="29" spans="1:3" s="34" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="199" t="s">
+      <c r="A29" s="198" t="s">
         <v>337</v>
       </c>
-      <c r="B29" s="199"/>
+      <c r="B29" s="198"/>
       <c r="C29" s="181"/>
     </row>
     <row r="30" spans="1:3" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4650,18 +4650,18 @@
       <c r="C31" s="182"/>
     </row>
     <row r="32" spans="1:3" s="157" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="208" t="s">
+      <c r="A32" s="199" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="208"/>
-      <c r="C32" s="208"/>
+      <c r="B32" s="199"/>
+      <c r="C32" s="199"/>
     </row>
     <row r="33" spans="1:3" s="40" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="205" t="s">
+      <c r="A33" s="201" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="205"/>
-      <c r="C33" s="205"/>
+      <c r="B33" s="201"/>
+      <c r="C33" s="201"/>
     </row>
     <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="136" t="s">
@@ -4675,149 +4675,149 @@
     </row>
     <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="184" t="s">
-        <v>341</v>
-      </c>
-      <c r="B36" s="207"/>
-      <c r="C36" s="207"/>
+        <v>340</v>
+      </c>
+      <c r="B36" s="196"/>
+      <c r="C36" s="196"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="206" t="s">
+      <c r="A37" s="197" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="206"/>
+      <c r="B37" s="197"/>
       <c r="C37" s="180"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="206" t="s">
+      <c r="A38" s="197" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="206"/>
+      <c r="B38" s="197"/>
       <c r="C38" s="180"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="206" t="s">
+      <c r="A39" s="197" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="206"/>
+      <c r="B39" s="197"/>
       <c r="C39" s="180"/>
     </row>
     <row r="40" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="206" t="s">
+      <c r="A40" s="197" t="s">
         <v>73</v>
       </c>
-      <c r="B40" s="206"/>
+      <c r="B40" s="197"/>
       <c r="C40" s="183"/>
     </row>
     <row r="41" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="206" t="s">
+      <c r="A41" s="197" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="206"/>
+      <c r="B41" s="197"/>
       <c r="C41" s="180"/>
     </row>
     <row r="42" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="204" t="s">
+      <c r="A42" s="200" t="s">
         <v>75</v>
       </c>
-      <c r="B42" s="204"/>
+      <c r="B42" s="200"/>
       <c r="C42" s="181"/>
     </row>
     <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="184" t="s">
-        <v>341</v>
-      </c>
-      <c r="B43" s="207"/>
-      <c r="C43" s="207"/>
+        <v>340</v>
+      </c>
+      <c r="B43" s="196"/>
+      <c r="C43" s="196"/>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="206" t="s">
+      <c r="A44" s="197" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="206"/>
+      <c r="B44" s="197"/>
       <c r="C44" s="180"/>
     </row>
     <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="206" t="s">
+      <c r="A45" s="197" t="s">
         <v>71</v>
       </c>
-      <c r="B45" s="206"/>
+      <c r="B45" s="197"/>
       <c r="C45" s="180"/>
     </row>
     <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="206" t="s">
+      <c r="A46" s="197" t="s">
         <v>72</v>
       </c>
-      <c r="B46" s="206"/>
+      <c r="B46" s="197"/>
       <c r="C46" s="180"/>
     </row>
     <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="206" t="s">
+      <c r="A47" s="197" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="206"/>
+      <c r="B47" s="197"/>
       <c r="C47" s="180"/>
     </row>
     <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="206" t="s">
+      <c r="A48" s="197" t="s">
         <v>74</v>
       </c>
-      <c r="B48" s="206"/>
+      <c r="B48" s="197"/>
       <c r="C48" s="180"/>
     </row>
     <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="204" t="s">
+      <c r="A49" s="200" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="204"/>
+      <c r="B49" s="200"/>
       <c r="C49" s="181"/>
     </row>
     <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="184" t="s">
-        <v>341</v>
-      </c>
-      <c r="B50" s="207"/>
-      <c r="C50" s="207"/>
+        <v>340</v>
+      </c>
+      <c r="B50" s="196"/>
+      <c r="C50" s="196"/>
     </row>
     <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="206" t="s">
+      <c r="A51" s="197" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="206"/>
+      <c r="B51" s="197"/>
       <c r="C51" s="180"/>
     </row>
     <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="206" t="s">
+      <c r="A52" s="197" t="s">
         <v>76</v>
       </c>
-      <c r="B52" s="206"/>
+      <c r="B52" s="197"/>
       <c r="C52" s="180"/>
     </row>
     <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="206" t="s">
+      <c r="A53" s="197" t="s">
         <v>72</v>
       </c>
-      <c r="B53" s="206"/>
+      <c r="B53" s="197"/>
       <c r="C53" s="180"/>
     </row>
     <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="206" t="s">
+      <c r="A54" s="197" t="s">
         <v>73</v>
       </c>
-      <c r="B54" s="206"/>
+      <c r="B54" s="197"/>
       <c r="C54" s="180"/>
     </row>
     <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="206" t="s">
+      <c r="A55" s="197" t="s">
         <v>74</v>
       </c>
-      <c r="B55" s="206"/>
+      <c r="B55" s="197"/>
       <c r="C55" s="180"/>
     </row>
     <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="204" t="s">
+      <c r="A56" s="200" t="s">
         <v>75</v>
       </c>
-      <c r="B56" s="204"/>
+      <c r="B56" s="200"/>
       <c r="C56" s="181"/>
     </row>
     <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4830,17 +4830,26 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="47">
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A13:C13"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="A51:B51"/>
@@ -4857,26 +4866,17 @@
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="No/Yes" prompt="Please select response from drop down" sqref="C15:C23" xr:uid="{7200986C-DC30-4512-8BE1-5C41BF347B27}">
@@ -4920,66 +4920,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="56" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="252" t="s">
+      <c r="A1" s="242" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="253"/>
-      <c r="C1" s="228" t="s">
+      <c r="B1" s="243"/>
+      <c r="C1" s="221" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="231" t="s">
+      <c r="D1" s="224" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="224" t="s">
+      <c r="E1" s="219" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="224" t="s">
+      <c r="F1" s="219" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="224" t="s">
+      <c r="G1" s="219" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="224" t="s">
+      <c r="H1" s="219" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="242" t="s">
+      <c r="I1" s="232" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="243"/>
-      <c r="K1" s="246" t="s">
+      <c r="J1" s="233"/>
+      <c r="K1" s="236" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="247"/>
+      <c r="L1" s="237"/>
       <c r="M1" s="135" t="s">
         <v>86</v>
       </c>
-      <c r="N1" s="215" t="s">
+      <c r="N1" s="250" t="s">
         <v>289</v>
       </c>
-      <c r="O1" s="216"/>
+      <c r="O1" s="251"/>
     </row>
     <row r="2" spans="1:15" s="56" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="148" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B2" s="57"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="225"/>
-      <c r="F2" s="225"/>
-      <c r="G2" s="225"/>
-      <c r="H2" s="225"/>
-      <c r="I2" s="244"/>
-      <c r="J2" s="245"/>
-      <c r="K2" s="248"/>
-      <c r="L2" s="249"/>
-      <c r="M2" s="219" t="s">
+      <c r="C2" s="222"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="220"/>
+      <c r="G2" s="220"/>
+      <c r="H2" s="220"/>
+      <c r="I2" s="234"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="238"/>
+      <c r="L2" s="239"/>
+      <c r="M2" s="214" t="s">
         <v>87</v>
       </c>
-      <c r="N2" s="217" t="s">
+      <c r="N2" s="252" t="s">
         <v>320</v>
       </c>
-      <c r="O2" s="218"/>
+      <c r="O2" s="253"/>
     </row>
     <row r="3" spans="1:15" s="56" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="149" t="s">
@@ -4988,7 +4988,7 @@
       <c r="B3" s="58" t="s">
         <v>287</v>
       </c>
-      <c r="C3" s="230"/>
+      <c r="C3" s="223"/>
       <c r="D3" s="59" t="s">
         <v>89</v>
       </c>
@@ -5014,7 +5014,7 @@
       <c r="L3" s="63" t="s">
         <v>288</v>
       </c>
-      <c r="M3" s="220"/>
+      <c r="M3" s="215"/>
       <c r="N3" s="151" t="s">
         <v>94</v>
       </c>
@@ -5064,10 +5064,10 @@
       <c r="O4" s="166"/>
     </row>
     <row r="5" spans="1:15" s="69" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="250" t="s">
+      <c r="A5" s="240" t="s">
         <v>286</v>
       </c>
-      <c r="B5" s="251"/>
+      <c r="B5" s="241"/>
       <c r="C5" s="70" t="s">
         <v>106</v>
       </c>
@@ -5097,10 +5097,10 @@
       <c r="O5" s="166"/>
     </row>
     <row r="6" spans="1:15" s="141" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="226" t="s">
+      <c r="A6" s="209" t="s">
         <v>290</v>
       </c>
-      <c r="B6" s="227"/>
+      <c r="B6" s="210"/>
       <c r="C6" s="143"/>
       <c r="D6" s="144"/>
       <c r="E6" s="144"/>
@@ -5116,29 +5116,29 @@
       <c r="O6" s="140"/>
     </row>
     <row r="7" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="235" t="s">
+      <c r="A7" s="212" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="236"/>
+      <c r="B7" s="226"/>
       <c r="C7" s="8"/>
       <c r="D7" s="142"/>
-      <c r="E7" s="237"/>
-      <c r="F7" s="238"/>
-      <c r="G7" s="238"/>
-      <c r="H7" s="238"/>
-      <c r="I7" s="238"/>
-      <c r="J7" s="238"/>
-      <c r="K7" s="238"/>
-      <c r="L7" s="239"/>
+      <c r="E7" s="227"/>
+      <c r="F7" s="228"/>
+      <c r="G7" s="228"/>
+      <c r="H7" s="228"/>
+      <c r="I7" s="228"/>
+      <c r="J7" s="228"/>
+      <c r="K7" s="228"/>
+      <c r="L7" s="229"/>
       <c r="M7" s="78"/>
       <c r="N7" s="78"/>
       <c r="O7" s="167"/>
     </row>
     <row r="8" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="240" t="s">
+      <c r="A8" s="230" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="241"/>
+      <c r="B8" s="231"/>
       <c r="C8" s="75"/>
       <c r="D8" s="73"/>
       <c r="E8" s="43"/>
@@ -5154,10 +5154,10 @@
       <c r="O8" s="74"/>
     </row>
     <row r="9" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="240" t="s">
+      <c r="A9" s="230" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="241"/>
+      <c r="B9" s="231"/>
       <c r="C9" s="75"/>
       <c r="D9" s="73"/>
       <c r="E9" s="42"/>
@@ -5173,10 +5173,10 @@
       <c r="O9" s="74"/>
     </row>
     <row r="10" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="240" t="s">
+      <c r="A10" s="230" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="241"/>
+      <c r="B10" s="231"/>
       <c r="C10" s="75"/>
       <c r="D10" s="73"/>
       <c r="E10" s="43"/>
@@ -5192,7 +5192,7 @@
       <c r="O10" s="74"/>
     </row>
     <row r="11" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="233" t="s">
+      <c r="A11" s="213" t="s">
         <v>113</v>
       </c>
       <c r="B11" s="44" t="s">
@@ -5209,11 +5209,11 @@
       <c r="K11" s="81"/>
       <c r="L11" s="81"/>
       <c r="M11" s="101"/>
-      <c r="N11" s="209"/>
-      <c r="O11" s="209"/>
+      <c r="N11" s="244"/>
+      <c r="O11" s="244"/>
     </row>
     <row r="12" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="234"/>
+      <c r="A12" s="211"/>
       <c r="B12" s="45" t="s">
         <v>115</v>
       </c>
@@ -5228,11 +5228,11 @@
       <c r="K12" s="20"/>
       <c r="L12" s="77"/>
       <c r="M12" s="82"/>
-      <c r="N12" s="210"/>
-      <c r="O12" s="210"/>
+      <c r="N12" s="245"/>
+      <c r="O12" s="245"/>
     </row>
     <row r="13" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="234"/>
+      <c r="A13" s="211"/>
       <c r="B13" s="47" t="s">
         <v>116</v>
       </c>
@@ -5247,11 +5247,11 @@
       <c r="K13" s="21"/>
       <c r="L13" s="88"/>
       <c r="M13" s="86"/>
-      <c r="N13" s="210"/>
-      <c r="O13" s="210"/>
+      <c r="N13" s="245"/>
+      <c r="O13" s="245"/>
     </row>
     <row r="14" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="234"/>
+      <c r="A14" s="211"/>
       <c r="B14" s="47" t="s">
         <v>117</v>
       </c>
@@ -5266,11 +5266,11 @@
       <c r="K14" s="21"/>
       <c r="L14" s="88"/>
       <c r="M14" s="86"/>
-      <c r="N14" s="210"/>
-      <c r="O14" s="210"/>
+      <c r="N14" s="245"/>
+      <c r="O14" s="245"/>
     </row>
     <row r="15" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="235"/>
+      <c r="A15" s="212"/>
       <c r="B15" s="49" t="s">
         <v>118</v>
       </c>
@@ -5285,11 +5285,11 @@
       <c r="K15" s="22"/>
       <c r="L15" s="92"/>
       <c r="M15" s="90"/>
-      <c r="N15" s="211"/>
-      <c r="O15" s="211"/>
+      <c r="N15" s="246"/>
+      <c r="O15" s="246"/>
     </row>
     <row r="16" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="233" t="s">
+      <c r="A16" s="213" t="s">
         <v>119</v>
       </c>
       <c r="B16" s="146" t="s">
@@ -5306,11 +5306,11 @@
       <c r="K16" s="95"/>
       <c r="L16" s="95"/>
       <c r="M16" s="101"/>
-      <c r="N16" s="212"/>
-      <c r="O16" s="212"/>
+      <c r="N16" s="247"/>
+      <c r="O16" s="247"/>
     </row>
     <row r="17" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="234"/>
+      <c r="A17" s="211"/>
       <c r="B17" s="96" t="s">
         <v>121</v>
       </c>
@@ -5325,11 +5325,11 @@
       <c r="K17" s="20"/>
       <c r="L17" s="98"/>
       <c r="M17" s="97"/>
-      <c r="N17" s="213"/>
-      <c r="O17" s="213"/>
+      <c r="N17" s="248"/>
+      <c r="O17" s="248"/>
     </row>
     <row r="18" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="234"/>
+      <c r="A18" s="211"/>
       <c r="B18" s="100" t="s">
         <v>122</v>
       </c>
@@ -5344,11 +5344,11 @@
       <c r="K18" s="21"/>
       <c r="L18" s="88"/>
       <c r="M18" s="86"/>
-      <c r="N18" s="213"/>
-      <c r="O18" s="213"/>
+      <c r="N18" s="248"/>
+      <c r="O18" s="248"/>
     </row>
     <row r="19" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="234"/>
+      <c r="A19" s="211"/>
       <c r="B19" s="100" t="s">
         <v>118</v>
       </c>
@@ -5363,11 +5363,11 @@
       <c r="K19" s="22"/>
       <c r="L19" s="88"/>
       <c r="M19" s="86"/>
-      <c r="N19" s="213"/>
-      <c r="O19" s="213"/>
+      <c r="N19" s="248"/>
+      <c r="O19" s="248"/>
     </row>
     <row r="20" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="234"/>
+      <c r="A20" s="211"/>
       <c r="B20" s="44" t="s">
         <v>123</v>
       </c>
@@ -5382,11 +5382,11 @@
       <c r="K20" s="102"/>
       <c r="L20" s="102"/>
       <c r="M20" s="94"/>
-      <c r="N20" s="213"/>
-      <c r="O20" s="213"/>
+      <c r="N20" s="248"/>
+      <c r="O20" s="248"/>
     </row>
     <row r="21" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="234"/>
+      <c r="A21" s="211"/>
       <c r="B21" s="96" t="s">
         <v>124</v>
       </c>
@@ -5401,11 +5401,11 @@
       <c r="K21" s="20"/>
       <c r="L21" s="88"/>
       <c r="M21" s="86"/>
-      <c r="N21" s="213"/>
-      <c r="O21" s="213"/>
+      <c r="N21" s="248"/>
+      <c r="O21" s="248"/>
     </row>
     <row r="22" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="234"/>
+      <c r="A22" s="211"/>
       <c r="B22" s="100" t="s">
         <v>125</v>
       </c>
@@ -5420,11 +5420,11 @@
       <c r="K22" s="21"/>
       <c r="L22" s="88"/>
       <c r="M22" s="86"/>
-      <c r="N22" s="213"/>
-      <c r="O22" s="213"/>
+      <c r="N22" s="248"/>
+      <c r="O22" s="248"/>
     </row>
     <row r="23" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="235"/>
+      <c r="A23" s="212"/>
       <c r="B23" s="103" t="s">
         <v>118</v>
       </c>
@@ -5439,14 +5439,14 @@
       <c r="K23" s="22"/>
       <c r="L23" s="105"/>
       <c r="M23" s="104"/>
-      <c r="N23" s="214"/>
-      <c r="O23" s="214"/>
+      <c r="N23" s="249"/>
+      <c r="O23" s="249"/>
     </row>
     <row r="24" spans="1:15" s="141" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="226" t="s">
+      <c r="A24" s="209" t="s">
         <v>291</v>
       </c>
-      <c r="B24" s="227"/>
+      <c r="B24" s="210"/>
       <c r="C24" s="143"/>
       <c r="D24" s="144"/>
       <c r="E24" s="144"/>
@@ -5462,7 +5462,7 @@
       <c r="O24" s="140"/>
     </row>
     <row r="25" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="233" t="s">
+      <c r="A25" s="213" t="s">
         <v>301</v>
       </c>
       <c r="B25" s="44" t="s">
@@ -5479,11 +5479,11 @@
       <c r="K25" s="102"/>
       <c r="L25" s="102"/>
       <c r="M25" s="101"/>
-      <c r="N25" s="212"/>
-      <c r="O25" s="212"/>
+      <c r="N25" s="247"/>
+      <c r="O25" s="247"/>
     </row>
     <row r="26" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="234"/>
+      <c r="A26" s="211"/>
       <c r="B26" s="96" t="s">
         <v>159</v>
       </c>
@@ -5498,11 +5498,11 @@
       <c r="K26" s="20"/>
       <c r="L26" s="88"/>
       <c r="M26" s="86"/>
-      <c r="N26" s="213"/>
-      <c r="O26" s="213"/>
+      <c r="N26" s="248"/>
+      <c r="O26" s="248"/>
     </row>
     <row r="27" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="234"/>
+      <c r="A27" s="211"/>
       <c r="B27" s="96" t="s">
         <v>160</v>
       </c>
@@ -5517,11 +5517,11 @@
       <c r="K27" s="28"/>
       <c r="L27" s="88"/>
       <c r="M27" s="86"/>
-      <c r="N27" s="213"/>
-      <c r="O27" s="213"/>
+      <c r="N27" s="248"/>
+      <c r="O27" s="248"/>
     </row>
     <row r="28" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="234"/>
+      <c r="A28" s="211"/>
       <c r="B28" s="100" t="s">
         <v>118</v>
       </c>
@@ -5536,11 +5536,11 @@
       <c r="K28" s="22"/>
       <c r="L28" s="88"/>
       <c r="M28" s="86"/>
-      <c r="N28" s="213"/>
-      <c r="O28" s="213"/>
+      <c r="N28" s="248"/>
+      <c r="O28" s="248"/>
     </row>
     <row r="29" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="234"/>
+      <c r="A29" s="211"/>
       <c r="B29" s="44" t="s">
         <v>101</v>
       </c>
@@ -5555,11 +5555,11 @@
       <c r="K29" s="102"/>
       <c r="L29" s="102"/>
       <c r="M29" s="101"/>
-      <c r="N29" s="213"/>
-      <c r="O29" s="213"/>
+      <c r="N29" s="248"/>
+      <c r="O29" s="248"/>
     </row>
     <row r="30" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="234"/>
+      <c r="A30" s="211"/>
       <c r="B30" s="96" t="s">
         <v>161</v>
       </c>
@@ -5574,11 +5574,11 @@
       <c r="K30" s="20"/>
       <c r="L30" s="88"/>
       <c r="M30" s="86"/>
-      <c r="N30" s="213"/>
-      <c r="O30" s="213"/>
+      <c r="N30" s="248"/>
+      <c r="O30" s="248"/>
     </row>
     <row r="31" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="234"/>
+      <c r="A31" s="211"/>
       <c r="B31" s="147" t="s">
         <v>162</v>
       </c>
@@ -5593,11 +5593,11 @@
       <c r="K31" s="28"/>
       <c r="L31" s="105"/>
       <c r="M31" s="104"/>
-      <c r="N31" s="213"/>
-      <c r="O31" s="213"/>
+      <c r="N31" s="248"/>
+      <c r="O31" s="248"/>
     </row>
     <row r="32" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="235"/>
+      <c r="A32" s="212"/>
       <c r="B32" s="108" t="s">
         <v>118</v>
       </c>
@@ -5612,11 +5612,11 @@
       <c r="K32" s="22"/>
       <c r="L32" s="92"/>
       <c r="M32" s="90"/>
-      <c r="N32" s="214"/>
-      <c r="O32" s="214"/>
+      <c r="N32" s="249"/>
+      <c r="O32" s="249"/>
     </row>
     <row r="33" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="233" t="s">
+      <c r="A33" s="213" t="s">
         <v>299</v>
       </c>
       <c r="B33" s="44" t="s">
@@ -5633,11 +5633,11 @@
       <c r="K33" s="102"/>
       <c r="L33" s="102"/>
       <c r="M33" s="101"/>
-      <c r="N33" s="209"/>
-      <c r="O33" s="209"/>
+      <c r="N33" s="244"/>
+      <c r="O33" s="244"/>
     </row>
     <row r="34" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="234"/>
+      <c r="A34" s="211"/>
       <c r="B34" s="96" t="s">
         <v>149</v>
       </c>
@@ -5652,11 +5652,11 @@
       <c r="K34" s="20"/>
       <c r="L34" s="88"/>
       <c r="M34" s="86"/>
-      <c r="N34" s="210"/>
-      <c r="O34" s="210"/>
+      <c r="N34" s="245"/>
+      <c r="O34" s="245"/>
     </row>
     <row r="35" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="234"/>
+      <c r="A35" s="211"/>
       <c r="B35" s="100" t="s">
         <v>150</v>
       </c>
@@ -5671,11 +5671,11 @@
       <c r="K35" s="21"/>
       <c r="L35" s="88"/>
       <c r="M35" s="86"/>
-      <c r="N35" s="210"/>
-      <c r="O35" s="210"/>
+      <c r="N35" s="245"/>
+      <c r="O35" s="245"/>
     </row>
     <row r="36" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="234"/>
+      <c r="A36" s="211"/>
       <c r="B36" s="100" t="s">
         <v>151</v>
       </c>
@@ -5690,11 +5690,11 @@
       <c r="K36" s="21"/>
       <c r="L36" s="88"/>
       <c r="M36" s="86"/>
-      <c r="N36" s="210"/>
-      <c r="O36" s="210"/>
+      <c r="N36" s="245"/>
+      <c r="O36" s="245"/>
     </row>
     <row r="37" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="234"/>
+      <c r="A37" s="211"/>
       <c r="B37" s="100" t="s">
         <v>152</v>
       </c>
@@ -5709,11 +5709,11 @@
       <c r="K37" s="24"/>
       <c r="L37" s="88"/>
       <c r="M37" s="86"/>
-      <c r="N37" s="210"/>
-      <c r="O37" s="210"/>
+      <c r="N37" s="245"/>
+      <c r="O37" s="245"/>
     </row>
     <row r="38" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="234"/>
+      <c r="A38" s="211"/>
       <c r="B38" s="100" t="s">
         <v>153</v>
       </c>
@@ -5728,11 +5728,11 @@
       <c r="K38" s="24"/>
       <c r="L38" s="88"/>
       <c r="M38" s="86"/>
-      <c r="N38" s="210"/>
-      <c r="O38" s="210"/>
+      <c r="N38" s="245"/>
+      <c r="O38" s="245"/>
     </row>
     <row r="39" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="234"/>
+      <c r="A39" s="211"/>
       <c r="B39" s="100" t="s">
         <v>118</v>
       </c>
@@ -5747,11 +5747,11 @@
       <c r="K39" s="22"/>
       <c r="L39" s="88"/>
       <c r="M39" s="86"/>
-      <c r="N39" s="210"/>
-      <c r="O39" s="210"/>
+      <c r="N39" s="245"/>
+      <c r="O39" s="245"/>
     </row>
     <row r="40" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="234"/>
+      <c r="A40" s="211"/>
       <c r="B40" s="44" t="s">
         <v>101</v>
       </c>
@@ -5766,11 +5766,11 @@
       <c r="K40" s="102"/>
       <c r="L40" s="102"/>
       <c r="M40" s="101"/>
-      <c r="N40" s="210"/>
-      <c r="O40" s="210"/>
+      <c r="N40" s="245"/>
+      <c r="O40" s="245"/>
     </row>
     <row r="41" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="234"/>
+      <c r="A41" s="211"/>
       <c r="B41" s="96" t="s">
         <v>154</v>
       </c>
@@ -5785,11 +5785,11 @@
       <c r="K41" s="20"/>
       <c r="L41" s="88"/>
       <c r="M41" s="86"/>
-      <c r="N41" s="210"/>
-      <c r="O41" s="210"/>
+      <c r="N41" s="245"/>
+      <c r="O41" s="245"/>
     </row>
     <row r="42" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="235"/>
+      <c r="A42" s="212"/>
       <c r="B42" s="108" t="s">
         <v>118</v>
       </c>
@@ -5804,11 +5804,11 @@
       <c r="K42" s="22"/>
       <c r="L42" s="92"/>
       <c r="M42" s="90"/>
-      <c r="N42" s="211"/>
-      <c r="O42" s="211"/>
+      <c r="N42" s="246"/>
+      <c r="O42" s="246"/>
     </row>
     <row r="43" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="233" t="s">
+      <c r="A43" s="213" t="s">
         <v>302</v>
       </c>
       <c r="B43" s="44" t="s">
@@ -5825,11 +5825,11 @@
       <c r="K43" s="102"/>
       <c r="L43" s="102"/>
       <c r="M43" s="101"/>
-      <c r="N43" s="209"/>
-      <c r="O43" s="209"/>
+      <c r="N43" s="244"/>
+      <c r="O43" s="244"/>
     </row>
     <row r="44" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="234"/>
+      <c r="A44" s="211"/>
       <c r="B44" s="96" t="s">
         <v>163</v>
       </c>
@@ -5844,11 +5844,11 @@
       <c r="K44" s="20"/>
       <c r="L44" s="98"/>
       <c r="M44" s="97"/>
-      <c r="N44" s="210"/>
-      <c r="O44" s="210"/>
+      <c r="N44" s="245"/>
+      <c r="O44" s="245"/>
     </row>
     <row r="45" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="234"/>
+      <c r="A45" s="211"/>
       <c r="B45" s="96" t="s">
         <v>164</v>
       </c>
@@ -5863,11 +5863,11 @@
       <c r="K45" s="28"/>
       <c r="L45" s="98"/>
       <c r="M45" s="97"/>
-      <c r="N45" s="210"/>
-      <c r="O45" s="210"/>
+      <c r="N45" s="245"/>
+      <c r="O45" s="245"/>
     </row>
     <row r="46" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="234"/>
+      <c r="A46" s="211"/>
       <c r="B46" s="100" t="s">
         <v>118</v>
       </c>
@@ -5882,11 +5882,11 @@
       <c r="K46" s="22"/>
       <c r="L46" s="88"/>
       <c r="M46" s="86"/>
-      <c r="N46" s="210"/>
-      <c r="O46" s="210"/>
+      <c r="N46" s="245"/>
+      <c r="O46" s="245"/>
     </row>
     <row r="47" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="234"/>
+      <c r="A47" s="211"/>
       <c r="B47" s="44" t="s">
         <v>101</v>
       </c>
@@ -5901,11 +5901,11 @@
       <c r="K47" s="102"/>
       <c r="L47" s="102"/>
       <c r="M47" s="101"/>
-      <c r="N47" s="210"/>
-      <c r="O47" s="210"/>
+      <c r="N47" s="245"/>
+      <c r="O47" s="245"/>
     </row>
     <row r="48" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="234"/>
+      <c r="A48" s="211"/>
       <c r="B48" s="96" t="s">
         <v>165</v>
       </c>
@@ -5920,11 +5920,11 @@
       <c r="K48" s="20"/>
       <c r="L48" s="88"/>
       <c r="M48" s="86"/>
-      <c r="N48" s="210"/>
-      <c r="O48" s="210"/>
+      <c r="N48" s="245"/>
+      <c r="O48" s="245"/>
     </row>
     <row r="49" spans="1:15" s="72" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="234"/>
+      <c r="A49" s="211"/>
       <c r="B49" s="103" t="s">
         <v>166</v>
       </c>
@@ -5939,11 +5939,11 @@
       <c r="K49" s="24"/>
       <c r="L49" s="105"/>
       <c r="M49" s="104"/>
-      <c r="N49" s="210"/>
-      <c r="O49" s="210"/>
+      <c r="N49" s="245"/>
+      <c r="O49" s="245"/>
     </row>
     <row r="50" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="235"/>
+      <c r="A50" s="212"/>
       <c r="B50" s="108" t="s">
         <v>118</v>
       </c>
@@ -5958,11 +5958,11 @@
       <c r="K50" s="22"/>
       <c r="L50" s="92"/>
       <c r="M50" s="90"/>
-      <c r="N50" s="211"/>
-      <c r="O50" s="211"/>
+      <c r="N50" s="246"/>
+      <c r="O50" s="246"/>
     </row>
     <row r="51" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="233" t="s">
+      <c r="A51" s="213" t="s">
         <v>300</v>
       </c>
       <c r="B51" s="44" t="s">
@@ -5979,11 +5979,11 @@
       <c r="K51" s="102"/>
       <c r="L51" s="102"/>
       <c r="M51" s="101"/>
-      <c r="N51" s="209"/>
-      <c r="O51" s="209"/>
+      <c r="N51" s="244"/>
+      <c r="O51" s="244"/>
     </row>
     <row r="52" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="234"/>
+      <c r="A52" s="211"/>
       <c r="B52" s="96" t="s">
         <v>155</v>
       </c>
@@ -5998,11 +5998,11 @@
       <c r="K52" s="20"/>
       <c r="L52" s="88"/>
       <c r="M52" s="86"/>
-      <c r="N52" s="210"/>
-      <c r="O52" s="210"/>
+      <c r="N52" s="245"/>
+      <c r="O52" s="245"/>
     </row>
     <row r="53" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="234"/>
+      <c r="A53" s="211"/>
       <c r="B53" s="100" t="s">
         <v>156</v>
       </c>
@@ -6017,11 +6017,11 @@
       <c r="K53" s="21"/>
       <c r="L53" s="88"/>
       <c r="M53" s="86"/>
-      <c r="N53" s="210"/>
-      <c r="O53" s="210"/>
+      <c r="N53" s="245"/>
+      <c r="O53" s="245"/>
     </row>
     <row r="54" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="234"/>
+      <c r="A54" s="211"/>
       <c r="B54" s="100" t="s">
         <v>157</v>
       </c>
@@ -6036,11 +6036,11 @@
       <c r="K54" s="21"/>
       <c r="L54" s="88"/>
       <c r="M54" s="86"/>
-      <c r="N54" s="210"/>
-      <c r="O54" s="210"/>
+      <c r="N54" s="245"/>
+      <c r="O54" s="245"/>
     </row>
     <row r="55" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="234"/>
+      <c r="A55" s="211"/>
       <c r="B55" s="100" t="s">
         <v>118</v>
       </c>
@@ -6055,11 +6055,11 @@
       <c r="K55" s="22"/>
       <c r="L55" s="88"/>
       <c r="M55" s="86"/>
-      <c r="N55" s="210"/>
-      <c r="O55" s="210"/>
+      <c r="N55" s="245"/>
+      <c r="O55" s="245"/>
     </row>
     <row r="56" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="234"/>
+      <c r="A56" s="211"/>
       <c r="B56" s="44" t="s">
         <v>101</v>
       </c>
@@ -6074,11 +6074,11 @@
       <c r="K56" s="102"/>
       <c r="L56" s="102"/>
       <c r="M56" s="101"/>
-      <c r="N56" s="210"/>
-      <c r="O56" s="210"/>
+      <c r="N56" s="245"/>
+      <c r="O56" s="245"/>
     </row>
     <row r="57" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="234"/>
+      <c r="A57" s="211"/>
       <c r="B57" s="96" t="s">
         <v>158</v>
       </c>
@@ -6093,11 +6093,11 @@
       <c r="K57" s="20"/>
       <c r="L57" s="88"/>
       <c r="M57" s="86"/>
-      <c r="N57" s="210"/>
-      <c r="O57" s="210"/>
+      <c r="N57" s="245"/>
+      <c r="O57" s="245"/>
     </row>
     <row r="58" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="235"/>
+      <c r="A58" s="212"/>
       <c r="B58" s="108" t="s">
         <v>118</v>
       </c>
@@ -6112,11 +6112,11 @@
       <c r="K58" s="22"/>
       <c r="L58" s="92"/>
       <c r="M58" s="90"/>
-      <c r="N58" s="211"/>
-      <c r="O58" s="211"/>
+      <c r="N58" s="246"/>
+      <c r="O58" s="246"/>
     </row>
     <row r="59" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="233" t="s">
+      <c r="A59" s="213" t="s">
         <v>298</v>
       </c>
       <c r="B59" s="44" t="s">
@@ -6133,11 +6133,11 @@
       <c r="K59" s="102"/>
       <c r="L59" s="102"/>
       <c r="M59" s="101"/>
-      <c r="N59" s="209"/>
-      <c r="O59" s="209"/>
+      <c r="N59" s="244"/>
+      <c r="O59" s="244"/>
     </row>
     <row r="60" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="234"/>
+      <c r="A60" s="211"/>
       <c r="B60" s="96" t="s">
         <v>141</v>
       </c>
@@ -6152,11 +6152,11 @@
       <c r="K60" s="20"/>
       <c r="L60" s="88"/>
       <c r="M60" s="86"/>
-      <c r="N60" s="210"/>
-      <c r="O60" s="210"/>
+      <c r="N60" s="245"/>
+      <c r="O60" s="245"/>
     </row>
     <row r="61" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="234"/>
+      <c r="A61" s="211"/>
       <c r="B61" s="100" t="s">
         <v>142</v>
       </c>
@@ -6171,11 +6171,11 @@
       <c r="K61" s="21"/>
       <c r="L61" s="88"/>
       <c r="M61" s="86"/>
-      <c r="N61" s="210"/>
-      <c r="O61" s="210"/>
+      <c r="N61" s="245"/>
+      <c r="O61" s="245"/>
     </row>
     <row r="62" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="234"/>
+      <c r="A62" s="211"/>
       <c r="B62" s="100" t="s">
         <v>143</v>
       </c>
@@ -6190,11 +6190,11 @@
       <c r="K62" s="21"/>
       <c r="L62" s="88"/>
       <c r="M62" s="86"/>
-      <c r="N62" s="210"/>
-      <c r="O62" s="210"/>
+      <c r="N62" s="245"/>
+      <c r="O62" s="245"/>
     </row>
     <row r="63" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="234"/>
+      <c r="A63" s="211"/>
       <c r="B63" s="100" t="s">
         <v>144</v>
       </c>
@@ -6209,11 +6209,11 @@
       <c r="K63" s="21"/>
       <c r="L63" s="88"/>
       <c r="M63" s="86"/>
-      <c r="N63" s="210"/>
-      <c r="O63" s="210"/>
+      <c r="N63" s="245"/>
+      <c r="O63" s="245"/>
     </row>
     <row r="64" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="234"/>
+      <c r="A64" s="211"/>
       <c r="B64" s="100" t="s">
         <v>145</v>
       </c>
@@ -6228,11 +6228,11 @@
       <c r="K64" s="21"/>
       <c r="L64" s="88"/>
       <c r="M64" s="86"/>
-      <c r="N64" s="210"/>
-      <c r="O64" s="210"/>
+      <c r="N64" s="245"/>
+      <c r="O64" s="245"/>
     </row>
     <row r="65" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="234"/>
+      <c r="A65" s="211"/>
       <c r="B65" s="100" t="s">
         <v>146</v>
       </c>
@@ -6247,11 +6247,11 @@
       <c r="K65" s="21"/>
       <c r="L65" s="88"/>
       <c r="M65" s="86"/>
-      <c r="N65" s="210"/>
-      <c r="O65" s="210"/>
+      <c r="N65" s="245"/>
+      <c r="O65" s="245"/>
     </row>
     <row r="66" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="234"/>
+      <c r="A66" s="211"/>
       <c r="B66" s="100" t="s">
         <v>118</v>
       </c>
@@ -6266,11 +6266,11 @@
       <c r="K66" s="22"/>
       <c r="L66" s="88"/>
       <c r="M66" s="86"/>
-      <c r="N66" s="210"/>
-      <c r="O66" s="210"/>
+      <c r="N66" s="245"/>
+      <c r="O66" s="245"/>
     </row>
     <row r="67" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="234"/>
+      <c r="A67" s="211"/>
       <c r="B67" s="44" t="s">
         <v>101</v>
       </c>
@@ -6285,11 +6285,11 @@
       <c r="K67" s="102"/>
       <c r="L67" s="102"/>
       <c r="M67" s="101"/>
-      <c r="N67" s="210"/>
-      <c r="O67" s="210"/>
+      <c r="N67" s="245"/>
+      <c r="O67" s="245"/>
     </row>
     <row r="68" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="234"/>
+      <c r="A68" s="211"/>
       <c r="B68" s="96" t="s">
         <v>147</v>
       </c>
@@ -6304,11 +6304,11 @@
       <c r="K68" s="20"/>
       <c r="L68" s="88"/>
       <c r="M68" s="86"/>
-      <c r="N68" s="210"/>
-      <c r="O68" s="210"/>
+      <c r="N68" s="245"/>
+      <c r="O68" s="245"/>
     </row>
     <row r="69" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="234"/>
+      <c r="A69" s="211"/>
       <c r="B69" s="100" t="s">
         <v>148</v>
       </c>
@@ -6323,11 +6323,11 @@
       <c r="K69" s="21"/>
       <c r="L69" s="88"/>
       <c r="M69" s="86"/>
-      <c r="N69" s="210"/>
-      <c r="O69" s="210"/>
+      <c r="N69" s="245"/>
+      <c r="O69" s="245"/>
     </row>
     <row r="70" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="235"/>
+      <c r="A70" s="212"/>
       <c r="B70" s="108" t="s">
         <v>118</v>
       </c>
@@ -6342,11 +6342,11 @@
       <c r="K70" s="22"/>
       <c r="L70" s="92"/>
       <c r="M70" s="90"/>
-      <c r="N70" s="211"/>
-      <c r="O70" s="211"/>
+      <c r="N70" s="246"/>
+      <c r="O70" s="246"/>
     </row>
     <row r="71" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="233" t="s">
+      <c r="A71" s="213" t="s">
         <v>132</v>
       </c>
       <c r="B71" s="146" t="s">
@@ -6363,11 +6363,11 @@
       <c r="K71" s="95"/>
       <c r="L71" s="95"/>
       <c r="M71" s="94"/>
-      <c r="N71" s="209"/>
-      <c r="O71" s="209"/>
+      <c r="N71" s="244"/>
+      <c r="O71" s="244"/>
     </row>
     <row r="72" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="234"/>
+      <c r="A72" s="211"/>
       <c r="B72" s="96" t="s">
         <v>133</v>
       </c>
@@ -6382,11 +6382,11 @@
       <c r="K72" s="20"/>
       <c r="L72" s="98"/>
       <c r="M72" s="97"/>
-      <c r="N72" s="210"/>
-      <c r="O72" s="210"/>
+      <c r="N72" s="245"/>
+      <c r="O72" s="245"/>
     </row>
     <row r="73" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="234"/>
+      <c r="A73" s="211"/>
       <c r="B73" s="100" t="s">
         <v>134</v>
       </c>
@@ -6401,11 +6401,11 @@
       <c r="K73" s="21"/>
       <c r="L73" s="88"/>
       <c r="M73" s="86"/>
-      <c r="N73" s="210"/>
-      <c r="O73" s="210"/>
+      <c r="N73" s="245"/>
+      <c r="O73" s="245"/>
     </row>
     <row r="74" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="234"/>
+      <c r="A74" s="211"/>
       <c r="B74" s="100" t="s">
         <v>135</v>
       </c>
@@ -6420,11 +6420,11 @@
       <c r="K74" s="21"/>
       <c r="L74" s="88"/>
       <c r="M74" s="86"/>
-      <c r="N74" s="210"/>
-      <c r="O74" s="210"/>
+      <c r="N74" s="245"/>
+      <c r="O74" s="245"/>
     </row>
     <row r="75" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="234"/>
+      <c r="A75" s="211"/>
       <c r="B75" s="100" t="s">
         <v>136</v>
       </c>
@@ -6439,11 +6439,11 @@
       <c r="K75" s="21"/>
       <c r="L75" s="88"/>
       <c r="M75" s="86"/>
-      <c r="N75" s="210"/>
-      <c r="O75" s="210"/>
+      <c r="N75" s="245"/>
+      <c r="O75" s="245"/>
     </row>
     <row r="76" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="234"/>
+      <c r="A76" s="211"/>
       <c r="B76" s="100" t="s">
         <v>118</v>
       </c>
@@ -6458,11 +6458,11 @@
       <c r="K76" s="22"/>
       <c r="L76" s="88"/>
       <c r="M76" s="86"/>
-      <c r="N76" s="210"/>
-      <c r="O76" s="210"/>
+      <c r="N76" s="245"/>
+      <c r="O76" s="245"/>
     </row>
     <row r="77" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="234"/>
+      <c r="A77" s="211"/>
       <c r="B77" s="44" t="s">
         <v>101</v>
       </c>
@@ -6477,11 +6477,11 @@
       <c r="K77" s="102"/>
       <c r="L77" s="102"/>
       <c r="M77" s="101"/>
-      <c r="N77" s="210"/>
-      <c r="O77" s="210"/>
+      <c r="N77" s="245"/>
+      <c r="O77" s="245"/>
     </row>
     <row r="78" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="234"/>
+      <c r="A78" s="211"/>
       <c r="B78" s="96" t="s">
         <v>137</v>
       </c>
@@ -6496,11 +6496,11 @@
       <c r="K78" s="20"/>
       <c r="L78" s="88"/>
       <c r="M78" s="86"/>
-      <c r="N78" s="210"/>
-      <c r="O78" s="210"/>
+      <c r="N78" s="245"/>
+      <c r="O78" s="245"/>
     </row>
     <row r="79" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="234"/>
+      <c r="A79" s="211"/>
       <c r="B79" s="100" t="s">
         <v>138</v>
       </c>
@@ -6515,11 +6515,11 @@
       <c r="K79" s="21"/>
       <c r="L79" s="88"/>
       <c r="M79" s="86"/>
-      <c r="N79" s="210"/>
-      <c r="O79" s="210"/>
+      <c r="N79" s="245"/>
+      <c r="O79" s="245"/>
     </row>
     <row r="80" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="234"/>
+      <c r="A80" s="211"/>
       <c r="B80" s="100" t="s">
         <v>139</v>
       </c>
@@ -6534,11 +6534,11 @@
       <c r="K80" s="21"/>
       <c r="L80" s="88"/>
       <c r="M80" s="86"/>
-      <c r="N80" s="210"/>
-      <c r="O80" s="210"/>
+      <c r="N80" s="245"/>
+      <c r="O80" s="245"/>
     </row>
     <row r="81" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="234"/>
+      <c r="A81" s="211"/>
       <c r="B81" s="100" t="s">
         <v>140</v>
       </c>
@@ -6553,11 +6553,11 @@
       <c r="K81" s="21"/>
       <c r="L81" s="88"/>
       <c r="M81" s="86"/>
-      <c r="N81" s="210"/>
-      <c r="O81" s="210"/>
+      <c r="N81" s="245"/>
+      <c r="O81" s="245"/>
     </row>
     <row r="82" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="235"/>
+      <c r="A82" s="212"/>
       <c r="B82" s="108" t="s">
         <v>118</v>
       </c>
@@ -6572,11 +6572,11 @@
       <c r="K82" s="22"/>
       <c r="L82" s="92"/>
       <c r="M82" s="90"/>
-      <c r="N82" s="211"/>
-      <c r="O82" s="211"/>
+      <c r="N82" s="246"/>
+      <c r="O82" s="246"/>
     </row>
     <row r="83" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="234" t="s">
+      <c r="A83" s="211" t="s">
         <v>297</v>
       </c>
       <c r="B83" s="146" t="s">
@@ -6593,11 +6593,11 @@
       <c r="K83" s="95"/>
       <c r="L83" s="95"/>
       <c r="M83" s="94"/>
-      <c r="N83" s="209"/>
+      <c r="N83" s="244"/>
       <c r="O83" s="168"/>
     </row>
     <row r="84" spans="1:15" s="72" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="234"/>
+      <c r="A84" s="211"/>
       <c r="B84" s="96" t="s">
         <v>126</v>
       </c>
@@ -6612,11 +6612,11 @@
       <c r="K84" s="20"/>
       <c r="L84" s="107"/>
       <c r="M84" s="86"/>
-      <c r="N84" s="210"/>
+      <c r="N84" s="245"/>
       <c r="O84" s="169"/>
     </row>
     <row r="85" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="234"/>
+      <c r="A85" s="211"/>
       <c r="B85" s="100" t="s">
         <v>127</v>
       </c>
@@ -6631,11 +6631,11 @@
       <c r="K85" s="21"/>
       <c r="L85" s="88"/>
       <c r="M85" s="86"/>
-      <c r="N85" s="210"/>
+      <c r="N85" s="245"/>
       <c r="O85" s="169"/>
     </row>
     <row r="86" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="234"/>
+      <c r="A86" s="211"/>
       <c r="B86" s="100" t="s">
         <v>128</v>
       </c>
@@ -6650,11 +6650,11 @@
       <c r="K86" s="21"/>
       <c r="L86" s="107"/>
       <c r="M86" s="86"/>
-      <c r="N86" s="210"/>
+      <c r="N86" s="245"/>
       <c r="O86" s="169"/>
     </row>
     <row r="87" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="234"/>
+      <c r="A87" s="211"/>
       <c r="B87" s="100" t="s">
         <v>118</v>
       </c>
@@ -6669,11 +6669,11 @@
       <c r="K87" s="21"/>
       <c r="L87" s="88"/>
       <c r="M87" s="86"/>
-      <c r="N87" s="210"/>
+      <c r="N87" s="245"/>
       <c r="O87" s="169"/>
     </row>
     <row r="88" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="234"/>
+      <c r="A88" s="211"/>
       <c r="B88" s="44" t="s">
         <v>101</v>
       </c>
@@ -6688,11 +6688,11 @@
       <c r="K88" s="102"/>
       <c r="L88" s="102"/>
       <c r="M88" s="101"/>
-      <c r="N88" s="210"/>
+      <c r="N88" s="245"/>
       <c r="O88" s="169"/>
     </row>
     <row r="89" spans="1:15" s="72" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="234"/>
+      <c r="A89" s="211"/>
       <c r="B89" s="96" t="s">
         <v>129</v>
       </c>
@@ -6707,11 +6707,11 @@
       <c r="K89" s="21"/>
       <c r="L89" s="88"/>
       <c r="M89" s="86"/>
-      <c r="N89" s="210"/>
+      <c r="N89" s="245"/>
       <c r="O89" s="169"/>
     </row>
     <row r="90" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="234"/>
+      <c r="A90" s="211"/>
       <c r="B90" s="96" t="s">
         <v>130</v>
       </c>
@@ -6726,11 +6726,11 @@
       <c r="K90" s="21"/>
       <c r="L90" s="88"/>
       <c r="M90" s="86"/>
-      <c r="N90" s="210"/>
+      <c r="N90" s="245"/>
       <c r="O90" s="169"/>
     </row>
     <row r="91" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="234"/>
+      <c r="A91" s="211"/>
       <c r="B91" s="100" t="s">
         <v>131</v>
       </c>
@@ -6745,11 +6745,11 @@
       <c r="K91" s="21"/>
       <c r="L91" s="88"/>
       <c r="M91" s="86"/>
-      <c r="N91" s="210"/>
+      <c r="N91" s="245"/>
       <c r="O91" s="169"/>
     </row>
     <row r="92" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="235"/>
+      <c r="A92" s="212"/>
       <c r="B92" s="108" t="s">
         <v>118</v>
       </c>
@@ -6764,11 +6764,11 @@
       <c r="K92" s="22"/>
       <c r="L92" s="92"/>
       <c r="M92" s="90"/>
-      <c r="N92" s="211"/>
+      <c r="N92" s="246"/>
       <c r="O92" s="74"/>
     </row>
     <row r="93" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="233" t="s">
+      <c r="A93" s="213" t="s">
         <v>339</v>
       </c>
       <c r="B93" s="146" t="s">
@@ -6785,11 +6785,11 @@
       <c r="K93" s="95"/>
       <c r="L93" s="95"/>
       <c r="M93" s="94"/>
-      <c r="N93" s="209"/>
-      <c r="O93" s="209"/>
+      <c r="N93" s="244"/>
+      <c r="O93" s="244"/>
     </row>
     <row r="94" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="234"/>
+      <c r="A94" s="211"/>
       <c r="B94" s="96" t="s">
         <v>315</v>
       </c>
@@ -6804,11 +6804,11 @@
       <c r="K94" s="23"/>
       <c r="L94" s="109"/>
       <c r="M94" s="97"/>
-      <c r="N94" s="210"/>
-      <c r="O94" s="210"/>
+      <c r="N94" s="245"/>
+      <c r="O94" s="245"/>
     </row>
     <row r="95" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="234"/>
+      <c r="A95" s="211"/>
       <c r="B95" s="100" t="s">
         <v>316</v>
       </c>
@@ -6823,11 +6823,11 @@
       <c r="K95" s="21"/>
       <c r="L95" s="109"/>
       <c r="M95" s="86"/>
-      <c r="N95" s="210"/>
-      <c r="O95" s="210"/>
+      <c r="N95" s="245"/>
+      <c r="O95" s="245"/>
     </row>
     <row r="96" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="234"/>
+      <c r="A96" s="211"/>
       <c r="B96" s="100" t="s">
         <v>167</v>
       </c>
@@ -6842,11 +6842,11 @@
       <c r="K96" s="21"/>
       <c r="L96" s="109"/>
       <c r="M96" s="86"/>
-      <c r="N96" s="210"/>
-      <c r="O96" s="210"/>
+      <c r="N96" s="245"/>
+      <c r="O96" s="245"/>
     </row>
     <row r="97" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="234"/>
+      <c r="A97" s="211"/>
       <c r="B97" s="100" t="s">
         <v>317</v>
       </c>
@@ -6861,11 +6861,11 @@
       <c r="K97" s="21"/>
       <c r="L97" s="88"/>
       <c r="M97" s="86"/>
-      <c r="N97" s="210"/>
-      <c r="O97" s="210"/>
+      <c r="N97" s="245"/>
+      <c r="O97" s="245"/>
     </row>
     <row r="98" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="234"/>
+      <c r="A98" s="211"/>
       <c r="B98" s="100" t="s">
         <v>118</v>
       </c>
@@ -6880,11 +6880,11 @@
       <c r="K98" s="22"/>
       <c r="L98" s="88"/>
       <c r="M98" s="86"/>
-      <c r="N98" s="210"/>
-      <c r="O98" s="210"/>
+      <c r="N98" s="245"/>
+      <c r="O98" s="245"/>
     </row>
     <row r="99" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="234"/>
+      <c r="A99" s="211"/>
       <c r="B99" s="44" t="s">
         <v>101</v>
       </c>
@@ -6899,11 +6899,11 @@
       <c r="K99" s="102"/>
       <c r="L99" s="102"/>
       <c r="M99" s="101"/>
-      <c r="N99" s="210"/>
-      <c r="O99" s="210"/>
+      <c r="N99" s="245"/>
+      <c r="O99" s="245"/>
     </row>
     <row r="100" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="234"/>
+      <c r="A100" s="211"/>
       <c r="B100" s="96" t="s">
         <v>318</v>
       </c>
@@ -6918,11 +6918,11 @@
       <c r="K100" s="20"/>
       <c r="L100" s="88"/>
       <c r="M100" s="86"/>
-      <c r="N100" s="210"/>
-      <c r="O100" s="210"/>
+      <c r="N100" s="245"/>
+      <c r="O100" s="245"/>
     </row>
     <row r="101" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="235"/>
+      <c r="A101" s="212"/>
       <c r="B101" s="108" t="s">
         <v>118</v>
       </c>
@@ -6937,11 +6937,11 @@
       <c r="K101" s="22"/>
       <c r="L101" s="92"/>
       <c r="M101" s="90"/>
-      <c r="N101" s="211"/>
-      <c r="O101" s="211"/>
+      <c r="N101" s="246"/>
+      <c r="O101" s="246"/>
     </row>
     <row r="102" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="233" t="s">
+      <c r="A102" s="213" t="s">
         <v>319</v>
       </c>
       <c r="B102" s="44" t="s">
@@ -6958,11 +6958,11 @@
       <c r="K102" s="102"/>
       <c r="L102" s="102"/>
       <c r="M102" s="101"/>
-      <c r="N102" s="209"/>
-      <c r="O102" s="209"/>
+      <c r="N102" s="244"/>
+      <c r="O102" s="244"/>
     </row>
     <row r="103" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="234"/>
+      <c r="A103" s="211"/>
       <c r="B103" s="96" t="s">
         <v>168</v>
       </c>
@@ -6977,11 +6977,11 @@
       <c r="K103" s="20"/>
       <c r="L103" s="98"/>
       <c r="M103" s="97"/>
-      <c r="N103" s="210"/>
-      <c r="O103" s="210"/>
+      <c r="N103" s="245"/>
+      <c r="O103" s="245"/>
     </row>
     <row r="104" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="234"/>
+      <c r="A104" s="211"/>
       <c r="B104" s="100" t="s">
         <v>169</v>
       </c>
@@ -6996,11 +6996,11 @@
       <c r="K104" s="22"/>
       <c r="L104" s="88"/>
       <c r="M104" s="86"/>
-      <c r="N104" s="210"/>
-      <c r="O104" s="210"/>
+      <c r="N104" s="245"/>
+      <c r="O104" s="245"/>
     </row>
     <row r="105" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="234"/>
+      <c r="A105" s="211"/>
       <c r="B105" s="44" t="s">
         <v>101</v>
       </c>
@@ -7015,11 +7015,11 @@
       <c r="K105" s="102"/>
       <c r="L105" s="102"/>
       <c r="M105" s="101"/>
-      <c r="N105" s="210"/>
-      <c r="O105" s="210"/>
+      <c r="N105" s="245"/>
+      <c r="O105" s="245"/>
     </row>
     <row r="106" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="234"/>
+      <c r="A106" s="211"/>
       <c r="B106" s="96" t="s">
         <v>170</v>
       </c>
@@ -7034,11 +7034,11 @@
       <c r="K106" s="20"/>
       <c r="L106" s="88"/>
       <c r="M106" s="86"/>
-      <c r="N106" s="210"/>
-      <c r="O106" s="210"/>
+      <c r="N106" s="245"/>
+      <c r="O106" s="245"/>
     </row>
     <row r="107" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="235"/>
+      <c r="A107" s="212"/>
       <c r="B107" s="108" t="s">
         <v>118</v>
       </c>
@@ -7053,11 +7053,11 @@
       <c r="K107" s="22"/>
       <c r="L107" s="92"/>
       <c r="M107" s="90"/>
-      <c r="N107" s="211"/>
-      <c r="O107" s="211"/>
+      <c r="N107" s="246"/>
+      <c r="O107" s="246"/>
     </row>
     <row r="108" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="221" t="s">
+      <c r="A108" s="216" t="s">
         <v>171</v>
       </c>
       <c r="B108" s="44" t="s">
@@ -7074,11 +7074,11 @@
       <c r="K108" s="102"/>
       <c r="L108" s="102"/>
       <c r="M108" s="101"/>
-      <c r="N108" s="209"/>
-      <c r="O108" s="209"/>
+      <c r="N108" s="244"/>
+      <c r="O108" s="244"/>
     </row>
     <row r="109" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="222"/>
+      <c r="A109" s="217"/>
       <c r="B109" s="96" t="s">
         <v>172</v>
       </c>
@@ -7093,11 +7093,11 @@
       <c r="K109" s="20"/>
       <c r="L109" s="98"/>
       <c r="M109" s="97"/>
-      <c r="N109" s="210"/>
-      <c r="O109" s="210"/>
+      <c r="N109" s="245"/>
+      <c r="O109" s="245"/>
     </row>
     <row r="110" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="222"/>
+      <c r="A110" s="217"/>
       <c r="B110" s="100" t="s">
         <v>173</v>
       </c>
@@ -7112,11 +7112,11 @@
       <c r="K110" s="21"/>
       <c r="L110" s="88"/>
       <c r="M110" s="86"/>
-      <c r="N110" s="210"/>
-      <c r="O110" s="210"/>
+      <c r="N110" s="245"/>
+      <c r="O110" s="245"/>
     </row>
     <row r="111" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="222"/>
+      <c r="A111" s="217"/>
       <c r="B111" s="100" t="s">
         <v>174</v>
       </c>
@@ -7131,11 +7131,11 @@
       <c r="K111" s="21"/>
       <c r="L111" s="88"/>
       <c r="M111" s="86"/>
-      <c r="N111" s="210"/>
-      <c r="O111" s="210"/>
+      <c r="N111" s="245"/>
+      <c r="O111" s="245"/>
     </row>
     <row r="112" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="222"/>
+      <c r="A112" s="217"/>
       <c r="B112" s="100" t="s">
         <v>118</v>
       </c>
@@ -7150,11 +7150,11 @@
       <c r="K112" s="22"/>
       <c r="L112" s="88"/>
       <c r="M112" s="86"/>
-      <c r="N112" s="210"/>
-      <c r="O112" s="210"/>
+      <c r="N112" s="245"/>
+      <c r="O112" s="245"/>
     </row>
     <row r="113" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="222"/>
+      <c r="A113" s="217"/>
       <c r="B113" s="44" t="s">
         <v>101</v>
       </c>
@@ -7169,11 +7169,11 @@
       <c r="K113" s="102"/>
       <c r="L113" s="102"/>
       <c r="M113" s="101"/>
-      <c r="N113" s="210"/>
-      <c r="O113" s="210"/>
+      <c r="N113" s="245"/>
+      <c r="O113" s="245"/>
     </row>
     <row r="114" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="222"/>
+      <c r="A114" s="217"/>
       <c r="B114" s="96" t="s">
         <v>175</v>
       </c>
@@ -7188,11 +7188,11 @@
       <c r="K114" s="20"/>
       <c r="L114" s="88"/>
       <c r="M114" s="86"/>
-      <c r="N114" s="210"/>
-      <c r="O114" s="210"/>
+      <c r="N114" s="245"/>
+      <c r="O114" s="245"/>
     </row>
     <row r="115" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="223"/>
+      <c r="A115" s="218"/>
       <c r="B115" s="108" t="s">
         <v>176</v>
       </c>
@@ -7207,11 +7207,11 @@
       <c r="K115" s="22"/>
       <c r="L115" s="92"/>
       <c r="M115" s="90"/>
-      <c r="N115" s="211"/>
-      <c r="O115" s="211"/>
+      <c r="N115" s="246"/>
+      <c r="O115" s="246"/>
     </row>
     <row r="116" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="233" t="s">
+      <c r="A116" s="213" t="s">
         <v>177</v>
       </c>
       <c r="B116" s="44" t="s">
@@ -7228,11 +7228,11 @@
       <c r="K116" s="102"/>
       <c r="L116" s="102"/>
       <c r="M116" s="101"/>
-      <c r="N116" s="209"/>
-      <c r="O116" s="209"/>
+      <c r="N116" s="244"/>
+      <c r="O116" s="244"/>
     </row>
     <row r="117" spans="1:15" s="72" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="234"/>
+      <c r="A117" s="211"/>
       <c r="B117" s="96" t="s">
         <v>178</v>
       </c>
@@ -7247,11 +7247,11 @@
       <c r="K117" s="20"/>
       <c r="L117" s="88"/>
       <c r="M117" s="86"/>
-      <c r="N117" s="210"/>
-      <c r="O117" s="210"/>
+      <c r="N117" s="245"/>
+      <c r="O117" s="245"/>
     </row>
     <row r="118" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="234"/>
+      <c r="A118" s="211"/>
       <c r="B118" s="100" t="s">
         <v>118</v>
       </c>
@@ -7266,11 +7266,11 @@
       <c r="K118" s="22"/>
       <c r="L118" s="88"/>
       <c r="M118" s="86"/>
-      <c r="N118" s="210"/>
-      <c r="O118" s="210"/>
+      <c r="N118" s="245"/>
+      <c r="O118" s="245"/>
     </row>
     <row r="119" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="234"/>
+      <c r="A119" s="211"/>
       <c r="B119" s="44" t="s">
         <v>101</v>
       </c>
@@ -7285,11 +7285,11 @@
       <c r="K119" s="102"/>
       <c r="L119" s="102"/>
       <c r="M119" s="101"/>
-      <c r="N119" s="210"/>
-      <c r="O119" s="210"/>
+      <c r="N119" s="245"/>
+      <c r="O119" s="245"/>
     </row>
     <row r="120" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="234"/>
+      <c r="A120" s="211"/>
       <c r="B120" s="96" t="s">
         <v>179</v>
       </c>
@@ -7304,11 +7304,11 @@
       <c r="K120" s="20"/>
       <c r="L120" s="88"/>
       <c r="M120" s="86"/>
-      <c r="N120" s="210"/>
-      <c r="O120" s="210"/>
+      <c r="N120" s="245"/>
+      <c r="O120" s="245"/>
     </row>
     <row r="121" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="235"/>
+      <c r="A121" s="212"/>
       <c r="B121" s="108" t="s">
         <v>180</v>
       </c>
@@ -7323,11 +7323,11 @@
       <c r="K121" s="22"/>
       <c r="L121" s="92"/>
       <c r="M121" s="90"/>
-      <c r="N121" s="211"/>
-      <c r="O121" s="211"/>
+      <c r="N121" s="246"/>
+      <c r="O121" s="246"/>
     </row>
     <row r="122" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="233" t="s">
+      <c r="A122" s="213" t="s">
         <v>181</v>
       </c>
       <c r="B122" s="146" t="s">
@@ -7344,11 +7344,11 @@
       <c r="K122" s="95"/>
       <c r="L122" s="95"/>
       <c r="M122" s="101"/>
-      <c r="N122" s="209"/>
-      <c r="O122" s="209"/>
+      <c r="N122" s="244"/>
+      <c r="O122" s="244"/>
     </row>
     <row r="123" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="234"/>
+      <c r="A123" s="211"/>
       <c r="B123" s="96" t="s">
         <v>182</v>
       </c>
@@ -7363,11 +7363,11 @@
       <c r="K123" s="20"/>
       <c r="L123" s="88"/>
       <c r="M123" s="86"/>
-      <c r="N123" s="210"/>
-      <c r="O123" s="210"/>
+      <c r="N123" s="245"/>
+      <c r="O123" s="245"/>
     </row>
     <row r="124" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="234"/>
+      <c r="A124" s="211"/>
       <c r="B124" s="100" t="s">
         <v>313</v>
       </c>
@@ -7382,11 +7382,11 @@
       <c r="K124" s="21"/>
       <c r="L124" s="88"/>
       <c r="M124" s="86"/>
-      <c r="N124" s="210"/>
-      <c r="O124" s="210"/>
+      <c r="N124" s="245"/>
+      <c r="O124" s="245"/>
     </row>
     <row r="125" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="234"/>
+      <c r="A125" s="211"/>
       <c r="B125" s="100" t="s">
         <v>183</v>
       </c>
@@ -7401,11 +7401,11 @@
       <c r="K125" s="21"/>
       <c r="L125" s="88"/>
       <c r="M125" s="86"/>
-      <c r="N125" s="210"/>
-      <c r="O125" s="210"/>
+      <c r="N125" s="245"/>
+      <c r="O125" s="245"/>
     </row>
     <row r="126" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="234"/>
+      <c r="A126" s="211"/>
       <c r="B126" s="100" t="s">
         <v>184</v>
       </c>
@@ -7420,11 +7420,11 @@
       <c r="K126" s="21"/>
       <c r="L126" s="88"/>
       <c r="M126" s="86"/>
-      <c r="N126" s="210"/>
-      <c r="O126" s="210"/>
+      <c r="N126" s="245"/>
+      <c r="O126" s="245"/>
     </row>
     <row r="127" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="234"/>
+      <c r="A127" s="211"/>
       <c r="B127" s="100" t="s">
         <v>185</v>
       </c>
@@ -7439,11 +7439,11 @@
       <c r="K127" s="21"/>
       <c r="L127" s="88"/>
       <c r="M127" s="86"/>
-      <c r="N127" s="210"/>
-      <c r="O127" s="210"/>
+      <c r="N127" s="245"/>
+      <c r="O127" s="245"/>
     </row>
     <row r="128" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="234"/>
+      <c r="A128" s="211"/>
       <c r="B128" s="100" t="s">
         <v>118</v>
       </c>
@@ -7458,11 +7458,11 @@
       <c r="K128" s="22"/>
       <c r="L128" s="88"/>
       <c r="M128" s="86"/>
-      <c r="N128" s="210"/>
-      <c r="O128" s="210"/>
+      <c r="N128" s="245"/>
+      <c r="O128" s="245"/>
     </row>
     <row r="129" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="234"/>
+      <c r="A129" s="211"/>
       <c r="B129" s="44" t="s">
         <v>101</v>
       </c>
@@ -7477,11 +7477,11 @@
       <c r="K129" s="102"/>
       <c r="L129" s="102"/>
       <c r="M129" s="101"/>
-      <c r="N129" s="210"/>
-      <c r="O129" s="210"/>
+      <c r="N129" s="245"/>
+      <c r="O129" s="245"/>
     </row>
     <row r="130" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="234"/>
+      <c r="A130" s="211"/>
       <c r="B130" s="96" t="s">
         <v>186</v>
       </c>
@@ -7496,11 +7496,11 @@
       <c r="K130" s="20"/>
       <c r="L130" s="88"/>
       <c r="M130" s="86"/>
-      <c r="N130" s="210"/>
-      <c r="O130" s="210"/>
+      <c r="N130" s="245"/>
+      <c r="O130" s="245"/>
     </row>
     <row r="131" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="234"/>
+      <c r="A131" s="211"/>
       <c r="B131" s="100" t="s">
         <v>187</v>
       </c>
@@ -7515,11 +7515,11 @@
       <c r="K131" s="21"/>
       <c r="L131" s="88"/>
       <c r="M131" s="86"/>
-      <c r="N131" s="210"/>
-      <c r="O131" s="210"/>
+      <c r="N131" s="245"/>
+      <c r="O131" s="245"/>
     </row>
     <row r="132" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="235"/>
+      <c r="A132" s="212"/>
       <c r="B132" s="108" t="s">
         <v>180</v>
       </c>
@@ -7534,11 +7534,11 @@
       <c r="K132" s="22"/>
       <c r="L132" s="92"/>
       <c r="M132" s="90"/>
-      <c r="N132" s="211"/>
-      <c r="O132" s="211"/>
+      <c r="N132" s="246"/>
+      <c r="O132" s="246"/>
     </row>
     <row r="133" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="233" t="s">
+      <c r="A133" s="213" t="s">
         <v>188</v>
       </c>
       <c r="B133" s="146" t="s">
@@ -7555,11 +7555,11 @@
       <c r="K133" s="95"/>
       <c r="L133" s="95"/>
       <c r="M133" s="94"/>
-      <c r="N133" s="209"/>
-      <c r="O133" s="209"/>
+      <c r="N133" s="244"/>
+      <c r="O133" s="244"/>
     </row>
     <row r="134" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="234"/>
+      <c r="A134" s="211"/>
       <c r="B134" s="100" t="s">
         <v>189</v>
       </c>
@@ -7574,11 +7574,11 @@
       <c r="K134" s="20"/>
       <c r="L134" s="107"/>
       <c r="M134" s="86"/>
-      <c r="N134" s="210"/>
-      <c r="O134" s="210"/>
+      <c r="N134" s="245"/>
+      <c r="O134" s="245"/>
     </row>
     <row r="135" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="234"/>
+      <c r="A135" s="211"/>
       <c r="B135" s="100" t="s">
         <v>190</v>
       </c>
@@ -7593,11 +7593,11 @@
       <c r="K135" s="21"/>
       <c r="L135" s="88"/>
       <c r="M135" s="86"/>
-      <c r="N135" s="210"/>
-      <c r="O135" s="210"/>
+      <c r="N135" s="245"/>
+      <c r="O135" s="245"/>
     </row>
     <row r="136" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="234"/>
+      <c r="A136" s="211"/>
       <c r="B136" s="100" t="s">
         <v>191</v>
       </c>
@@ -7612,11 +7612,11 @@
       <c r="K136" s="21"/>
       <c r="L136" s="88"/>
       <c r="M136" s="86"/>
-      <c r="N136" s="210"/>
-      <c r="O136" s="210"/>
+      <c r="N136" s="245"/>
+      <c r="O136" s="245"/>
     </row>
     <row r="137" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="234"/>
+      <c r="A137" s="211"/>
       <c r="B137" s="100" t="s">
         <v>118</v>
       </c>
@@ -7631,11 +7631,11 @@
       <c r="K137" s="22"/>
       <c r="L137" s="88"/>
       <c r="M137" s="86"/>
-      <c r="N137" s="210"/>
-      <c r="O137" s="210"/>
+      <c r="N137" s="245"/>
+      <c r="O137" s="245"/>
     </row>
     <row r="138" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="234"/>
+      <c r="A138" s="211"/>
       <c r="B138" s="44" t="s">
         <v>101</v>
       </c>
@@ -7650,11 +7650,11 @@
       <c r="K138" s="102"/>
       <c r="L138" s="102"/>
       <c r="M138" s="101"/>
-      <c r="N138" s="210"/>
-      <c r="O138" s="210"/>
+      <c r="N138" s="245"/>
+      <c r="O138" s="245"/>
     </row>
     <row r="139" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="234"/>
+      <c r="A139" s="211"/>
       <c r="B139" s="96" t="s">
         <v>192</v>
       </c>
@@ -7669,11 +7669,11 @@
       <c r="K139" s="20"/>
       <c r="L139" s="88"/>
       <c r="M139" s="86"/>
-      <c r="N139" s="210"/>
-      <c r="O139" s="210"/>
+      <c r="N139" s="245"/>
+      <c r="O139" s="245"/>
     </row>
     <row r="140" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="235"/>
+      <c r="A140" s="212"/>
       <c r="B140" s="108" t="s">
         <v>118</v>
       </c>
@@ -7688,11 +7688,11 @@
       <c r="K140" s="22"/>
       <c r="L140" s="92"/>
       <c r="M140" s="90"/>
-      <c r="N140" s="211"/>
-      <c r="O140" s="211"/>
+      <c r="N140" s="246"/>
+      <c r="O140" s="246"/>
     </row>
     <row r="141" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="233" t="s">
+      <c r="A141" s="213" t="s">
         <v>201</v>
       </c>
       <c r="B141" s="111" t="s">
@@ -7709,11 +7709,11 @@
       <c r="K141" s="29"/>
       <c r="L141" s="102"/>
       <c r="M141" s="101"/>
-      <c r="N141" s="209"/>
-      <c r="O141" s="209"/>
+      <c r="N141" s="244"/>
+      <c r="O141" s="244"/>
     </row>
     <row r="142" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="234"/>
+      <c r="A142" s="211"/>
       <c r="B142" s="112" t="s">
         <v>202</v>
       </c>
@@ -7728,11 +7728,11 @@
       <c r="K142" s="20"/>
       <c r="L142" s="107"/>
       <c r="M142" s="154"/>
-      <c r="N142" s="210"/>
-      <c r="O142" s="210"/>
+      <c r="N142" s="245"/>
+      <c r="O142" s="245"/>
     </row>
     <row r="143" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="234"/>
+      <c r="A143" s="211"/>
       <c r="B143" s="113" t="s">
         <v>203</v>
       </c>
@@ -7747,11 +7747,11 @@
       <c r="K143" s="21"/>
       <c r="L143" s="88"/>
       <c r="M143" s="155"/>
-      <c r="N143" s="210"/>
-      <c r="O143" s="210"/>
+      <c r="N143" s="245"/>
+      <c r="O143" s="245"/>
     </row>
     <row r="144" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="234"/>
+      <c r="A144" s="211"/>
       <c r="B144" s="114" t="s">
         <v>204</v>
       </c>
@@ -7766,11 +7766,11 @@
       <c r="K144" s="21"/>
       <c r="L144" s="88"/>
       <c r="M144" s="155"/>
-      <c r="N144" s="210"/>
-      <c r="O144" s="210"/>
+      <c r="N144" s="245"/>
+      <c r="O144" s="245"/>
     </row>
     <row r="145" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="234"/>
+      <c r="A145" s="211"/>
       <c r="B145" s="116" t="s">
         <v>205</v>
       </c>
@@ -7785,11 +7785,11 @@
       <c r="K145" s="24"/>
       <c r="L145" s="105"/>
       <c r="M145" s="156"/>
-      <c r="N145" s="210"/>
-      <c r="O145" s="210"/>
+      <c r="N145" s="245"/>
+      <c r="O145" s="245"/>
     </row>
     <row r="146" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="234"/>
+      <c r="A146" s="211"/>
       <c r="B146" s="116" t="s">
         <v>206</v>
       </c>
@@ -7804,11 +7804,11 @@
       <c r="K146" s="24"/>
       <c r="L146" s="105"/>
       <c r="M146" s="156"/>
-      <c r="N146" s="210"/>
-      <c r="O146" s="210"/>
+      <c r="N146" s="245"/>
+      <c r="O146" s="245"/>
     </row>
     <row r="147" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="234"/>
+      <c r="A147" s="211"/>
       <c r="B147" s="119" t="s">
         <v>118</v>
       </c>
@@ -7823,11 +7823,11 @@
       <c r="K147" s="22"/>
       <c r="L147" s="92"/>
       <c r="M147" s="156"/>
-      <c r="N147" s="210"/>
-      <c r="O147" s="210"/>
+      <c r="N147" s="245"/>
+      <c r="O147" s="245"/>
     </row>
     <row r="148" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="234"/>
+      <c r="A148" s="211"/>
       <c r="B148" s="120" t="s">
         <v>101</v>
       </c>
@@ -7842,11 +7842,11 @@
       <c r="K148" s="29"/>
       <c r="L148" s="102"/>
       <c r="M148" s="101"/>
-      <c r="N148" s="210"/>
-      <c r="O148" s="210"/>
+      <c r="N148" s="245"/>
+      <c r="O148" s="245"/>
     </row>
     <row r="149" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="234"/>
+      <c r="A149" s="211"/>
       <c r="B149" s="112" t="s">
         <v>207</v>
       </c>
@@ -7861,11 +7861,11 @@
       <c r="K149" s="25"/>
       <c r="L149" s="77"/>
       <c r="M149" s="154"/>
-      <c r="N149" s="210"/>
-      <c r="O149" s="210"/>
+      <c r="N149" s="245"/>
+      <c r="O149" s="245"/>
     </row>
     <row r="150" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="234"/>
+      <c r="A150" s="211"/>
       <c r="B150" s="100" t="s">
         <v>208</v>
       </c>
@@ -7880,11 +7880,11 @@
       <c r="K150" s="26"/>
       <c r="L150" s="88"/>
       <c r="M150" s="155"/>
-      <c r="N150" s="210"/>
-      <c r="O150" s="210"/>
+      <c r="N150" s="245"/>
+      <c r="O150" s="245"/>
     </row>
     <row r="151" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="234"/>
+      <c r="A151" s="211"/>
       <c r="B151" s="116" t="s">
         <v>209</v>
       </c>
@@ -7899,11 +7899,11 @@
       <c r="K151" s="21"/>
       <c r="L151" s="122"/>
       <c r="M151" s="86"/>
-      <c r="N151" s="210"/>
-      <c r="O151" s="210"/>
+      <c r="N151" s="245"/>
+      <c r="O151" s="245"/>
     </row>
     <row r="152" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="235"/>
+      <c r="A152" s="212"/>
       <c r="B152" s="123" t="s">
         <v>118</v>
       </c>
@@ -7918,11 +7918,11 @@
       <c r="K152" s="27"/>
       <c r="L152" s="92"/>
       <c r="M152" s="94"/>
-      <c r="N152" s="211"/>
-      <c r="O152" s="211"/>
+      <c r="N152" s="246"/>
+      <c r="O152" s="246"/>
     </row>
     <row r="153" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="233" t="s">
+      <c r="A153" s="213" t="s">
         <v>210</v>
       </c>
       <c r="B153" s="44" t="s">
@@ -7939,11 +7939,11 @@
       <c r="K153" s="102"/>
       <c r="L153" s="102"/>
       <c r="M153" s="101"/>
-      <c r="N153" s="209"/>
-      <c r="O153" s="209"/>
+      <c r="N153" s="244"/>
+      <c r="O153" s="244"/>
     </row>
     <row r="154" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="234"/>
+      <c r="A154" s="211"/>
       <c r="B154" s="96" t="s">
         <v>212</v>
       </c>
@@ -7958,11 +7958,11 @@
       <c r="K154" s="20"/>
       <c r="L154" s="88"/>
       <c r="M154" s="86"/>
-      <c r="N154" s="210"/>
-      <c r="O154" s="210"/>
+      <c r="N154" s="245"/>
+      <c r="O154" s="245"/>
     </row>
     <row r="155" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="234"/>
+      <c r="A155" s="211"/>
       <c r="B155" s="96" t="s">
         <v>213</v>
       </c>
@@ -7977,11 +7977,11 @@
       <c r="K155" s="25"/>
       <c r="L155" s="88"/>
       <c r="M155" s="86"/>
-      <c r="N155" s="210"/>
-      <c r="O155" s="210"/>
+      <c r="N155" s="245"/>
+      <c r="O155" s="245"/>
     </row>
     <row r="156" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="234"/>
+      <c r="A156" s="211"/>
       <c r="B156" s="100" t="s">
         <v>214</v>
       </c>
@@ -7996,11 +7996,11 @@
       <c r="K156" s="21"/>
       <c r="L156" s="88"/>
       <c r="M156" s="86"/>
-      <c r="N156" s="210"/>
-      <c r="O156" s="210"/>
+      <c r="N156" s="245"/>
+      <c r="O156" s="245"/>
     </row>
     <row r="157" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="234"/>
+      <c r="A157" s="211"/>
       <c r="B157" s="100" t="s">
         <v>215</v>
       </c>
@@ -8015,11 +8015,11 @@
       <c r="K157" s="21"/>
       <c r="L157" s="88"/>
       <c r="M157" s="86"/>
-      <c r="N157" s="210"/>
-      <c r="O157" s="210"/>
+      <c r="N157" s="245"/>
+      <c r="O157" s="245"/>
     </row>
     <row r="158" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="234"/>
+      <c r="A158" s="211"/>
       <c r="B158" s="100" t="s">
         <v>216</v>
       </c>
@@ -8034,11 +8034,11 @@
       <c r="K158" s="21"/>
       <c r="L158" s="88"/>
       <c r="M158" s="86"/>
-      <c r="N158" s="210"/>
-      <c r="O158" s="210"/>
+      <c r="N158" s="245"/>
+      <c r="O158" s="245"/>
     </row>
     <row r="159" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="234"/>
+      <c r="A159" s="211"/>
       <c r="B159" s="100" t="s">
         <v>217</v>
       </c>
@@ -8053,11 +8053,11 @@
       <c r="K159" s="21"/>
       <c r="L159" s="88"/>
       <c r="M159" s="86"/>
-      <c r="N159" s="210"/>
-      <c r="O159" s="210"/>
+      <c r="N159" s="245"/>
+      <c r="O159" s="245"/>
     </row>
     <row r="160" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="234"/>
+      <c r="A160" s="211"/>
       <c r="B160" s="100" t="s">
         <v>118</v>
       </c>
@@ -8072,11 +8072,11 @@
       <c r="K160" s="22"/>
       <c r="L160" s="88"/>
       <c r="M160" s="86"/>
-      <c r="N160" s="210"/>
-      <c r="O160" s="210"/>
+      <c r="N160" s="245"/>
+      <c r="O160" s="245"/>
     </row>
     <row r="161" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="234"/>
+      <c r="A161" s="211"/>
       <c r="B161" s="44" t="s">
         <v>101</v>
       </c>
@@ -8091,11 +8091,11 @@
       <c r="K161" s="102"/>
       <c r="L161" s="102"/>
       <c r="M161" s="101"/>
-      <c r="N161" s="210"/>
-      <c r="O161" s="210"/>
+      <c r="N161" s="245"/>
+      <c r="O161" s="245"/>
     </row>
     <row r="162" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="234"/>
+      <c r="A162" s="211"/>
       <c r="B162" s="96" t="s">
         <v>218</v>
       </c>
@@ -8110,11 +8110,11 @@
       <c r="K162" s="20"/>
       <c r="L162" s="88"/>
       <c r="M162" s="86"/>
-      <c r="N162" s="210"/>
-      <c r="O162" s="210"/>
+      <c r="N162" s="245"/>
+      <c r="O162" s="245"/>
     </row>
     <row r="163" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="235"/>
+      <c r="A163" s="212"/>
       <c r="B163" s="158" t="s">
         <v>118</v>
       </c>
@@ -8129,11 +8129,11 @@
       <c r="K163" s="22"/>
       <c r="L163" s="92"/>
       <c r="M163" s="90"/>
-      <c r="N163" s="211"/>
-      <c r="O163" s="211"/>
+      <c r="N163" s="246"/>
+      <c r="O163" s="246"/>
     </row>
     <row r="164" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="233" t="s">
+      <c r="A164" s="213" t="s">
         <v>303</v>
       </c>
       <c r="B164" s="146" t="s">
@@ -8150,11 +8150,11 @@
       <c r="K164" s="95"/>
       <c r="L164" s="95"/>
       <c r="M164" s="94"/>
-      <c r="N164" s="209"/>
-      <c r="O164" s="209"/>
+      <c r="N164" s="244"/>
+      <c r="O164" s="244"/>
     </row>
     <row r="165" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="234"/>
+      <c r="A165" s="211"/>
       <c r="B165" s="100" t="s">
         <v>193</v>
       </c>
@@ -8169,11 +8169,11 @@
       <c r="K165" s="20"/>
       <c r="L165" s="88"/>
       <c r="M165" s="86"/>
-      <c r="N165" s="210"/>
-      <c r="O165" s="210"/>
+      <c r="N165" s="245"/>
+      <c r="O165" s="245"/>
     </row>
     <row r="166" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="234"/>
+      <c r="A166" s="211"/>
       <c r="B166" s="100" t="s">
         <v>194</v>
       </c>
@@ -8188,11 +8188,11 @@
       <c r="K166" s="21"/>
       <c r="L166" s="88"/>
       <c r="M166" s="86"/>
-      <c r="N166" s="210"/>
-      <c r="O166" s="210"/>
+      <c r="N166" s="245"/>
+      <c r="O166" s="245"/>
     </row>
     <row r="167" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="234"/>
+      <c r="A167" s="211"/>
       <c r="B167" s="100" t="s">
         <v>195</v>
       </c>
@@ -8207,11 +8207,11 @@
       <c r="K167" s="21"/>
       <c r="L167" s="88"/>
       <c r="M167" s="86"/>
-      <c r="N167" s="210"/>
-      <c r="O167" s="210"/>
+      <c r="N167" s="245"/>
+      <c r="O167" s="245"/>
     </row>
     <row r="168" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="234"/>
+      <c r="A168" s="211"/>
       <c r="B168" s="100" t="s">
         <v>118</v>
       </c>
@@ -8226,11 +8226,11 @@
       <c r="K168" s="22"/>
       <c r="L168" s="88"/>
       <c r="M168" s="86"/>
-      <c r="N168" s="210"/>
-      <c r="O168" s="210"/>
+      <c r="N168" s="245"/>
+      <c r="O168" s="245"/>
     </row>
     <row r="169" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="234"/>
+      <c r="A169" s="211"/>
       <c r="B169" s="44" t="s">
         <v>101</v>
       </c>
@@ -8245,11 +8245,11 @@
       <c r="K169" s="102"/>
       <c r="L169" s="102"/>
       <c r="M169" s="101"/>
-      <c r="N169" s="210"/>
-      <c r="O169" s="210"/>
+      <c r="N169" s="245"/>
+      <c r="O169" s="245"/>
     </row>
     <row r="170" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="234"/>
+      <c r="A170" s="211"/>
       <c r="B170" s="96" t="s">
         <v>196</v>
       </c>
@@ -8264,11 +8264,11 @@
       <c r="K170" s="20"/>
       <c r="L170" s="88"/>
       <c r="M170" s="86"/>
-      <c r="N170" s="210"/>
-      <c r="O170" s="210"/>
+      <c r="N170" s="245"/>
+      <c r="O170" s="245"/>
     </row>
     <row r="171" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="234"/>
+      <c r="A171" s="211"/>
       <c r="B171" s="100" t="s">
         <v>197</v>
       </c>
@@ -8283,11 +8283,11 @@
       <c r="K171" s="21"/>
       <c r="L171" s="88"/>
       <c r="M171" s="86"/>
-      <c r="N171" s="210"/>
-      <c r="O171" s="210"/>
+      <c r="N171" s="245"/>
+      <c r="O171" s="245"/>
     </row>
     <row r="172" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="235"/>
+      <c r="A172" s="212"/>
       <c r="B172" s="108" t="s">
         <v>118</v>
       </c>
@@ -8302,11 +8302,11 @@
       <c r="K172" s="22"/>
       <c r="L172" s="92"/>
       <c r="M172" s="90"/>
-      <c r="N172" s="211"/>
-      <c r="O172" s="211"/>
+      <c r="N172" s="246"/>
+      <c r="O172" s="246"/>
     </row>
     <row r="173" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="233" t="s">
+      <c r="A173" s="213" t="s">
         <v>198</v>
       </c>
       <c r="B173" s="44" t="s">
@@ -8323,11 +8323,11 @@
       <c r="K173" s="102"/>
       <c r="L173" s="102"/>
       <c r="M173" s="101"/>
-      <c r="N173" s="209"/>
-      <c r="O173" s="209"/>
+      <c r="N173" s="244"/>
+      <c r="O173" s="244"/>
     </row>
     <row r="174" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="234"/>
+      <c r="A174" s="211"/>
       <c r="B174" s="96" t="s">
         <v>199</v>
       </c>
@@ -8342,11 +8342,11 @@
       <c r="K174" s="20"/>
       <c r="L174" s="109"/>
       <c r="M174" s="97"/>
-      <c r="N174" s="210"/>
-      <c r="O174" s="210"/>
+      <c r="N174" s="245"/>
+      <c r="O174" s="245"/>
     </row>
     <row r="175" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="234"/>
+      <c r="A175" s="211"/>
       <c r="B175" s="100" t="s">
         <v>118</v>
       </c>
@@ -8361,11 +8361,11 @@
       <c r="K175" s="22"/>
       <c r="L175" s="88"/>
       <c r="M175" s="86"/>
-      <c r="N175" s="210"/>
-      <c r="O175" s="210"/>
+      <c r="N175" s="245"/>
+      <c r="O175" s="245"/>
     </row>
     <row r="176" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="234"/>
+      <c r="A176" s="211"/>
       <c r="B176" s="44" t="s">
         <v>101</v>
       </c>
@@ -8380,11 +8380,11 @@
       <c r="K176" s="110"/>
       <c r="L176" s="110"/>
       <c r="M176" s="101"/>
-      <c r="N176" s="210"/>
-      <c r="O176" s="210"/>
+      <c r="N176" s="245"/>
+      <c r="O176" s="245"/>
     </row>
     <row r="177" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="234"/>
+      <c r="A177" s="211"/>
       <c r="B177" s="96" t="s">
         <v>200</v>
       </c>
@@ -8399,11 +8399,11 @@
       <c r="K177" s="20"/>
       <c r="L177" s="88"/>
       <c r="M177" s="86"/>
-      <c r="N177" s="210"/>
-      <c r="O177" s="210"/>
+      <c r="N177" s="245"/>
+      <c r="O177" s="245"/>
     </row>
     <row r="178" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="235"/>
+      <c r="A178" s="212"/>
       <c r="B178" s="108" t="s">
         <v>118</v>
       </c>
@@ -8418,14 +8418,14 @@
       <c r="K178" s="22"/>
       <c r="L178" s="92"/>
       <c r="M178" s="90"/>
-      <c r="N178" s="211"/>
-      <c r="O178" s="211"/>
+      <c r="N178" s="246"/>
+      <c r="O178" s="246"/>
     </row>
     <row r="179" spans="1:15" s="141" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="226" t="s">
+      <c r="A179" s="209" t="s">
         <v>296</v>
       </c>
-      <c r="B179" s="227"/>
+      <c r="B179" s="210"/>
       <c r="C179" s="143"/>
       <c r="D179" s="144"/>
       <c r="E179" s="144"/>
@@ -8441,7 +8441,7 @@
       <c r="O179" s="140"/>
     </row>
     <row r="180" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="234" t="s">
+      <c r="A180" s="211" t="s">
         <v>312</v>
       </c>
       <c r="B180" s="146" t="s">
@@ -8458,11 +8458,11 @@
       <c r="K180" s="95"/>
       <c r="L180" s="95"/>
       <c r="M180" s="94"/>
-      <c r="N180" s="209"/>
-      <c r="O180" s="209"/>
+      <c r="N180" s="244"/>
+      <c r="O180" s="244"/>
     </row>
     <row r="181" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="234"/>
+      <c r="A181" s="211"/>
       <c r="B181" s="100" t="s">
         <v>219</v>
       </c>
@@ -8477,11 +8477,11 @@
       <c r="K181" s="20"/>
       <c r="L181" s="88"/>
       <c r="M181" s="86"/>
-      <c r="N181" s="210"/>
-      <c r="O181" s="210"/>
+      <c r="N181" s="245"/>
+      <c r="O181" s="245"/>
     </row>
     <row r="182" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="234"/>
+      <c r="A182" s="211"/>
       <c r="B182" s="100" t="s">
         <v>220</v>
       </c>
@@ -8496,11 +8496,11 @@
       <c r="K182" s="21"/>
       <c r="L182" s="88"/>
       <c r="M182" s="86"/>
-      <c r="N182" s="210"/>
-      <c r="O182" s="210"/>
+      <c r="N182" s="245"/>
+      <c r="O182" s="245"/>
     </row>
     <row r="183" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="234"/>
+      <c r="A183" s="211"/>
       <c r="B183" s="100" t="s">
         <v>221</v>
       </c>
@@ -8515,11 +8515,11 @@
       <c r="K183" s="21"/>
       <c r="L183" s="88"/>
       <c r="M183" s="86"/>
-      <c r="N183" s="210"/>
-      <c r="O183" s="210"/>
+      <c r="N183" s="245"/>
+      <c r="O183" s="245"/>
     </row>
     <row r="184" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="234"/>
+      <c r="A184" s="211"/>
       <c r="B184" s="100" t="s">
         <v>118</v>
       </c>
@@ -8534,11 +8534,11 @@
       <c r="K184" s="22"/>
       <c r="L184" s="88"/>
       <c r="M184" s="86"/>
-      <c r="N184" s="210"/>
-      <c r="O184" s="210"/>
+      <c r="N184" s="245"/>
+      <c r="O184" s="245"/>
     </row>
     <row r="185" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="234"/>
+      <c r="A185" s="211"/>
       <c r="B185" s="44" t="s">
         <v>101</v>
       </c>
@@ -8553,11 +8553,11 @@
       <c r="K185" s="102"/>
       <c r="L185" s="102"/>
       <c r="M185" s="101"/>
-      <c r="N185" s="210"/>
-      <c r="O185" s="210"/>
+      <c r="N185" s="245"/>
+      <c r="O185" s="245"/>
     </row>
     <row r="186" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="234"/>
+      <c r="A186" s="211"/>
       <c r="B186" s="96" t="s">
         <v>222</v>
       </c>
@@ -8572,11 +8572,11 @@
       <c r="K186" s="20"/>
       <c r="L186" s="88"/>
       <c r="M186" s="86"/>
-      <c r="N186" s="210"/>
-      <c r="O186" s="210"/>
+      <c r="N186" s="245"/>
+      <c r="O186" s="245"/>
     </row>
     <row r="187" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="235"/>
+      <c r="A187" s="212"/>
       <c r="B187" s="108" t="s">
         <v>118</v>
       </c>
@@ -8591,11 +8591,11 @@
       <c r="K187" s="22"/>
       <c r="L187" s="92"/>
       <c r="M187" s="90"/>
-      <c r="N187" s="211"/>
-      <c r="O187" s="211"/>
+      <c r="N187" s="246"/>
+      <c r="O187" s="246"/>
     </row>
     <row r="188" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="233" t="s">
+      <c r="A188" s="213" t="s">
         <v>304</v>
       </c>
       <c r="B188" s="146" t="s">
@@ -8612,11 +8612,11 @@
       <c r="K188" s="95"/>
       <c r="L188" s="95"/>
       <c r="M188" s="94"/>
-      <c r="N188" s="209"/>
-      <c r="O188" s="209"/>
+      <c r="N188" s="244"/>
+      <c r="O188" s="244"/>
     </row>
     <row r="189" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="234"/>
+      <c r="A189" s="211"/>
       <c r="B189" s="100" t="s">
         <v>223</v>
       </c>
@@ -8631,11 +8631,11 @@
       <c r="K189" s="20"/>
       <c r="L189" s="107"/>
       <c r="M189" s="86"/>
-      <c r="N189" s="210"/>
-      <c r="O189" s="210"/>
+      <c r="N189" s="245"/>
+      <c r="O189" s="245"/>
     </row>
     <row r="190" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="234"/>
+      <c r="A190" s="211"/>
       <c r="B190" s="100" t="s">
         <v>224</v>
       </c>
@@ -8650,11 +8650,11 @@
       <c r="K190" s="21"/>
       <c r="L190" s="88"/>
       <c r="M190" s="86"/>
-      <c r="N190" s="210"/>
-      <c r="O190" s="210"/>
+      <c r="N190" s="245"/>
+      <c r="O190" s="245"/>
     </row>
     <row r="191" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="234"/>
+      <c r="A191" s="211"/>
       <c r="B191" s="100" t="s">
         <v>225</v>
       </c>
@@ -8669,11 +8669,11 @@
       <c r="K191" s="21"/>
       <c r="L191" s="88"/>
       <c r="M191" s="86"/>
-      <c r="N191" s="210"/>
-      <c r="O191" s="210"/>
+      <c r="N191" s="245"/>
+      <c r="O191" s="245"/>
     </row>
     <row r="192" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="234"/>
+      <c r="A192" s="211"/>
       <c r="B192" s="100" t="s">
         <v>226</v>
       </c>
@@ -8688,11 +8688,11 @@
       <c r="K192" s="21"/>
       <c r="L192" s="88"/>
       <c r="M192" s="86"/>
-      <c r="N192" s="210"/>
-      <c r="O192" s="210"/>
+      <c r="N192" s="245"/>
+      <c r="O192" s="245"/>
     </row>
     <row r="193" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="234"/>
+      <c r="A193" s="211"/>
       <c r="B193" s="100" t="s">
         <v>118</v>
       </c>
@@ -8707,11 +8707,11 @@
       <c r="K193" s="22"/>
       <c r="L193" s="88"/>
       <c r="M193" s="86"/>
-      <c r="N193" s="210"/>
-      <c r="O193" s="210"/>
+      <c r="N193" s="245"/>
+      <c r="O193" s="245"/>
     </row>
     <row r="194" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="234"/>
+      <c r="A194" s="211"/>
       <c r="B194" s="44" t="s">
         <v>101</v>
       </c>
@@ -8726,11 +8726,11 @@
       <c r="K194" s="102"/>
       <c r="L194" s="102"/>
       <c r="M194" s="101"/>
-      <c r="N194" s="210"/>
-      <c r="O194" s="210"/>
+      <c r="N194" s="245"/>
+      <c r="O194" s="245"/>
     </row>
     <row r="195" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="234"/>
+      <c r="A195" s="211"/>
       <c r="B195" s="96" t="s">
         <v>227</v>
       </c>
@@ -8745,11 +8745,11 @@
       <c r="K195" s="20"/>
       <c r="L195" s="88"/>
       <c r="M195" s="86"/>
-      <c r="N195" s="210"/>
-      <c r="O195" s="210"/>
+      <c r="N195" s="245"/>
+      <c r="O195" s="245"/>
     </row>
     <row r="196" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="234"/>
+      <c r="A196" s="211"/>
       <c r="B196" s="100" t="s">
         <v>228</v>
       </c>
@@ -8764,11 +8764,11 @@
       <c r="K196" s="21"/>
       <c r="L196" s="88"/>
       <c r="M196" s="86"/>
-      <c r="N196" s="210"/>
-      <c r="O196" s="210"/>
+      <c r="N196" s="245"/>
+      <c r="O196" s="245"/>
     </row>
     <row r="197" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="234"/>
+      <c r="A197" s="211"/>
       <c r="B197" s="100" t="s">
         <v>229</v>
       </c>
@@ -8783,11 +8783,11 @@
       <c r="K197" s="21"/>
       <c r="L197" s="88"/>
       <c r="M197" s="86"/>
-      <c r="N197" s="210"/>
-      <c r="O197" s="210"/>
+      <c r="N197" s="245"/>
+      <c r="O197" s="245"/>
     </row>
     <row r="198" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="235"/>
+      <c r="A198" s="212"/>
       <c r="B198" s="108" t="s">
         <v>118</v>
       </c>
@@ -8802,11 +8802,11 @@
       <c r="K198" s="22"/>
       <c r="L198" s="92"/>
       <c r="M198" s="90"/>
-      <c r="N198" s="211"/>
-      <c r="O198" s="211"/>
+      <c r="N198" s="246"/>
+      <c r="O198" s="246"/>
     </row>
     <row r="199" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="233" t="s">
+      <c r="A199" s="213" t="s">
         <v>338</v>
       </c>
       <c r="B199" s="44" t="s">
@@ -8823,11 +8823,11 @@
       <c r="K199" s="102"/>
       <c r="L199" s="102"/>
       <c r="M199" s="101"/>
-      <c r="N199" s="209"/>
-      <c r="O199" s="209"/>
+      <c r="N199" s="244"/>
+      <c r="O199" s="244"/>
     </row>
     <row r="200" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="234"/>
+      <c r="A200" s="211"/>
       <c r="B200" s="100" t="s">
         <v>230</v>
       </c>
@@ -8844,11 +8844,11 @@
       <c r="K200" s="20"/>
       <c r="L200" s="88"/>
       <c r="M200" s="86"/>
-      <c r="N200" s="210"/>
-      <c r="O200" s="210"/>
+      <c r="N200" s="245"/>
+      <c r="O200" s="245"/>
     </row>
     <row r="201" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="234"/>
+      <c r="A201" s="211"/>
       <c r="B201" s="100" t="s">
         <v>118</v>
       </c>
@@ -8863,11 +8863,11 @@
       <c r="K201" s="22"/>
       <c r="L201" s="88"/>
       <c r="M201" s="86"/>
-      <c r="N201" s="210"/>
-      <c r="O201" s="210"/>
+      <c r="N201" s="245"/>
+      <c r="O201" s="245"/>
     </row>
     <row r="202" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="234"/>
+      <c r="A202" s="211"/>
       <c r="B202" s="44" t="s">
         <v>101</v>
       </c>
@@ -8882,11 +8882,11 @@
       <c r="K202" s="102"/>
       <c r="L202" s="102"/>
       <c r="M202" s="101"/>
-      <c r="N202" s="210"/>
-      <c r="O202" s="210"/>
+      <c r="N202" s="245"/>
+      <c r="O202" s="245"/>
     </row>
     <row r="203" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="234"/>
+      <c r="A203" s="211"/>
       <c r="B203" s="96" t="s">
         <v>232</v>
       </c>
@@ -8901,11 +8901,11 @@
       <c r="K203" s="20"/>
       <c r="L203" s="88"/>
       <c r="M203" s="86"/>
-      <c r="N203" s="210"/>
-      <c r="O203" s="210"/>
+      <c r="N203" s="245"/>
+      <c r="O203" s="245"/>
     </row>
     <row r="204" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="235"/>
+      <c r="A204" s="212"/>
       <c r="B204" s="103" t="s">
         <v>118</v>
       </c>
@@ -8920,14 +8920,14 @@
       <c r="K204" s="24"/>
       <c r="L204" s="105"/>
       <c r="M204" s="104"/>
-      <c r="N204" s="211"/>
-      <c r="O204" s="211"/>
+      <c r="N204" s="246"/>
+      <c r="O204" s="246"/>
     </row>
     <row r="205" spans="1:15" s="141" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="226" t="s">
+      <c r="A205" s="209" t="s">
         <v>295</v>
       </c>
-      <c r="B205" s="227"/>
+      <c r="B205" s="210"/>
       <c r="C205" s="143"/>
       <c r="D205" s="144"/>
       <c r="E205" s="144"/>
@@ -8943,7 +8943,7 @@
       <c r="O205" s="140"/>
     </row>
     <row r="206" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="234" t="s">
+      <c r="A206" s="211" t="s">
         <v>305</v>
       </c>
       <c r="B206" s="146" t="s">
@@ -8960,11 +8960,11 @@
       <c r="K206" s="95"/>
       <c r="L206" s="95"/>
       <c r="M206" s="94"/>
-      <c r="N206" s="209"/>
-      <c r="O206" s="209"/>
+      <c r="N206" s="244"/>
+      <c r="O206" s="244"/>
     </row>
     <row r="207" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="234"/>
+      <c r="A207" s="211"/>
       <c r="B207" s="100" t="s">
         <v>233</v>
       </c>
@@ -8979,11 +8979,11 @@
       <c r="K207" s="20"/>
       <c r="L207" s="107"/>
       <c r="M207" s="86"/>
-      <c r="N207" s="210"/>
-      <c r="O207" s="210"/>
+      <c r="N207" s="245"/>
+      <c r="O207" s="245"/>
     </row>
     <row r="208" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="234"/>
+      <c r="A208" s="211"/>
       <c r="B208" s="100" t="s">
         <v>234</v>
       </c>
@@ -8998,11 +8998,11 @@
       <c r="K208" s="21"/>
       <c r="L208" s="107"/>
       <c r="M208" s="86"/>
-      <c r="N208" s="210"/>
-      <c r="O208" s="210"/>
+      <c r="N208" s="245"/>
+      <c r="O208" s="245"/>
     </row>
     <row r="209" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="234"/>
+      <c r="A209" s="211"/>
       <c r="B209" s="100" t="s">
         <v>235</v>
       </c>
@@ -9017,11 +9017,11 @@
       <c r="K209" s="21"/>
       <c r="L209" s="88"/>
       <c r="M209" s="86"/>
-      <c r="N209" s="210"/>
-      <c r="O209" s="210"/>
+      <c r="N209" s="245"/>
+      <c r="O209" s="245"/>
     </row>
     <row r="210" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="234"/>
+      <c r="A210" s="211"/>
       <c r="B210" s="100" t="s">
         <v>236</v>
       </c>
@@ -9036,11 +9036,11 @@
       <c r="K210" s="21"/>
       <c r="L210" s="88"/>
       <c r="M210" s="86"/>
-      <c r="N210" s="210"/>
-      <c r="O210" s="210"/>
+      <c r="N210" s="245"/>
+      <c r="O210" s="245"/>
     </row>
     <row r="211" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="234"/>
+      <c r="A211" s="211"/>
       <c r="B211" s="100" t="s">
         <v>237</v>
       </c>
@@ -9055,11 +9055,11 @@
       <c r="K211" s="21"/>
       <c r="L211" s="88"/>
       <c r="M211" s="86"/>
-      <c r="N211" s="210"/>
-      <c r="O211" s="210"/>
+      <c r="N211" s="245"/>
+      <c r="O211" s="245"/>
     </row>
     <row r="212" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="234"/>
+      <c r="A212" s="211"/>
       <c r="B212" s="100" t="s">
         <v>238</v>
       </c>
@@ -9074,11 +9074,11 @@
       <c r="K212" s="21"/>
       <c r="L212" s="88"/>
       <c r="M212" s="86"/>
-      <c r="N212" s="210"/>
-      <c r="O212" s="210"/>
+      <c r="N212" s="245"/>
+      <c r="O212" s="245"/>
     </row>
     <row r="213" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="234"/>
+      <c r="A213" s="211"/>
       <c r="B213" s="100" t="s">
         <v>239</v>
       </c>
@@ -9093,11 +9093,11 @@
       <c r="K213" s="21"/>
       <c r="L213" s="88"/>
       <c r="M213" s="86"/>
-      <c r="N213" s="210"/>
-      <c r="O213" s="210"/>
+      <c r="N213" s="245"/>
+      <c r="O213" s="245"/>
     </row>
     <row r="214" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="234"/>
+      <c r="A214" s="211"/>
       <c r="B214" s="100" t="s">
         <v>240</v>
       </c>
@@ -9112,11 +9112,11 @@
       <c r="K214" s="21"/>
       <c r="L214" s="88"/>
       <c r="M214" s="86"/>
-      <c r="N214" s="210"/>
-      <c r="O214" s="210"/>
+      <c r="N214" s="245"/>
+      <c r="O214" s="245"/>
     </row>
     <row r="215" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="234"/>
+      <c r="A215" s="211"/>
       <c r="B215" s="100" t="s">
         <v>118</v>
       </c>
@@ -9131,11 +9131,11 @@
       <c r="K215" s="22"/>
       <c r="L215" s="88"/>
       <c r="M215" s="86"/>
-      <c r="N215" s="210"/>
-      <c r="O215" s="210"/>
+      <c r="N215" s="245"/>
+      <c r="O215" s="245"/>
     </row>
     <row r="216" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="234"/>
+      <c r="A216" s="211"/>
       <c r="B216" s="44" t="s">
         <v>101</v>
       </c>
@@ -9150,11 +9150,11 @@
       <c r="K216" s="102"/>
       <c r="L216" s="102"/>
       <c r="M216" s="101"/>
-      <c r="N216" s="210"/>
-      <c r="O216" s="210"/>
+      <c r="N216" s="245"/>
+      <c r="O216" s="245"/>
     </row>
     <row r="217" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="234"/>
+      <c r="A217" s="211"/>
       <c r="B217" s="96" t="s">
         <v>241</v>
       </c>
@@ -9169,11 +9169,11 @@
       <c r="K217" s="20"/>
       <c r="L217" s="88"/>
       <c r="M217" s="86"/>
-      <c r="N217" s="210"/>
-      <c r="O217" s="210"/>
+      <c r="N217" s="245"/>
+      <c r="O217" s="245"/>
     </row>
     <row r="218" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="234"/>
+      <c r="A218" s="211"/>
       <c r="B218" s="100" t="s">
         <v>242</v>
       </c>
@@ -9188,11 +9188,11 @@
       <c r="K218" s="21"/>
       <c r="L218" s="88"/>
       <c r="M218" s="86"/>
-      <c r="N218" s="210"/>
-      <c r="O218" s="210"/>
+      <c r="N218" s="245"/>
+      <c r="O218" s="245"/>
     </row>
     <row r="219" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="234"/>
+      <c r="A219" s="211"/>
       <c r="B219" s="100" t="s">
         <v>243</v>
       </c>
@@ -9207,11 +9207,11 @@
       <c r="K219" s="21"/>
       <c r="L219" s="88"/>
       <c r="M219" s="86"/>
-      <c r="N219" s="210"/>
-      <c r="O219" s="210"/>
+      <c r="N219" s="245"/>
+      <c r="O219" s="245"/>
     </row>
     <row r="220" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="235"/>
+      <c r="A220" s="212"/>
       <c r="B220" s="108" t="s">
         <v>118</v>
       </c>
@@ -9226,14 +9226,14 @@
       <c r="K220" s="22"/>
       <c r="L220" s="92"/>
       <c r="M220" s="90"/>
-      <c r="N220" s="211"/>
-      <c r="O220" s="211"/>
+      <c r="N220" s="246"/>
+      <c r="O220" s="246"/>
     </row>
     <row r="221" spans="1:15" s="141" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="226" t="s">
+      <c r="A221" s="209" t="s">
         <v>293</v>
       </c>
-      <c r="B221" s="227"/>
+      <c r="B221" s="210"/>
       <c r="C221" s="143"/>
       <c r="D221" s="144"/>
       <c r="E221" s="144"/>
@@ -9249,7 +9249,7 @@
       <c r="O221" s="140"/>
     </row>
     <row r="222" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="234" t="s">
+      <c r="A222" s="211" t="s">
         <v>306</v>
       </c>
       <c r="B222" s="146" t="s">
@@ -9266,11 +9266,11 @@
       <c r="K222" s="95"/>
       <c r="L222" s="95"/>
       <c r="M222" s="94"/>
-      <c r="N222" s="209"/>
-      <c r="O222" s="209"/>
+      <c r="N222" s="244"/>
+      <c r="O222" s="244"/>
     </row>
     <row r="223" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="234"/>
+      <c r="A223" s="211"/>
       <c r="B223" s="96" t="s">
         <v>260</v>
       </c>
@@ -9285,11 +9285,11 @@
       <c r="K223" s="20"/>
       <c r="L223" s="88"/>
       <c r="M223" s="86"/>
-      <c r="N223" s="210"/>
-      <c r="O223" s="210"/>
+      <c r="N223" s="245"/>
+      <c r="O223" s="245"/>
     </row>
     <row r="224" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="234"/>
+      <c r="A224" s="211"/>
       <c r="B224" s="100" t="s">
         <v>261</v>
       </c>
@@ -9304,11 +9304,11 @@
       <c r="K224" s="21"/>
       <c r="L224" s="88"/>
       <c r="M224" s="86"/>
-      <c r="N224" s="210"/>
-      <c r="O224" s="210"/>
+      <c r="N224" s="245"/>
+      <c r="O224" s="245"/>
     </row>
     <row r="225" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="234"/>
+      <c r="A225" s="211"/>
       <c r="B225" s="100" t="s">
         <v>262</v>
       </c>
@@ -9323,11 +9323,11 @@
       <c r="K225" s="21"/>
       <c r="L225" s="88"/>
       <c r="M225" s="86"/>
-      <c r="N225" s="210"/>
-      <c r="O225" s="210"/>
+      <c r="N225" s="245"/>
+      <c r="O225" s="245"/>
     </row>
     <row r="226" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="234"/>
+      <c r="A226" s="211"/>
       <c r="B226" s="100" t="s">
         <v>263</v>
       </c>
@@ -9342,11 +9342,11 @@
       <c r="K226" s="21"/>
       <c r="L226" s="88"/>
       <c r="M226" s="86"/>
-      <c r="N226" s="210"/>
-      <c r="O226" s="210"/>
+      <c r="N226" s="245"/>
+      <c r="O226" s="245"/>
     </row>
     <row r="227" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="234"/>
+      <c r="A227" s="211"/>
       <c r="B227" s="100" t="s">
         <v>264</v>
       </c>
@@ -9361,11 +9361,11 @@
       <c r="K227" s="21"/>
       <c r="L227" s="88"/>
       <c r="M227" s="86"/>
-      <c r="N227" s="210"/>
-      <c r="O227" s="210"/>
+      <c r="N227" s="245"/>
+      <c r="O227" s="245"/>
     </row>
     <row r="228" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="234"/>
+      <c r="A228" s="211"/>
       <c r="B228" s="100" t="s">
         <v>265</v>
       </c>
@@ -9380,11 +9380,11 @@
       <c r="K228" s="21"/>
       <c r="L228" s="88"/>
       <c r="M228" s="86"/>
-      <c r="N228" s="210"/>
-      <c r="O228" s="210"/>
+      <c r="N228" s="245"/>
+      <c r="O228" s="245"/>
     </row>
     <row r="229" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="234"/>
+      <c r="A229" s="211"/>
       <c r="B229" s="100" t="s">
         <v>118</v>
       </c>
@@ -9399,11 +9399,11 @@
       <c r="K229" s="22"/>
       <c r="L229" s="88"/>
       <c r="M229" s="86"/>
-      <c r="N229" s="210"/>
-      <c r="O229" s="210"/>
+      <c r="N229" s="245"/>
+      <c r="O229" s="245"/>
     </row>
     <row r="230" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="234"/>
+      <c r="A230" s="211"/>
       <c r="B230" s="44" t="s">
         <v>101</v>
       </c>
@@ -9418,11 +9418,11 @@
       <c r="K230" s="102"/>
       <c r="L230" s="102"/>
       <c r="M230" s="101"/>
-      <c r="N230" s="210"/>
-      <c r="O230" s="210"/>
+      <c r="N230" s="245"/>
+      <c r="O230" s="245"/>
     </row>
     <row r="231" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="234"/>
+      <c r="A231" s="211"/>
       <c r="B231" s="96" t="s">
         <v>266</v>
       </c>
@@ -9437,11 +9437,11 @@
       <c r="K231" s="20"/>
       <c r="L231" s="88"/>
       <c r="M231" s="86"/>
-      <c r="N231" s="210"/>
-      <c r="O231" s="210"/>
+      <c r="N231" s="245"/>
+      <c r="O231" s="245"/>
     </row>
     <row r="232" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="235"/>
+      <c r="A232" s="212"/>
       <c r="B232" s="108" t="s">
         <v>118</v>
       </c>
@@ -9456,11 +9456,11 @@
       <c r="K232" s="22"/>
       <c r="L232" s="92"/>
       <c r="M232" s="90"/>
-      <c r="N232" s="211"/>
-      <c r="O232" s="211"/>
+      <c r="N232" s="246"/>
+      <c r="O232" s="246"/>
     </row>
     <row r="233" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="233" t="s">
+      <c r="A233" s="213" t="s">
         <v>267</v>
       </c>
       <c r="B233" s="44" t="s">
@@ -9477,11 +9477,11 @@
       <c r="K233" s="102"/>
       <c r="L233" s="102"/>
       <c r="M233" s="101"/>
-      <c r="N233" s="209"/>
-      <c r="O233" s="209"/>
+      <c r="N233" s="244"/>
+      <c r="O233" s="244"/>
     </row>
     <row r="234" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="234"/>
+      <c r="A234" s="211"/>
       <c r="B234" s="96" t="s">
         <v>268</v>
       </c>
@@ -9496,11 +9496,11 @@
       <c r="K234" s="20"/>
       <c r="L234" s="88"/>
       <c r="M234" s="86"/>
-      <c r="N234" s="210"/>
-      <c r="O234" s="210"/>
+      <c r="N234" s="245"/>
+      <c r="O234" s="245"/>
     </row>
     <row r="235" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="234"/>
+      <c r="A235" s="211"/>
       <c r="B235" s="96" t="s">
         <v>269</v>
       </c>
@@ -9515,11 +9515,11 @@
       <c r="K235" s="25"/>
       <c r="L235" s="88"/>
       <c r="M235" s="86"/>
-      <c r="N235" s="210"/>
-      <c r="O235" s="210"/>
+      <c r="N235" s="245"/>
+      <c r="O235" s="245"/>
     </row>
     <row r="236" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="234"/>
+      <c r="A236" s="211"/>
       <c r="B236" s="100" t="s">
         <v>270</v>
       </c>
@@ -9534,11 +9534,11 @@
       <c r="K236" s="21"/>
       <c r="L236" s="88"/>
       <c r="M236" s="86"/>
-      <c r="N236" s="210"/>
-      <c r="O236" s="210"/>
+      <c r="N236" s="245"/>
+      <c r="O236" s="245"/>
     </row>
     <row r="237" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="234"/>
+      <c r="A237" s="211"/>
       <c r="B237" s="100" t="s">
         <v>118</v>
       </c>
@@ -9553,11 +9553,11 @@
       <c r="K237" s="21"/>
       <c r="L237" s="88"/>
       <c r="M237" s="86"/>
-      <c r="N237" s="210"/>
-      <c r="O237" s="210"/>
+      <c r="N237" s="245"/>
+      <c r="O237" s="245"/>
     </row>
     <row r="238" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="234"/>
+      <c r="A238" s="211"/>
       <c r="B238" s="44" t="s">
         <v>101</v>
       </c>
@@ -9572,11 +9572,11 @@
       <c r="K238" s="102"/>
       <c r="L238" s="102"/>
       <c r="M238" s="101"/>
-      <c r="N238" s="210"/>
-      <c r="O238" s="210"/>
+      <c r="N238" s="245"/>
+      <c r="O238" s="245"/>
     </row>
     <row r="239" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="234"/>
+      <c r="A239" s="211"/>
       <c r="B239" s="96" t="s">
         <v>271</v>
       </c>
@@ -9591,11 +9591,11 @@
       <c r="K239" s="20"/>
       <c r="L239" s="88"/>
       <c r="M239" s="86"/>
-      <c r="N239" s="210"/>
-      <c r="O239" s="210"/>
+      <c r="N239" s="245"/>
+      <c r="O239" s="245"/>
     </row>
     <row r="240" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="234"/>
+      <c r="A240" s="211"/>
       <c r="B240" s="147" t="s">
         <v>272</v>
       </c>
@@ -9610,11 +9610,11 @@
       <c r="K240" s="28"/>
       <c r="L240" s="105"/>
       <c r="M240" s="104"/>
-      <c r="N240" s="210"/>
-      <c r="O240" s="210"/>
+      <c r="N240" s="245"/>
+      <c r="O240" s="245"/>
     </row>
     <row r="241" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="235"/>
+      <c r="A241" s="212"/>
       <c r="B241" s="108" t="s">
         <v>118</v>
       </c>
@@ -9629,14 +9629,14 @@
       <c r="K241" s="22"/>
       <c r="L241" s="92"/>
       <c r="M241" s="90"/>
-      <c r="N241" s="211"/>
-      <c r="O241" s="211"/>
+      <c r="N241" s="246"/>
+      <c r="O241" s="246"/>
     </row>
     <row r="242" spans="1:15" s="141" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="226" t="s">
+      <c r="A242" s="209" t="s">
         <v>294</v>
       </c>
-      <c r="B242" s="227"/>
+      <c r="B242" s="210"/>
       <c r="C242" s="143"/>
       <c r="D242" s="144"/>
       <c r="E242" s="144"/>
@@ -9652,7 +9652,7 @@
       <c r="O242" s="140"/>
     </row>
     <row r="243" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="234" t="s">
+      <c r="A243" s="211" t="s">
         <v>244</v>
       </c>
       <c r="B243" s="146" t="s">
@@ -9669,11 +9669,11 @@
       <c r="K243" s="95"/>
       <c r="L243" s="95"/>
       <c r="M243" s="94"/>
-      <c r="N243" s="209"/>
-      <c r="O243" s="209"/>
+      <c r="N243" s="244"/>
+      <c r="O243" s="244"/>
     </row>
     <row r="244" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="234"/>
+      <c r="A244" s="211"/>
       <c r="B244" s="96" t="s">
         <v>245</v>
       </c>
@@ -9688,11 +9688,11 @@
       <c r="K244" s="20"/>
       <c r="L244" s="98"/>
       <c r="M244" s="97"/>
-      <c r="N244" s="210"/>
-      <c r="O244" s="210"/>
+      <c r="N244" s="245"/>
+      <c r="O244" s="245"/>
     </row>
     <row r="245" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="234"/>
+      <c r="A245" s="211"/>
       <c r="B245" s="100" t="s">
         <v>246</v>
       </c>
@@ -9707,11 +9707,11 @@
       <c r="K245" s="21"/>
       <c r="L245" s="88"/>
       <c r="M245" s="86"/>
-      <c r="N245" s="210"/>
-      <c r="O245" s="210"/>
+      <c r="N245" s="245"/>
+      <c r="O245" s="245"/>
     </row>
     <row r="246" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="234"/>
+      <c r="A246" s="211"/>
       <c r="B246" s="100" t="s">
         <v>247</v>
       </c>
@@ -9726,11 +9726,11 @@
       <c r="K246" s="21"/>
       <c r="L246" s="88"/>
       <c r="M246" s="86"/>
-      <c r="N246" s="210"/>
-      <c r="O246" s="210"/>
+      <c r="N246" s="245"/>
+      <c r="O246" s="245"/>
     </row>
     <row r="247" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="234"/>
+      <c r="A247" s="211"/>
       <c r="B247" s="100" t="s">
         <v>311</v>
       </c>
@@ -9745,11 +9745,11 @@
       <c r="K247" s="21"/>
       <c r="L247" s="88"/>
       <c r="M247" s="86"/>
-      <c r="N247" s="210"/>
-      <c r="O247" s="210"/>
+      <c r="N247" s="245"/>
+      <c r="O247" s="245"/>
     </row>
     <row r="248" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="234"/>
+      <c r="A248" s="211"/>
       <c r="B248" s="100" t="s">
         <v>248</v>
       </c>
@@ -9764,11 +9764,11 @@
       <c r="K248" s="21"/>
       <c r="L248" s="88"/>
       <c r="M248" s="86"/>
-      <c r="N248" s="210"/>
-      <c r="O248" s="210"/>
+      <c r="N248" s="245"/>
+      <c r="O248" s="245"/>
     </row>
     <row r="249" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="234"/>
+      <c r="A249" s="211"/>
       <c r="B249" s="100" t="s">
         <v>249</v>
       </c>
@@ -9783,11 +9783,11 @@
       <c r="K249" s="21"/>
       <c r="L249" s="88"/>
       <c r="M249" s="86"/>
-      <c r="N249" s="210"/>
-      <c r="O249" s="210"/>
+      <c r="N249" s="245"/>
+      <c r="O249" s="245"/>
     </row>
     <row r="250" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="234"/>
+      <c r="A250" s="211"/>
       <c r="B250" s="100" t="s">
         <v>250</v>
       </c>
@@ -9802,11 +9802,11 @@
       <c r="K250" s="21"/>
       <c r="L250" s="88"/>
       <c r="M250" s="86"/>
-      <c r="N250" s="210"/>
-      <c r="O250" s="210"/>
+      <c r="N250" s="245"/>
+      <c r="O250" s="245"/>
     </row>
     <row r="251" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="234"/>
+      <c r="A251" s="211"/>
       <c r="B251" s="100" t="s">
         <v>118</v>
       </c>
@@ -9821,11 +9821,11 @@
       <c r="K251" s="22"/>
       <c r="L251" s="88"/>
       <c r="M251" s="86"/>
-      <c r="N251" s="210"/>
-      <c r="O251" s="210"/>
+      <c r="N251" s="245"/>
+      <c r="O251" s="245"/>
     </row>
     <row r="252" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="234"/>
+      <c r="A252" s="211"/>
       <c r="B252" s="44" t="s">
         <v>101</v>
       </c>
@@ -9840,11 +9840,11 @@
       <c r="K252" s="102"/>
       <c r="L252" s="102"/>
       <c r="M252" s="101"/>
-      <c r="N252" s="210"/>
-      <c r="O252" s="210"/>
+      <c r="N252" s="245"/>
+      <c r="O252" s="245"/>
     </row>
     <row r="253" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="234"/>
+      <c r="A253" s="211"/>
       <c r="B253" s="96" t="s">
         <v>251</v>
       </c>
@@ -9859,11 +9859,11 @@
       <c r="K253" s="20"/>
       <c r="L253" s="88"/>
       <c r="M253" s="86"/>
-      <c r="N253" s="210"/>
-      <c r="O253" s="210"/>
+      <c r="N253" s="245"/>
+      <c r="O253" s="245"/>
     </row>
     <row r="254" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="234"/>
+      <c r="A254" s="211"/>
       <c r="B254" s="100" t="s">
         <v>252</v>
       </c>
@@ -9878,11 +9878,11 @@
       <c r="K254" s="21"/>
       <c r="L254" s="88"/>
       <c r="M254" s="86"/>
-      <c r="N254" s="210"/>
-      <c r="O254" s="210"/>
+      <c r="N254" s="245"/>
+      <c r="O254" s="245"/>
     </row>
     <row r="255" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="234"/>
+      <c r="A255" s="211"/>
       <c r="B255" s="100" t="s">
         <v>253</v>
       </c>
@@ -9897,11 +9897,11 @@
       <c r="K255" s="21"/>
       <c r="L255" s="88"/>
       <c r="M255" s="86"/>
-      <c r="N255" s="210"/>
-      <c r="O255" s="210"/>
+      <c r="N255" s="245"/>
+      <c r="O255" s="245"/>
     </row>
     <row r="256" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="235"/>
+      <c r="A256" s="212"/>
       <c r="B256" s="108" t="s">
         <v>118</v>
       </c>
@@ -9916,11 +9916,11 @@
       <c r="K256" s="22"/>
       <c r="L256" s="92"/>
       <c r="M256" s="90"/>
-      <c r="N256" s="211"/>
-      <c r="O256" s="211"/>
+      <c r="N256" s="246"/>
+      <c r="O256" s="246"/>
     </row>
     <row r="257" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="233" t="s">
+      <c r="A257" s="213" t="s">
         <v>254</v>
       </c>
       <c r="B257" s="44" t="s">
@@ -9937,11 +9937,11 @@
       <c r="K257" s="102"/>
       <c r="L257" s="102"/>
       <c r="M257" s="101"/>
-      <c r="N257" s="209"/>
-      <c r="O257" s="209"/>
+      <c r="N257" s="244"/>
+      <c r="O257" s="244"/>
     </row>
     <row r="258" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="234"/>
+      <c r="A258" s="211"/>
       <c r="B258" s="96" t="s">
         <v>255</v>
       </c>
@@ -9956,11 +9956,11 @@
       <c r="K258" s="20"/>
       <c r="L258" s="98"/>
       <c r="M258" s="97"/>
-      <c r="N258" s="210"/>
-      <c r="O258" s="210"/>
+      <c r="N258" s="245"/>
+      <c r="O258" s="245"/>
     </row>
     <row r="259" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="234"/>
+      <c r="A259" s="211"/>
       <c r="B259" s="100" t="s">
         <v>256</v>
       </c>
@@ -9975,11 +9975,11 @@
       <c r="K259" s="21"/>
       <c r="L259" s="88"/>
       <c r="M259" s="86"/>
-      <c r="N259" s="210"/>
-      <c r="O259" s="210"/>
+      <c r="N259" s="245"/>
+      <c r="O259" s="245"/>
     </row>
     <row r="260" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="234"/>
+      <c r="A260" s="211"/>
       <c r="B260" s="100" t="s">
         <v>257</v>
       </c>
@@ -9994,11 +9994,11 @@
       <c r="K260" s="21"/>
       <c r="L260" s="88"/>
       <c r="M260" s="86"/>
-      <c r="N260" s="210"/>
-      <c r="O260" s="210"/>
+      <c r="N260" s="245"/>
+      <c r="O260" s="245"/>
     </row>
     <row r="261" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="234"/>
+      <c r="A261" s="211"/>
       <c r="B261" s="100" t="s">
         <v>258</v>
       </c>
@@ -10013,11 +10013,11 @@
       <c r="K261" s="21"/>
       <c r="L261" s="88"/>
       <c r="M261" s="86"/>
-      <c r="N261" s="210"/>
-      <c r="O261" s="210"/>
+      <c r="N261" s="245"/>
+      <c r="O261" s="245"/>
     </row>
     <row r="262" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="234"/>
+      <c r="A262" s="211"/>
       <c r="B262" s="100" t="s">
         <v>118</v>
       </c>
@@ -10032,11 +10032,11 @@
       <c r="K262" s="22"/>
       <c r="L262" s="88"/>
       <c r="M262" s="86"/>
-      <c r="N262" s="210"/>
-      <c r="O262" s="210"/>
+      <c r="N262" s="245"/>
+      <c r="O262" s="245"/>
     </row>
     <row r="263" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="234"/>
+      <c r="A263" s="211"/>
       <c r="B263" s="44" t="s">
         <v>101</v>
       </c>
@@ -10051,11 +10051,11 @@
       <c r="K263" s="110"/>
       <c r="L263" s="110"/>
       <c r="M263" s="101"/>
-      <c r="N263" s="210"/>
-      <c r="O263" s="210"/>
+      <c r="N263" s="245"/>
+      <c r="O263" s="245"/>
     </row>
     <row r="264" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="234"/>
+      <c r="A264" s="211"/>
       <c r="B264" s="100" t="s">
         <v>259</v>
       </c>
@@ -10070,11 +10070,11 @@
       <c r="K264" s="20"/>
       <c r="L264" s="88"/>
       <c r="M264" s="86"/>
-      <c r="N264" s="210"/>
-      <c r="O264" s="210"/>
+      <c r="N264" s="245"/>
+      <c r="O264" s="245"/>
     </row>
     <row r="265" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="235"/>
+      <c r="A265" s="212"/>
       <c r="B265" s="108" t="s">
         <v>118</v>
       </c>
@@ -10089,14 +10089,14 @@
       <c r="K265" s="22"/>
       <c r="L265" s="92"/>
       <c r="M265" s="90"/>
-      <c r="N265" s="211"/>
-      <c r="O265" s="211"/>
+      <c r="N265" s="246"/>
+      <c r="O265" s="246"/>
     </row>
     <row r="266" spans="1:15" s="141" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="226" t="s">
+      <c r="A266" s="209" t="s">
         <v>292</v>
       </c>
-      <c r="B266" s="227"/>
+      <c r="B266" s="210"/>
       <c r="C266" s="143"/>
       <c r="D266" s="144"/>
       <c r="E266" s="144"/>
@@ -10112,7 +10112,7 @@
       <c r="O266" s="140"/>
     </row>
     <row r="267" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="234" t="s">
+      <c r="A267" s="211" t="s">
         <v>307</v>
       </c>
       <c r="B267" s="146" t="s">
@@ -10129,11 +10129,11 @@
       <c r="K267" s="95"/>
       <c r="L267" s="95"/>
       <c r="M267" s="94"/>
-      <c r="N267" s="209"/>
-      <c r="O267" s="209"/>
+      <c r="N267" s="244"/>
+      <c r="O267" s="244"/>
     </row>
     <row r="268" spans="1:15" s="72" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="234"/>
+      <c r="A268" s="211"/>
       <c r="B268" s="96" t="s">
         <v>310</v>
       </c>
@@ -10148,20 +10148,20 @@
       <c r="K268" s="132"/>
       <c r="L268" s="131"/>
       <c r="M268" s="75"/>
-      <c r="N268" s="210"/>
-      <c r="O268" s="210"/>
+      <c r="N268" s="245"/>
+      <c r="O268" s="245"/>
     </row>
     <row r="269" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="234"/>
+      <c r="A269" s="211"/>
       <c r="B269" s="100" t="s">
         <v>309</v>
       </c>
       <c r="C269" s="133"/>
-      <c r="N269" s="210"/>
-      <c r="O269" s="210"/>
+      <c r="N269" s="245"/>
+      <c r="O269" s="245"/>
     </row>
     <row r="270" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="234"/>
+      <c r="A270" s="211"/>
       <c r="B270" s="124" t="s">
         <v>273</v>
       </c>
@@ -10176,11 +10176,11 @@
       <c r="K270" s="20"/>
       <c r="L270" s="77"/>
       <c r="M270" s="82"/>
-      <c r="N270" s="210"/>
-      <c r="O270" s="210"/>
+      <c r="N270" s="245"/>
+      <c r="O270" s="245"/>
     </row>
     <row r="271" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="234"/>
+      <c r="A271" s="211"/>
       <c r="B271" s="124" t="s">
         <v>274</v>
       </c>
@@ -10195,11 +10195,11 @@
       <c r="K271" s="21"/>
       <c r="L271" s="88"/>
       <c r="M271" s="86"/>
-      <c r="N271" s="210"/>
-      <c r="O271" s="210"/>
+      <c r="N271" s="245"/>
+      <c r="O271" s="245"/>
     </row>
     <row r="272" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="234"/>
+      <c r="A272" s="211"/>
       <c r="B272" s="124" t="s">
         <v>275</v>
       </c>
@@ -10214,11 +10214,11 @@
       <c r="K272" s="21"/>
       <c r="L272" s="88"/>
       <c r="M272" s="86"/>
-      <c r="N272" s="210"/>
-      <c r="O272" s="210"/>
+      <c r="N272" s="245"/>
+      <c r="O272" s="245"/>
     </row>
     <row r="273" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="234"/>
+      <c r="A273" s="211"/>
       <c r="B273" s="124" t="s">
         <v>276</v>
       </c>
@@ -10233,11 +10233,11 @@
       <c r="K273" s="21"/>
       <c r="L273" s="88"/>
       <c r="M273" s="86"/>
-      <c r="N273" s="210"/>
-      <c r="O273" s="210"/>
+      <c r="N273" s="245"/>
+      <c r="O273" s="245"/>
     </row>
     <row r="274" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="234"/>
+      <c r="A274" s="211"/>
       <c r="B274" s="124" t="s">
         <v>277</v>
       </c>
@@ -10252,11 +10252,11 @@
       <c r="K274" s="21"/>
       <c r="L274" s="88"/>
       <c r="M274" s="86"/>
-      <c r="N274" s="210"/>
-      <c r="O274" s="210"/>
+      <c r="N274" s="245"/>
+      <c r="O274" s="245"/>
     </row>
     <row r="275" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="234"/>
+      <c r="A275" s="211"/>
       <c r="B275" s="124" t="s">
         <v>278</v>
       </c>
@@ -10271,11 +10271,11 @@
       <c r="K275" s="21"/>
       <c r="L275" s="88"/>
       <c r="M275" s="86"/>
-      <c r="N275" s="210"/>
-      <c r="O275" s="210"/>
+      <c r="N275" s="245"/>
+      <c r="O275" s="245"/>
     </row>
     <row r="276" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="234"/>
+      <c r="A276" s="211"/>
       <c r="B276" s="124" t="s">
         <v>118</v>
       </c>
@@ -10290,11 +10290,11 @@
       <c r="K276" s="22"/>
       <c r="L276" s="88"/>
       <c r="M276" s="86"/>
-      <c r="N276" s="210"/>
-      <c r="O276" s="210"/>
+      <c r="N276" s="245"/>
+      <c r="O276" s="245"/>
     </row>
     <row r="277" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="234"/>
+      <c r="A277" s="211"/>
       <c r="B277" s="44" t="s">
         <v>101</v>
       </c>
@@ -10309,11 +10309,11 @@
       <c r="K277" s="102"/>
       <c r="L277" s="102"/>
       <c r="M277" s="101"/>
-      <c r="N277" s="210"/>
-      <c r="O277" s="210"/>
+      <c r="N277" s="245"/>
+      <c r="O277" s="245"/>
     </row>
     <row r="278" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="234"/>
+      <c r="A278" s="211"/>
       <c r="B278" s="96" t="s">
         <v>308</v>
       </c>
@@ -10328,11 +10328,11 @@
       <c r="K278" s="20"/>
       <c r="L278" s="88"/>
       <c r="M278" s="86"/>
-      <c r="N278" s="210"/>
-      <c r="O278" s="210"/>
+      <c r="N278" s="245"/>
+      <c r="O278" s="245"/>
     </row>
     <row r="279" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="234"/>
+      <c r="A279" s="211"/>
       <c r="B279" s="100" t="s">
         <v>279</v>
       </c>
@@ -10347,11 +10347,11 @@
       <c r="K279" s="21"/>
       <c r="L279" s="88"/>
       <c r="M279" s="86"/>
-      <c r="N279" s="210"/>
-      <c r="O279" s="210"/>
+      <c r="N279" s="245"/>
+      <c r="O279" s="245"/>
     </row>
     <row r="280" spans="1:15" s="72" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="235"/>
+      <c r="A280" s="212"/>
       <c r="B280" s="108" t="s">
         <v>118</v>
       </c>
@@ -10366,38 +10366,68 @@
       <c r="K280" s="22"/>
       <c r="L280" s="92"/>
       <c r="M280" s="90"/>
-      <c r="N280" s="211"/>
-      <c r="O280" s="211"/>
+      <c r="N280" s="246"/>
+      <c r="O280" s="246"/>
     </row>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="A242:B242"/>
-    <mergeCell ref="A83:A92"/>
-    <mergeCell ref="A122:A132"/>
-    <mergeCell ref="A116:A121"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="A267:A280"/>
-    <mergeCell ref="A257:A265"/>
-    <mergeCell ref="A243:A256"/>
-    <mergeCell ref="A233:A241"/>
-    <mergeCell ref="A222:A232"/>
-    <mergeCell ref="A266:B266"/>
-    <mergeCell ref="A206:A220"/>
-    <mergeCell ref="A153:A163"/>
-    <mergeCell ref="A173:A178"/>
-    <mergeCell ref="A164:A172"/>
-    <mergeCell ref="A102:A107"/>
-    <mergeCell ref="A93:A101"/>
-    <mergeCell ref="A43:A50"/>
-    <mergeCell ref="A51:A58"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="A133:A140"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="A205:B205"/>
-    <mergeCell ref="A180:A187"/>
-    <mergeCell ref="A141:A152"/>
-    <mergeCell ref="A188:A198"/>
-    <mergeCell ref="A199:A204"/>
+    <mergeCell ref="N267:N280"/>
+    <mergeCell ref="O267:O280"/>
+    <mergeCell ref="N243:N256"/>
+    <mergeCell ref="O243:O256"/>
+    <mergeCell ref="N257:N265"/>
+    <mergeCell ref="O257:O265"/>
+    <mergeCell ref="N206:N220"/>
+    <mergeCell ref="O206:O220"/>
+    <mergeCell ref="N222:N232"/>
+    <mergeCell ref="O222:O232"/>
+    <mergeCell ref="N233:N241"/>
+    <mergeCell ref="O233:O241"/>
+    <mergeCell ref="N180:N187"/>
+    <mergeCell ref="O180:O187"/>
+    <mergeCell ref="N188:N198"/>
+    <mergeCell ref="O188:O198"/>
+    <mergeCell ref="N199:N204"/>
+    <mergeCell ref="O199:O204"/>
+    <mergeCell ref="N33:N42"/>
+    <mergeCell ref="O33:O42"/>
+    <mergeCell ref="N43:N50"/>
+    <mergeCell ref="O43:O50"/>
+    <mergeCell ref="N51:N58"/>
+    <mergeCell ref="O51:O58"/>
+    <mergeCell ref="N59:N70"/>
+    <mergeCell ref="O59:O70"/>
+    <mergeCell ref="N71:N82"/>
+    <mergeCell ref="O71:O82"/>
+    <mergeCell ref="N83:N92"/>
+    <mergeCell ref="N93:N101"/>
+    <mergeCell ref="N153:N163"/>
+    <mergeCell ref="O153:O163"/>
+    <mergeCell ref="N164:N172"/>
+    <mergeCell ref="O164:O172"/>
+    <mergeCell ref="N173:N178"/>
+    <mergeCell ref="O173:O178"/>
+    <mergeCell ref="N122:N132"/>
+    <mergeCell ref="O122:O132"/>
+    <mergeCell ref="N133:N140"/>
+    <mergeCell ref="O133:O140"/>
+    <mergeCell ref="N141:N152"/>
+    <mergeCell ref="O141:O152"/>
+    <mergeCell ref="N102:N107"/>
+    <mergeCell ref="O102:O107"/>
+    <mergeCell ref="N108:N115"/>
+    <mergeCell ref="O108:O115"/>
+    <mergeCell ref="N116:N121"/>
+    <mergeCell ref="O116:O121"/>
+    <mergeCell ref="O93:O101"/>
+    <mergeCell ref="N11:N15"/>
+    <mergeCell ref="O11:O15"/>
+    <mergeCell ref="N16:N23"/>
+    <mergeCell ref="O16:O23"/>
+    <mergeCell ref="N25:N32"/>
+    <mergeCell ref="O25:O32"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="A108:A115"/>
     <mergeCell ref="G1:G2"/>
@@ -10422,63 +10452,33 @@
     <mergeCell ref="A71:A82"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:A15"/>
-    <mergeCell ref="O93:O101"/>
-    <mergeCell ref="N11:N15"/>
-    <mergeCell ref="O11:O15"/>
-    <mergeCell ref="N16:N23"/>
-    <mergeCell ref="O16:O23"/>
-    <mergeCell ref="N25:N32"/>
-    <mergeCell ref="O25:O32"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N122:N132"/>
-    <mergeCell ref="O122:O132"/>
-    <mergeCell ref="N133:N140"/>
-    <mergeCell ref="O133:O140"/>
-    <mergeCell ref="N141:N152"/>
-    <mergeCell ref="O141:O152"/>
-    <mergeCell ref="N102:N107"/>
-    <mergeCell ref="O102:O107"/>
-    <mergeCell ref="N108:N115"/>
-    <mergeCell ref="O108:O115"/>
-    <mergeCell ref="N116:N121"/>
-    <mergeCell ref="O116:O121"/>
-    <mergeCell ref="N180:N187"/>
-    <mergeCell ref="O180:O187"/>
-    <mergeCell ref="N188:N198"/>
-    <mergeCell ref="O188:O198"/>
-    <mergeCell ref="N199:N204"/>
-    <mergeCell ref="O199:O204"/>
-    <mergeCell ref="N33:N42"/>
-    <mergeCell ref="O33:O42"/>
-    <mergeCell ref="N43:N50"/>
-    <mergeCell ref="O43:O50"/>
-    <mergeCell ref="N51:N58"/>
-    <mergeCell ref="O51:O58"/>
-    <mergeCell ref="N59:N70"/>
-    <mergeCell ref="O59:O70"/>
-    <mergeCell ref="N71:N82"/>
-    <mergeCell ref="O71:O82"/>
-    <mergeCell ref="N83:N92"/>
-    <mergeCell ref="N93:N101"/>
-    <mergeCell ref="N153:N163"/>
-    <mergeCell ref="O153:O163"/>
-    <mergeCell ref="N164:N172"/>
-    <mergeCell ref="O164:O172"/>
-    <mergeCell ref="N173:N178"/>
-    <mergeCell ref="O173:O178"/>
-    <mergeCell ref="N267:N280"/>
-    <mergeCell ref="O267:O280"/>
-    <mergeCell ref="N243:N256"/>
-    <mergeCell ref="O243:O256"/>
-    <mergeCell ref="N257:N265"/>
-    <mergeCell ref="O257:O265"/>
-    <mergeCell ref="N206:N220"/>
-    <mergeCell ref="O206:O220"/>
-    <mergeCell ref="N222:N232"/>
-    <mergeCell ref="O222:O232"/>
-    <mergeCell ref="N233:N241"/>
-    <mergeCell ref="O233:O241"/>
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="A51:A58"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="A133:A140"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="A205:B205"/>
+    <mergeCell ref="A180:A187"/>
+    <mergeCell ref="A141:A152"/>
+    <mergeCell ref="A188:A198"/>
+    <mergeCell ref="A199:A204"/>
+    <mergeCell ref="A242:B242"/>
+    <mergeCell ref="A83:A92"/>
+    <mergeCell ref="A122:A132"/>
+    <mergeCell ref="A116:A121"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="A267:A280"/>
+    <mergeCell ref="A257:A265"/>
+    <mergeCell ref="A243:A256"/>
+    <mergeCell ref="A233:A241"/>
+    <mergeCell ref="A222:A232"/>
+    <mergeCell ref="A266:B266"/>
+    <mergeCell ref="A206:A220"/>
+    <mergeCell ref="A153:A163"/>
+    <mergeCell ref="A173:A178"/>
+    <mergeCell ref="A164:A172"/>
+    <mergeCell ref="A102:A107"/>
+    <mergeCell ref="A93:A101"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D2 J1:L280 N221">
     <cfRule type="expression" dxfId="7" priority="16">
@@ -10663,6 +10663,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="65db695a-03c5-40dc-8b31-fde6e09a4b01">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="b5388621-ea09-440d-99f9-2916c41d9c15" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A1151D2F3E73E54E96931DEC2C4BD52B" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="76f30d11f3f1ab636a1ce14ba6b65dba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65db695a-03c5-40dc-8b31-fde6e09a4b01" xmlns:ns3="b5388621-ea09-440d-99f9-2916c41d9c15" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba8031a2bc0820f314467ad3bdd63355" ns2:_="" ns3:_="">
     <xsd:import namespace="65db695a-03c5-40dc-8b31-fde6e09a4b01"/>
@@ -10875,17 +10886,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="65db695a-03c5-40dc-8b31-fde6e09a4b01">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="b5388621-ea09-440d-99f9-2916c41d9c15" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -10896,6 +10896,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FEA007-FE0D-422D-AB7D-BF57EC447DA6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="65db695a-03c5-40dc-8b31-fde6e09a4b01"/>
+    <ds:schemaRef ds:uri="b5388621-ea09-440d-99f9-2916c41d9c15"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79612192-7ECC-4289-942B-35AA1C3C498F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10914,17 +10925,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FEA007-FE0D-422D-AB7D-BF57EC447DA6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="65db695a-03c5-40dc-8b31-fde6e09a4b01"/>
-    <ds:schemaRef ds:uri="b5388621-ea09-440d-99f9-2916c41d9c15"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9EA11F2-72C1-405E-BD6A-290D3CF2104C}">
   <ds:schemaRefs>
